--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.596</v>
+        <v>16.651</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2457728065.41</v>
+        <v>-0.399</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1320725.636</v>
+        <v>31.508</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.905</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.472</v>
+        <v>8.196</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2825697.269227267</v>
+        <v>16.32528396943098</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1160931.832122577</v>
+        <v>16.36285416975231</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-828488.3224211992</v>
+        <v>16.36554801797624</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-724095.289710877</v>
+        <v>16.37084244827762</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1033003.613039677</v>
+        <v>16.33753491991143</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-34542.08466565213</v>
+        <v>16.38660241747448</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2727075.127244678</v>
+        <v>16.29381946764769</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-293294.4616709726</v>
+        <v>16.37425442393343</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>569564.6593212615</v>
+        <v>16.43924289239619</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>611857.3636344397</v>
+        <v>16.44213218070836</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-965914.9643425781</v>
+        <v>16.31083246680989</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>670581.7881801793</v>
+        <v>16.43063495219751</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-3248636.672420237</v>
+        <v>16.28029926151101</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-547424.2151173315</v>
+        <v>16.36382393901235</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>554185.2690396857</v>
+        <v>16.43187128791259</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>644499.047731734</v>
+        <v>16.44040804895754</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-1303556.059473578</v>
+        <v>16.28535347556569</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>462783.8000157669</v>
+        <v>16.40825993137927</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-4803369.5824654</v>
+        <v>16.29391619006926</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1485102.094105814</v>
+        <v>16.35808220806465</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-148057.9813133801</v>
+        <v>16.40014514053138</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>158262.6487913363</v>
+        <v>16.41259626633054</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-1729295.191818912</v>
+        <v>16.30153349794685</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>253992.4140467558</v>
+        <v>16.38663349918978</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-87991.80384428149</v>
+        <v>16.39294849093647</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>145698.8550557425</v>
+        <v>16.4226657852791</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1123585.049829361</v>
+        <v>16.30637698961461</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-94596.92368519651</v>
+        <v>16.38316031387216</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>110718.4797431737</v>
+        <v>16.42484191908306</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>385404.3070682973</v>
+        <v>16.46602930058735</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>822114.4480079418</v>
+        <v>16.52042766968543</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1065093.228431506</v>
+        <v>16.55147824350479</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-678488.5407546704</v>
+        <v>16.30420540537254</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1051666.773863858</v>
+        <v>16.46840296326657</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1295556.72457441</v>
+        <v>16.62560841967866</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1463487.420402333</v>
+        <v>16.65651244881327</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>675759.1598187345</v>
+        <v>16.49239669839362</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1007360.784521076</v>
+        <v>16.53433273256183</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-879275.388291385</v>
+        <v>16.27918045546028</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1059410.324303272</v>
+        <v>16.4508554396139</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1332750.999745914</v>
+        <v>16.60517231682804</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1542524.883796755</v>
+        <v>16.64425248248264</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>268689.1399707271</v>
+        <v>16.42713125625608</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>826096.874421202</v>
+        <v>16.47208444357506</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1225829.499287477</v>
+        <v>16.30080102969905</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1103146.626649864</v>
+        <v>16.4279426734568</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1273086.835623947</v>
+        <v>16.52544876204969</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1759134.597228424</v>
+        <v>16.5750168647719</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1482210.135251869</v>
+        <v>16.33175887098889</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1306671.794102842</v>
+        <v>16.43298570515148</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>645651.3941768103</v>
+        <v>16.45135753238502</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>764990.2975058259</v>
+        <v>16.46000074235646</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-936461.3946995471</v>
+        <v>16.30979158163148</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>328627.3432670119</v>
+        <v>16.42051576167106</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-1491160.319618034</v>
+        <v>16.29554478977931</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1619453.62817396</v>
+        <v>16.44847323820283</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1444965.189278012</v>
+        <v>16.53083186583389</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1484310.766616722</v>
+        <v>16.53469687425266</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-853928.0454492966</v>
+        <v>16.27291727118851</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>800059.3999411657</v>
+        <v>16.46574616576754</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1827693.702264067</v>
+        <v>16.2803995383767</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1490190.379313882</v>
+        <v>16.43442770685644</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1480798.888002256</v>
+        <v>16.51951455495806</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1547795.30900173</v>
+        <v>16.52914439149204</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1081706.400007342</v>
+        <v>16.24399072082417</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>660812.6096651262</v>
+        <v>16.4377075741455</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-2495310.704743018</v>
+        <v>16.29771015435264</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1834205.54168787</v>
+        <v>16.42054778452185</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1621885.259315806</v>
+        <v>16.47968988650634</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1889149.416060929</v>
+        <v>16.49505715827936</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-1499144.012587602</v>
+        <v>16.26431481840412</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>534272.1980994613</v>
+        <v>16.40667558263537</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>249962.7122890485</v>
+        <v>16.45209937042665</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>407967.558196298</v>
+        <v>16.48029916122035</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-914548.2911469819</v>
+        <v>16.27793218450183</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>366326.8862804179</v>
+        <v>16.42550735524572</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>331652.009900543</v>
+        <v>16.48338546112917</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>548490.2393414011</v>
+        <v>16.52961470997719</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>848870.6731266588</v>
+        <v>16.58203019161887</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>996472.6759999236</v>
+        <v>16.60834380012562</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-668456.0574263801</v>
+        <v>16.2589029449904</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1055443.220540705</v>
+        <v>16.50800870681421</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1051755.815624945</v>
+        <v>16.68101807579141</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1153807.550717209</v>
+        <v>16.71177826411825</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>754905.0276362494</v>
+        <v>16.5457080368962</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>957222.3169263622</v>
+        <v>16.58366003492099</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-827821.4718954141</v>
+        <v>16.22884393409618</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1047339.095864449</v>
+        <v>16.4835443050651</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1065942.197881527</v>
+        <v>16.65126781927413</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1187450.227259292</v>
+        <v>16.69027094313774</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>515317.3636746465</v>
+        <v>16.46674360064146</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>872072.4906529061</v>
+        <v>16.5107890900203</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-1074412.890466959</v>
+        <v>16.26282560693342</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1233135.582597216</v>
+        <v>16.45725961483018</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1132204.133276199</v>
+        <v>16.56853117054202</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1459771.88691631</v>
+        <v>16.62158486451921</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1671929.438444416</v>
+        <v>16.32983467965629</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>773811.8931012822</v>
+        <v>16.42261342946232</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>427783.5052382991</v>
+        <v>16.45238523850733</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>482736.6840703059</v>
+        <v>16.45303623353941</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-803775.1926301889</v>
+        <v>16.32806419399889</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>503579.3113881469</v>
+        <v>16.44036523464333</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1480593.25263</v>
+        <v>16.30019476855132</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1390914.037671467</v>
+        <v>16.44516629821891</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1400176.892500983</v>
+        <v>16.54195659420732</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1380641.211712607</v>
+        <v>16.53683093541033</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-683916.6487162963</v>
+        <v>16.29931301871985</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1033783.413716164</v>
+        <v>16.4954078070807</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1790499.499410154</v>
+        <v>16.28655682690432</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1299877.787091701</v>
+        <v>16.43332497392808</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1462368.925054121</v>
+        <v>16.5332269107909</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1465350.856909386</v>
+        <v>16.53376884178294</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-875173.4051406254</v>
+        <v>16.27263595796194</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>946678.807181639</v>
+        <v>16.47023140035948</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-2593823.168570919</v>
+        <v>16.30054535273781</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1378682.109099092</v>
+        <v>16.41707355429556</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1499808.230779148</v>
+        <v>16.48865222374979</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1673843.896530924</v>
+        <v>16.4960675704013</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-1228111.137527715</v>
+        <v>16.28826608243013</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>917683.3830116395</v>
+        <v>16.43385545286812</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>410725.7549656932</v>
+        <v>16.49263187743917</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>499689.2898133505</v>
+        <v>16.50586112159757</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-846128.6011628421</v>
+        <v>16.28588869878067</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>440630.5921316664</v>
+        <v>16.43737368912853</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>420130.6096074231</v>
+        <v>16.51645023584906</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>581784.8368525938</v>
+        <v>16.5457216945311</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1052651.10686381</v>
+        <v>16.63618775088921</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1130250.717368693</v>
+        <v>16.64569231620091</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-574932.7923388864</v>
+        <v>16.27548844327244</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1177278.544409898</v>
+        <v>16.53049306874551</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1170205.585890472</v>
+        <v>16.72907450716881</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1223333.551076377</v>
+        <v>16.74095930469316</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>996770.8455717481</v>
+        <v>16.60343151085981</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1120597.194953824</v>
+        <v>16.62446613767096</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-708748.1409045632</v>
+        <v>16.24790695644106</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1206378.18702641</v>
+        <v>16.50909107474905</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1210188.784007133</v>
+        <v>16.7030890956685</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1277347.534943385</v>
+        <v>16.7231565722744</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>833715.4744781641</v>
+        <v>16.51608022193279</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1077966.158727929</v>
+        <v>16.54537293335704</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-924729.544425</v>
+        <v>16.27787982274117</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1436007.577251891</v>
+        <v>16.47778379421895</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1322015.347375984</v>
+        <v>16.61192421792328</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1562205.066388672</v>
+        <v>16.64839875039081</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-2586659.73050799</v>
+        <v>16.3378759987902</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-1174488.963637957</v>
+        <v>16.36792260316303</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-743112.4085849982</v>
+        <v>16.36896686645346</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-657637.6187361846</v>
+        <v>16.3751560660389</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-957335.8528899034</v>
+        <v>16.35196218261067</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-144598.4156368136</v>
+        <v>16.38785883422698</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-2487212.326834042</v>
+        <v>16.30599110509442</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-333331.3597172053</v>
+        <v>16.37773571688506</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>530044.6220038729</v>
+        <v>16.43953830730142</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>568423.7449977741</v>
+        <v>16.44373940935127</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-848598.1504365103</v>
+        <v>16.32473160805941</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>573276.5477715804</v>
+        <v>16.4294045831614</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-2960620.210040479</v>
+        <v>16.2919733472772</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-562819.8569069003</v>
+        <v>16.36698427290961</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>507311.6601496892</v>
+        <v>16.43152506908202</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>591847.3499437729</v>
+        <v>16.44127229120535</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-1150601.811979865</v>
+        <v>16.29831641912979</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>390685.8220454818</v>
+        <v>16.40641078297784</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-4290110.938830941</v>
+        <v>16.30350824691848</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-1365363.465490631</v>
+        <v>16.36086401846055</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-88107.57638363227</v>
+        <v>16.40027307369686</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>183574.1210784868</v>
+        <v>16.41328618546854</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-1577434.955286582</v>
+        <v>16.31108962819399</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>133078.5912899396</v>
+        <v>16.384265358347</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-228805.6811698611</v>
+        <v>16.38668139197438</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>12024.56946179379</v>
+        <v>16.41595132884004</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-1080264.733236693</v>
+        <v>16.31746843068837</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-235982.8554470107</v>
+        <v>16.3803176942396</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-33265.20194241546</v>
+        <v>16.41153548613789</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>241235.8066222431</v>
+        <v>16.4525264254783</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>640851.7924323377</v>
+        <v>16.50961905905445</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>894896.3399551011</v>
+        <v>16.54051727851196</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-562876.7489049931</v>
+        <v>16.31547487033356</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>926587.3291829856</v>
+        <v>16.46355770893604</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1117998.222863795</v>
+        <v>16.60833288177718</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1300385.272345519</v>
+        <v>16.63932934280672</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>506267.233166875</v>
+        <v>16.48073092651435</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>841073.0426048073</v>
+        <v>16.5223491064921</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-735088.7289528361</v>
+        <v>16.28962391198543</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>938329.7612871649</v>
+        <v>16.44546403738726</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1149859.491354286</v>
+        <v>16.58721745667547</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1371905.973706815</v>
+        <v>16.62620608824803</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>75266.85601164808</v>
+        <v>16.41638638782626</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>613393.6355030204</v>
+        <v>16.46041800583565</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-1123951.583670727</v>
+        <v>16.30786502771431</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>883640.4662260045</v>
+        <v>16.42226399965586</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1034645.366104321</v>
+        <v>16.50908043769936</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1507996.831056133</v>
+        <v>16.55793100228068</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-1807554.995395329</v>
+        <v>16.34490872253529</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>884576.2718971838</v>
+        <v>16.41920655712348</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>417210.4648982178</v>
+        <v>16.44265317749086</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>509405.1104487537</v>
+        <v>16.4440866675528</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-622498.3457678971</v>
+        <v>16.35263510047641</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>788295.32054753</v>
+        <v>16.44279063404753</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1525463.908903135</v>
+        <v>16.3221567171783</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1861971.844581781</v>
+        <v>16.44237123068639</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1852429.263342067</v>
+        <v>16.53209430299118</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1888544.029828957</v>
+        <v>16.53001916797322</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-559379.6538291262</v>
+        <v>16.3319502645241</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1435479.898975384</v>
+        <v>16.49587470688681</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-1873558.186942627</v>
+        <v>16.31229951287046</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1822760.761704294</v>
+        <v>16.43476194117601</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1976070.403378128</v>
+        <v>16.52845166902112</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2056945.716798561</v>
+        <v>16.53174079919388</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-828366.7626886721</v>
+        <v>16.31025861767856</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1318749.571532635</v>
+        <v>16.47645128169906</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-2854129.56149153</v>
+        <v>16.32348179692646</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1835501.36111698</v>
+        <v>16.42105279563943</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1866591.705518073</v>
+        <v>16.48521271644724</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2144668.889015752</v>
+        <v>16.49328330772273</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-1056479.165654847</v>
+        <v>16.32518930591932</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1488057.224440017</v>
+        <v>16.44781227590313</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>678266.4747148186</v>
+        <v>16.48681728748349</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>824874.1951176049</v>
+        <v>16.50322522422114</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-948078.3092023118</v>
+        <v>16.30039971186132</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>349058.0926869027</v>
+        <v>16.41654508631893</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>467399.1097539769</v>
+        <v>16.48249782053195</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>707579.3450701276</v>
+        <v>16.51412469988457</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1518243.314532198</v>
+        <v>16.62860323383686</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1671518.836023041</v>
+        <v>16.64377515185904</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-599669.1772739833</v>
+        <v>16.29564052626534</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1342144.465777138</v>
+        <v>16.50192053144417</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1520062.268884841</v>
+        <v>16.68521498040321</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1647221.311564527</v>
+        <v>16.70412147333281</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1445407.54931936</v>
+        <v>16.60414017423571</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-779250.0282262734</v>
+        <v>16.27415977281803</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1372798.091778762</v>
+        <v>16.48701264984823</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1576607.801532198</v>
+        <v>16.66822795472843</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1736338.483194366</v>
+        <v>16.69478975896536</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1365365.871051861</v>
+        <v>16.5252457493546</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1771293.635960347</v>
+        <v>16.5565614555684</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-976873.921404249</v>
+        <v>16.30375968243829</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1678639.933094011</v>
+        <v>16.46661410763773</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1738527.523713353</v>
+        <v>16.58868515162843</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>2145666.621701043</v>
+        <v>16.62776342038818</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-1077061.450407195</v>
+        <v>16.30240754715659</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>642096.4078959231</v>
+        <v>16.45499709491063</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>297608.7218765558</v>
+        <v>16.48600772479625</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>324050.0443634924</v>
+        <v>16.48196162533844</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-454544.5211828614</v>
+        <v>16.30147793834269</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>520623.2281115919</v>
+        <v>16.4903735842901</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-931261.2940233425</v>
+        <v>16.25932682706075</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>926400.5087871203</v>
+        <v>16.47790974312971</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>816026.1837605833</v>
+        <v>16.59364189620059</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>809543.2991911906</v>
+        <v>16.58152730691593</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-368880.9987507127</v>
+        <v>16.25871502069082</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>785828.3204309087</v>
+        <v>16.55308710351368</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-1077048.547513605</v>
+        <v>16.24435685646624</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>905006.3067763012</v>
+        <v>16.46435878989836</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>878536.6391596162</v>
+        <v>16.58526471076814</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>882120.6115544233</v>
+        <v>16.57986445031068</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-464877.2825137086</v>
+        <v>16.22729056267094</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>758901.900912415</v>
+        <v>16.52260279787385</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-1472372.74230698</v>
+        <v>16.27454231961922</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1185840.95432735</v>
+        <v>16.45336494281091</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1012184.48608454</v>
+        <v>16.53919912402755</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1090905.2530159</v>
+        <v>16.5431783823585</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-636648.7084542137</v>
+        <v>16.26033284107898</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>887873.9020678898</v>
+        <v>16.48641239943071</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>386797.0580824593</v>
+        <v>16.55717769768501</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>438963.5747002697</v>
+        <v>16.5679510905874</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-477469.4787500781</v>
+        <v>16.24555852593076</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>379048.160345129</v>
+        <v>16.47172077644025</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>307067.1640510467</v>
+        <v>16.56175708765768</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>384875.1028093917</v>
+        <v>16.59676761060258</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>715246.2955588365</v>
+        <v>16.73306918472202</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>759814.4069119348</v>
+        <v>16.73771554129075</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-329902.0076103284</v>
+        <v>16.2206537023827</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>689483.7757664233</v>
+        <v>16.81415692437823</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>710574.4256397091</v>
+        <v>16.82660997777522</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>696872.497404776</v>
+        <v>16.69437725303042</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>764564.0043171587</v>
+        <v>16.71270870396748</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-398424.3863396228</v>
+        <v>16.18887373725185</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>761811.4514074464</v>
+        <v>16.55022176833021</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>717458.7012593142</v>
+        <v>16.78531431635031</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>743920.9612853731</v>
+        <v>16.80710464211506</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>700270.5053449998</v>
+        <v>16.59305481146199</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>832820.7776455231</v>
+        <v>16.6228384191499</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-493541.5263038094</v>
+        <v>16.2454229630411</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>994486.4673536277</v>
+        <v>16.52840139754878</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>845091.4518549164</v>
+        <v>16.69040152198578</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>952391.7784562773</v>
+        <v>16.73292259597007</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-1516803.354173552</v>
+        <v>16.30503685841277</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-843506.1573688849</v>
+        <v>16.3459558876297</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-398566.1825935685</v>
+        <v>16.35629297409391</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-384071.8015885297</v>
+        <v>16.36047451814465</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-586648.156233817</v>
+        <v>16.32719100947132</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-56803.57259493198</v>
+        <v>16.39899312136559</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-1508428.978759189</v>
+        <v>16.24976431917484</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-584628.2723348284</v>
+        <v>16.34781854118798</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>71303.25993537494</v>
+        <v>16.43538932454339</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>58503.16509788857</v>
+        <v>16.43517002622897</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-479326.6218633477</v>
+        <v>16.28371036865776</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>279680.9572988873</v>
+        <v>16.45262893013748</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-1777350.147752957</v>
+        <v>16.22654746422124</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-765043.9207128827</v>
+        <v>16.32873177423414</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25856.53117180424</v>
+        <v>16.41872391809238</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25721.3278252767</v>
+        <v>16.42592981106243</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-608246.9714699922</v>
+        <v>16.24633386698277</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>195329.9679399718</v>
+        <v>16.4187104145001</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-2569838.84016983</v>
+        <v>16.25214040919062</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-1284104.506009199</v>
+        <v>16.32986791471301</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-265074.992166406</v>
+        <v>16.38877970582994</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-192347.6597850368</v>
+        <v>16.40224581696442</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-875182.9153714891</v>
+        <v>16.27114165975724</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>49063.44443110576</v>
+        <v>16.39082207502069</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-32769.6603757444</v>
+        <v>16.41467120391966</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>56937.21535673639</v>
+        <v>16.45476944460988</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-587765.1153784103</v>
+        <v>16.28320420580096</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-14990.75793364922</v>
+        <v>16.40232096177451</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>90358.11540692164</v>
+        <v>16.4668635758236</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>189254.2848211651</v>
+        <v>16.517999374164</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>346231.1005005569</v>
+        <v>16.57210607586098</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>439981.3137558948</v>
+        <v>16.61362842199179</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-336388.20684475</v>
+        <v>16.27953702751942</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>501835.9488864074</v>
+        <v>16.51969026495962</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>576838.7473953884</v>
+        <v>16.73310279948395</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>632467.1779160822</v>
+        <v>16.76897027562272</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>285894.8079434553</v>
+        <v>16.52865909533379</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>413568.8407169982</v>
+        <v>16.58473726837605</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-399135.9489430575</v>
+        <v>16.24448829350912</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>525469.3553204768</v>
+        <v>16.49408333550042</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>602311.2870419045</v>
+        <v>16.7021361399622</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>671818.1902184758</v>
+        <v>16.74884383636872</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>101119.9277345201</v>
+        <v>16.4466026766671</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>306562.5793924822</v>
+        <v>16.50656971632282</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-567535.9515667924</v>
+        <v>16.27440211218373</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>567004.7939217446</v>
+        <v>16.46070472653549</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>608052.1424752413</v>
+        <v>16.59646754868903</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>771291.1254957024</v>
+        <v>16.65802565922947</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-2610499.361179275</v>
+        <v>16.30187039396425</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-1453691.116733354</v>
+        <v>16.3363073566294</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-1044464.165253209</v>
+        <v>16.32916518410025</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-964658.948972099</v>
+        <v>16.3418929489385</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1381274.905090485</v>
+        <v>16.28525248236337</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-816255.1088211836</v>
+        <v>16.32122673612099</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-2479501.665075173</v>
+        <v>16.25713786486261</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-763045.1144985268</v>
+        <v>16.33886627563938</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-45201.53183038333</v>
+        <v>16.39731328291938</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-4910.442723515077</v>
+        <v>16.40766949980566</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-1403988.810890625</v>
+        <v>16.23402100744226</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-372837.2424108853</v>
+        <v>16.34744476163686</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-2854844.169332931</v>
+        <v>16.24222468755396</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-948163.9969440232</v>
+        <v>16.32767857022823</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-63817.38263473915</v>
+        <v>16.38958862984043</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>11202.75515742251</v>
+        <v>16.40596690309967</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-1671984.724010607</v>
+        <v>16.20539682062399</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-553086.4866321583</v>
+        <v>16.32288533206623</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-4150462.70634821</v>
+        <v>16.26383523487519</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-1803838.115198967</v>
+        <v>16.32923202267799</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-662440.172101559</v>
+        <v>16.36574979464345</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-435728.117595839</v>
+        <v>16.38537194573349</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-2178643.395480293</v>
+        <v>16.23825063164647</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-945901.4225658298</v>
+        <v>16.31700457742298</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-495977.4315355705</v>
+        <v>16.31906872162305</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-357200.8998441699</v>
+        <v>16.35436594089607</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1321889.271099685</v>
+        <v>16.25202785483033</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-712518.4164413878</v>
+        <v>16.31510541133353</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-330726.8066774076</v>
+        <v>16.34116524921716</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-83309.98344452937</v>
+        <v>16.4001823441862</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>91653.53537824433</v>
+        <v>16.4320072532435</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>238622.8904457309</v>
+        <v>16.4684985488289</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-1028248.484043628</v>
+        <v>16.22285262408839</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>89408.20095344502</v>
+        <v>16.38190395082304</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>464906.1490922531</v>
+        <v>16.52756968468024</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>633585.1962671137</v>
+        <v>16.57540051662437</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-30079.31872474937</v>
+        <v>16.4006949261902</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>175121.1783596882</v>
+        <v>16.44910565093539</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1189172.516410098</v>
+        <v>16.19386696863237</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>69580.61011638901</v>
+        <v>16.36199772380837</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>468648.3521207439</v>
+        <v>16.5040640399361</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>667746.6739667556</v>
+        <v>16.56041376377332</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-443304.7068672717</v>
+        <v>16.35030293168634</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-97032.73188035557</v>
+        <v>16.40164560376349</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1584846.373054164</v>
+        <v>16.23758610950147</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-84010.88603369979</v>
+        <v>16.35999868612559</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>335644.0922037389</v>
+        <v>16.44663696595795</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>745178.7248138641</v>
+        <v>16.51275892092147</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-1079867.69802456</v>
+        <v>16.31912032246814</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1128447.320334271</v>
+        <v>16.45629854031674</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>765833.9271584045</v>
+        <v>16.50378110465135</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>801904.3265674164</v>
+        <v>16.50486164524247</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-766124.8388845562</v>
+        <v>16.27082613715513</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>261453.96038739</v>
+        <v>16.42651242560802</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-979568.4264805164</v>
+        <v>16.28050112098289</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1415618.358633316</v>
+        <v>16.48008599806304</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1378775.556729586</v>
+        <v>16.60939734221505</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1366589.573061632</v>
+        <v>16.6030310196474</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-634804.8623664761</v>
+        <v>16.22845341074366</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>630682.1560070713</v>
+        <v>16.48250722121314</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-1214419.570414037</v>
+        <v>16.2641795405741</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1350913.422886194</v>
+        <v>16.46551575040725</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1442078.863010242</v>
+        <v>16.5991283331783</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1442496.794437027</v>
+        <v>16.59890007620331</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-767792.9717237101</v>
+        <v>16.20003057157931</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>575979.342310716</v>
+        <v>16.4558383961821</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-1840050.375407506</v>
+        <v>16.28035090123528</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1576694.552300593</v>
+        <v>16.44315486021835</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1621056.56847857</v>
+        <v>16.53894436564406</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1719613.999423848</v>
+        <v>16.54686304889406</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1102865.333579092</v>
+        <v>16.22754081421172</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>543484.4712250282</v>
+        <v>16.42088006392459</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>190598.4427343611</v>
+        <v>16.47905858364527</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>248078.8462345659</v>
+        <v>16.49570724577887</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-686255.657032017</v>
+        <v>16.23548855761794</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>290847.915369574</v>
+        <v>16.43357633042667</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>291347.5799888413</v>
+        <v>16.52376730225613</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>396135.5362327312</v>
+        <v>16.55861433737497</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>651774.2995584966</v>
+        <v>16.64078605735494</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>699971.2057368647</v>
+        <v>16.65223125685971</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-493641.0472378081</v>
+        <v>16.20964094309582</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>764634.983016536</v>
+        <v>16.52863424375781</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>786749.0183522167</v>
+        <v>16.75898612749788</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>816743.1907510165</v>
+        <v>16.7728063295295</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>616782.0502127807</v>
+        <v>16.6072949257698</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>695637.428278945</v>
+        <v>16.63152475718052</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-579924.5806389167</v>
+        <v>16.18030257252805</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>795014.7888072074</v>
+        <v>16.50666295660619</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>823790.9065936848</v>
+        <v>16.73366045621337</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>860825.8738841993</v>
+        <v>16.75627811647803</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>464019.1914071807</v>
+        <v>16.51151839418192</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>623756.0414803153</v>
+        <v>16.54556566296094</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-743836.2767818986</v>
+        <v>16.22758801539599</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1000522.152618046</v>
+        <v>16.48133694946329</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>933468.0833590366</v>
+        <v>16.63770673583774</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1080348.322170175</v>
+        <v>16.67950767310527</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-1845456.883847401</v>
+        <v>16.31620774221858</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-1162235.257749564</v>
+        <v>16.33492468154552</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-847712.1610800985</v>
+        <v>16.32102630408545</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-778457.3956117963</v>
+        <v>16.33458387043271</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-968042.6449170038</v>
+        <v>16.31584691255285</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-514333.7702305053</v>
+        <v>16.34290223575212</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-1791419.715446509</v>
+        <v>16.27701681383687</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-729368.007142292</v>
+        <v>16.34423306652555</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-184639.2285288509</v>
+        <v>16.3926752849378</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-154126.4307454982</v>
+        <v>16.40419205363605</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-761270.5786476748</v>
+        <v>16.28710156402363</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13172.12952047128</v>
+        <v>16.39583535498911</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-2109660.450513706</v>
+        <v>16.2561061578101</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-954187.2084315767</v>
+        <v>16.32636750123621</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-264111.3244838762</v>
+        <v>16.37592737060238</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-207528.8259812058</v>
+        <v>16.39458551431755</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-956395.7525322066</v>
+        <v>16.24982422369502</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-146837.2642136082</v>
+        <v>16.36113077743983</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-3098397.128153794</v>
+        <v>16.27170412926384</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-1751279.276187553</v>
+        <v>16.32134436011746</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-838144.40719826</v>
+        <v>16.34871420604741</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-646267.9380157811</v>
+        <v>16.37161297934736</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-1551276.68327791</v>
+        <v>16.2590300073079</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-720842.1210199635</v>
+        <v>16.32730477276646</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-398252.6588665081</v>
+        <v>16.32573427648068</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-260211.564867353</v>
+        <v>16.37383866525285</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-791204.6757948229</v>
+        <v>16.28800306174425</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-338012.7799401898</v>
+        <v>16.34666579052411</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-165566.6796485244</v>
+        <v>16.36427572378651</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19925.2377933341</v>
+        <v>16.43117692656913</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>141446.0356560813</v>
+        <v>16.46245773760185</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>293522.0745568002</v>
+        <v>16.51423403338444</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-423113.0260450413</v>
+        <v>16.29640376160209</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>396655.9288363686</v>
+        <v>16.45675041256401</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>499576.3294412746</v>
+        <v>16.59650856987618</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>633483.8688941047</v>
+        <v>16.6535298793911</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25654.73736262726</v>
+        <v>16.41697071037947</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>230519.9657816075</v>
+        <v>16.48243594302135</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-530528.2067649515</v>
+        <v>16.25951816760662</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>372860.5953070527</v>
+        <v>16.42766256083704</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>488805.188336895</v>
+        <v>16.55981894497814</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>653138.8780747475</v>
+        <v>16.62732405933358</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-477045.9305390492</v>
+        <v>16.34018665937076</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-154213.6749026448</v>
+        <v>16.40743184678164</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-909097.6228208927</v>
+        <v>16.2676439507657</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>109142.1769380343</v>
+        <v>16.38464795013356</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>252559.4894935824</v>
+        <v>16.45853710748093</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>580617.8994000258</v>
+        <v>16.53608386505197</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-2718478.429204483</v>
+        <v>16.25668592764497</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-1276996.110691222</v>
+        <v>16.33876781574769</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-1035847.282897617</v>
+        <v>16.33358259445828</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-1004524.080161409</v>
+        <v>16.33174395810886</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-844572.4382552594</v>
+        <v>16.3063109769695</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>183999.9698534647</v>
+        <v>16.41379096748734</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-2487823.053031927</v>
+        <v>16.21643839418426</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-664673.0803441319</v>
+        <v>16.34999129283054</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-194782.6918699456</v>
+        <v>16.40804599014059</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-215850.4373007077</v>
+        <v>16.40055297724261</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-761954.7206805655</v>
+        <v>16.27184171291189</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>611460.7077224038</v>
+        <v>16.4633567192355</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-2746221.834243746</v>
+        <v>16.20567683465115</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-770282.5933351901</v>
+        <v>16.34119617790912</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-182967.2824553343</v>
+        <v>16.40320427025735</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-183593.3378265525</v>
+        <v>16.40168974366325</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-918276.069151454</v>
+        <v>16.24520017313187</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>539652.1641321145</v>
+        <v>16.43816764954765</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-3688620.560194823</v>
+        <v>16.23926168539464</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1173843.927697409</v>
+        <v>16.34646315681978</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-520285.7126587505</v>
+        <v>16.38757625781729</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-386970.2186483296</v>
+        <v>16.39316475662419</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1228135.450350615</v>
+        <v>16.27113280707318</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>483859.5194760778</v>
+        <v>16.41271737846298</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>211156.0154974807</v>
+        <v>16.45334819120464</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>284472.5809343099</v>
+        <v>16.46401759631737</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-701953.9306710414</v>
+        <v>16.27615793666198</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>338540.1627403685</v>
+        <v>16.42098389748441</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>298523.8703302549</v>
+        <v>16.48451898892642</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>433463.6780635511</v>
+        <v>16.51436719817585</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>708603.0103055841</v>
+        <v>16.59017742348193</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>774764.0790576373</v>
+        <v>16.59720362940935</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-464257.0903644885</v>
+        <v>16.26339955170133</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>961342.5924755525</v>
+        <v>16.51193488086688</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>931514.7624122623</v>
+        <v>16.69483896781793</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>977718.8590102966</v>
+        <v>16.70728957063449</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>658670.9499128922</v>
+        <v>16.55702230835694</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>762443.5743407308</v>
+        <v>16.57597422688233</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-568138.0773005604</v>
+        <v>16.23562965109565</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>989135.3835830367</v>
+        <v>16.49036574108542</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>965276.6560072106</v>
+        <v>16.66853192297612</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1023152.329107347</v>
+        <v>16.68942757923325</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>534179.0400239457</v>
+        <v>16.48367094446214</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>733449.3995970781</v>
+        <v>16.51111751917717</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-736069.4162451546</v>
+        <v>16.27345715893825</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1190583.132044495</v>
+        <v>16.46794774012652</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1062929.725412433</v>
+        <v>16.58943731031702</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1260306.587628793</v>
+        <v>16.62675929665867</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-2019507.31072203</v>
+        <v>16.33571435390967</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-978579.7909462658</v>
+        <v>16.36139711188649</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-677202.0014191784</v>
+        <v>16.35990650919586</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-599809.8710530497</v>
+        <v>16.36651590514254</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-1304942.47282578</v>
+        <v>16.30927858389185</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-848890.8796979563</v>
+        <v>16.33204066730987</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-1998028.526745736</v>
+        <v>16.29373721846479</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-555535.7201263928</v>
+        <v>16.36223582481228</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>64362.83268961999</v>
+        <v>16.41670286574187</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>106017.8824912947</v>
+        <v>16.42063552126923</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-1247071.680268409</v>
+        <v>16.26437005638639</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-407573.364505105</v>
+        <v>16.35791024591825</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-2329257.179655469</v>
+        <v>16.27729252736135</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-754012.9825436317</v>
+        <v>16.34874295638428</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22423.7076398077</v>
+        <v>16.40516004270077</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>93714.10314075967</v>
+        <v>16.41491292511093</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1481466.688988807</v>
+        <v>16.23512190855196</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-589395.0130245611</v>
+        <v>16.33164750077697</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-3407213.875122856</v>
+        <v>16.2908417318752</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1426225.847799076</v>
+        <v>16.34462190564648</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-469059.7876020703</v>
+        <v>16.37965087771326</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-246460.9244260656</v>
+        <v>16.39344163927917</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-2025491.917455264</v>
+        <v>16.25607691374029</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1081927.683246733</v>
+        <v>16.31773838029116</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-603737.5846854218</v>
+        <v>16.32406607626376</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-452723.1824796056</v>
+        <v>16.35349557856001</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-946733.9200338768</v>
+        <v>16.29614905181259</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-283090.9696541634</v>
+        <v>16.35750593301279</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-147004.225753673</v>
+        <v>16.38241861309211</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27531.95480048906</v>
+        <v>16.42273874988976</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-70075.97460679279</v>
+        <v>16.42296908795079</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>99731.69318334517</v>
+        <v>16.4537948163672</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-664334.3768244867</v>
+        <v>16.28102910894206</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>415305.7074349129</v>
+        <v>16.43196463331181</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>560860.9571098099</v>
+        <v>16.56411080224133</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>660352.8169001465</v>
+        <v>16.59244557882162</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-201595.3868120563</v>
+        <v>16.38856519428386</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>19913.1082923878</v>
+        <v>16.43080626834061</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-808530.5322222942</v>
+        <v>16.25136235332824</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>392747.8739311208</v>
+        <v>16.40983360333931</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>558777.6316492347</v>
+        <v>16.53694330932797</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>677138.7006979319</v>
+        <v>16.57362923065507</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-679372.0889846018</v>
+        <v>16.33691857929063</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-346815.8251434652</v>
+        <v>16.38195486166954</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-1148195.056718922</v>
+        <v>16.27403018097223</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>306891.056250349</v>
+        <v>16.38894277473479</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>428879.6260729491</v>
+        <v>16.46559659063345</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>697818.7050935237</v>
+        <v>16.51356490886604</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-2353902.768452408</v>
+        <v>16.32668948146308</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-1921322.694186938</v>
+        <v>16.32985237609527</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-1378845.417259294</v>
+        <v>16.30744645482052</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-1345886.73046646</v>
+        <v>16.30948983002467</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-1385802.00783801</v>
+        <v>16.30352309846271</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-1182457.329054414</v>
+        <v>16.30041154413372</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-2303369.93870269</v>
+        <v>16.27411033796918</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1525387.66733631</v>
+        <v>16.31814852096807</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-767813.8961280122</v>
+        <v>16.34653794471305</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-757421.3370185617</v>
+        <v>16.34578480171855</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1385831.745663611</v>
+        <v>16.24376277412022</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-863484.808721176</v>
+        <v>16.30948259059828</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-2591639.901137685</v>
+        <v>16.25622560912934</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-1727246.454431104</v>
+        <v>16.30367018666272</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-842408.8269923449</v>
+        <v>16.33366032901584</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-808087.2450856226</v>
+        <v>16.33906060298585</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-1594346.756142152</v>
+        <v>16.21147086663793</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-1037888.791028557</v>
+        <v>16.28060383262551</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-3590795.845933066</v>
+        <v>16.28036611053738</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-2538359.48290111</v>
+        <v>16.31389473292977</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-1420109.756786896</v>
+        <v>16.32954410581906</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-1276253.988659574</v>
+        <v>16.3394861681275</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-2087732.684001492</v>
+        <v>16.24588475382852</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-1541832.227949605</v>
+        <v>16.28418512522637</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-774555.0977245155</v>
+        <v>16.27644653615812</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-719243.9157156198</v>
+        <v>16.29691069021633</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-913293.3318361118</v>
+        <v>16.29952005333919</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-516722.6070200942</v>
+        <v>16.33244365170441</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-299456.1188283368</v>
+        <v>16.34206563215857</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-186488.9679857119</v>
+        <v>16.37523001646542</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-386196.404939323</v>
+        <v>16.35288958525378</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-310800.1314183996</v>
+        <v>16.3742195606012</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-681057.6792112323</v>
+        <v>16.27264834997899</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>58473.40239930111</v>
+        <v>16.39308165554418</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>283751.2234571368</v>
+        <v>16.50556132757059</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>335430.8440366775</v>
+        <v>16.52612146303927</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-512602.8692721258</v>
+        <v>16.31478125351026</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-397478.9767369786</v>
+        <v>16.34813179673673</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-808333.6507066297</v>
+        <v>16.23946136032123</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>21674.50357457696</v>
+        <v>16.36794044582008</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>269614.6477889293</v>
+        <v>16.47426098209883</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>335335.7708661536</v>
+        <v>16.50371364824566</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-923713.0951755322</v>
+        <v>16.28756808143982</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-744455.7724865304</v>
+        <v>16.32499276731031</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1121188.499894285</v>
+        <v>16.27285547887926</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-125553.954028182</v>
+        <v>16.36225174472079</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>127762.7245922946</v>
+        <v>16.42439924227486</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>307916.29217505</v>
+        <v>16.46641000869353</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-1220108.663821711</v>
+        <v>16.36117144445414</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>125764.462946654</v>
+        <v>16.40267815352386</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-35420.78232287794</v>
+        <v>16.40646256314962</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>104192.4095381421</v>
+        <v>16.41329223543444</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-983595.4990360772</v>
+        <v>16.32478673770049</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-368510.485051843</v>
+        <v>16.36752749644853</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-1006502.994140629</v>
+        <v>16.33926359982429</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>911514.1792455716</v>
+        <v>16.42952683719053</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1141932.188207903</v>
+        <v>16.50833351286015</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1223886.434113367</v>
+        <v>16.51197262594755</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-860313.7177567391</v>
+        <v>16.30140686891352</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>237991.8031568662</v>
+        <v>16.42349017610903</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-1315784.420107162</v>
+        <v>16.32495211311803</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>799839.8811053011</v>
+        <v>16.41873070544348</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1188024.173268677</v>
+        <v>16.50189802717119</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>1309075.602137772</v>
+        <v>16.51185270739872</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-1087473.270401087</v>
+        <v>16.27554985223595</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>103865.1289274513</v>
+        <v>16.4015181221784</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-2463958.42483767</v>
+        <v>16.31935515699537</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>127958.7365600128</v>
+        <v>16.39119714195272</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>624271.6036888894</v>
+        <v>16.43961763646628</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>945500.4439928166</v>
+        <v>16.45443375459798</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-1558626.601892461</v>
+        <v>16.28215322686069</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-237639.1099700217</v>
+        <v>16.36726125418688</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-364587.7433410584</v>
+        <v>16.35557262928999</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-237638.0145609383</v>
+        <v>16.38163371695919</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-837058.0478445904</v>
+        <v>16.30876913153311</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-145271.2666865869</v>
+        <v>16.38519291453529</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-41029.01872970441</v>
+        <v>16.41534862091931</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>139000.1974848014</v>
+        <v>16.45528081933853</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>394261.1162973591</v>
+        <v>16.50852481881778</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>525408.9555963152</v>
+        <v>16.53468718422481</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>-450217.2873895594</v>
+        <v>16.31690736409312</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>772112.5082113146</v>
+        <v>16.49200577866322</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>910946.4962929185</v>
+        <v>16.65668554230182</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1005875.343346039</v>
+        <v>16.68331293871431</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>303096.3911825601</v>
+        <v>16.48182633844384</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>495726.0307905001</v>
+        <v>16.52042778723246</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-578452.1977744846</v>
+        <v>16.29120467970003</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>798604.4680318632</v>
+        <v>16.4751503490557</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>955274.1429198688</v>
+        <v>16.63833308043366</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1077706.543013988</v>
+        <v>16.67423246855952</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-170914.2684693659</v>
+        <v>16.39579802904513</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>176989.6106771431</v>
+        <v>16.43975892595601</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-919085.7504755538</v>
+        <v>16.29852513147975</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>731877.5677605179</v>
+        <v>16.4335280933143</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>799068.2317524997</v>
+        <v>16.52883914014348</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1120458.934877636</v>
+        <v>16.57860044178421</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>-998200.0170165655</v>
+        <v>16.35116665530148</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1249602.761025634</v>
+        <v>16.42952426103812</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>744774.7328968483</v>
+        <v>16.45320002095432</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>878131.3822959767</v>
+        <v>16.4617906051339</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-946518.1289559808</v>
+        <v>16.31373303987388</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>84701.08449231245</v>
+        <v>16.39966636973726</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-1068293.654924989</v>
+        <v>16.31931615702088</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1540459.42230065</v>
+        <v>16.44529403854227</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1495730.853255976</v>
+        <v>16.52912605937234</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1559509.083189051</v>
+        <v>16.53406222807417</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-838749.4270514227</v>
+        <v>16.28103724769793</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>591691.7186328946</v>
+        <v>16.4435199068887</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-1395547.771731752</v>
+        <v>16.30364314504465</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1396555.450360994</v>
+        <v>16.43087092397163</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1505254.332896035</v>
+        <v>16.5160199725762</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>1600339.536120587</v>
+        <v>16.52688360748887</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-1063919.551576114</v>
+        <v>16.25210201618541</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>438608.5417835677</v>
+        <v>16.41554313059457</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-1926699.931255808</v>
+        <v>16.31664879494841</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1668111.246506479</v>
+        <v>16.41662862200847</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1600556.169180559</v>
+        <v>16.47623731105159</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1889714.139088657</v>
+        <v>16.49216255662475</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-1519133.669803158</v>
+        <v>16.26978566186874</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>177266.7998989426</v>
+        <v>16.38669040586351</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>88276.20959504519</v>
+        <v>16.42555716636167</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>226933.8119102817</v>
+        <v>16.4527528082113</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-951359.7934123736</v>
+        <v>16.27553001903648</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>86720.764158612</v>
+        <v>16.39566652013536</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>160115.8774030653</v>
+        <v>16.44739276571116</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>385642.3713286319</v>
+        <v>16.49208501877779</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>686929.2927653928</v>
+        <v>16.54823970577791</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>822170.4506057386</v>
+        <v>16.57471372680111</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-668414.1388490972</v>
+        <v>16.26385596182541</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>821060.526727168</v>
+        <v>16.47890026266383</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>894765.3561208692</v>
+        <v>16.63997011753857</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1016749.811635685</v>
+        <v>16.67132568592552</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>578625.1197428351</v>
+        <v>16.51107516358448</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>770829.8833875359</v>
+        <v>16.54925366258301</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-829363.5823020366</v>
+        <v>16.2342475190808</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>792397.3233724869</v>
+        <v>16.45466564304523</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>890962.3148307167</v>
+        <v>16.60929620747739</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1038147.078558365</v>
+        <v>16.64927789749418</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>255637.7071868324</v>
+        <v>16.43747353707031</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>596155.7362628682</v>
+        <v>16.48108086529888</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>-1133865.435137257</v>
+        <v>16.26212342010094</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>817038.9130780115</v>
+        <v>16.42763743140123</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>847527.0909039178</v>
+        <v>16.5278500057426</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1204189.125266809</v>
+        <v>16.58068630818843</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-2100246.855687457</v>
+        <v>16.33552677550536</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1089760.58896229</v>
+        <v>16.40980595905246</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>492033.1865960939</v>
+        <v>16.42767405900235</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>618464.6201987928</v>
+        <v>16.4314478634257</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-1220069.290130849</v>
+        <v>16.31746082142346</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>296448.475139938</v>
+        <v>16.40129151906335</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-1974918.220811712</v>
+        <v>16.30869091710509</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>1910537.589382048</v>
+        <v>16.42821269024411</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>2001022.739987176</v>
+        <v>16.51014001276449</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>2039841.356176977</v>
+        <v>16.51019192907691</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-1160296.712256771</v>
+        <v>16.28951318546942</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>1006140.987859583</v>
+        <v>16.44555840594749</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-2443409.036910428</v>
+        <v>16.29734743998199</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>1785943.845482365</v>
+        <v>16.41905036022779</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>2107623.344037734</v>
+        <v>16.50470446572868</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2193652.918770874</v>
+        <v>16.50996522833655</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-1500389.872767931</v>
+        <v>16.26724559881085</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>830119.3598822645</v>
+        <v>16.42564385606313</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-3684637.260918274</v>
+        <v>16.30809813028443</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>1747131.066052011</v>
+        <v>16.40497507052381</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1954071.783163267</v>
+        <v>16.46215236972499</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2288066.267603636</v>
+        <v>16.47222754112256</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-1952954.072567736</v>
+        <v>16.28578614719688</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>784692.9881373274</v>
+        <v>16.40182454305431</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>156622.2804264156</v>
+        <v>16.42110297203826</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>335580.4450259894</v>
+        <v>16.4423417455462</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-1348766.259652158</v>
+        <v>16.28381111500418</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>100817.9977816661</v>
+        <v>16.39488046663529</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>261057.808902791</v>
+        <v>16.44515255546904</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>531553.0124738818</v>
+        <v>16.47993732584431</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1125318.191396415</v>
+        <v>16.5493786657403</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>1300122.861941411</v>
+        <v>16.56940173390321</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-975605.3938708445</v>
+        <v>16.27212925502484</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1199157.622848828</v>
+        <v>16.47186594226251</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1448173.988812457</v>
+        <v>16.63462551215531</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1579695.456829955</v>
+        <v>16.65667185528707</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>1003838.225957389</v>
+        <v>16.5247340839693</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>1263465.670581359</v>
+        <v>16.55507475360625</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-1202560.797305867</v>
+        <v>16.24949583007788</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>1211734.862739012</v>
+        <v>16.45585884479182</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>1495248.596820528</v>
+        <v>16.61651330504765</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1662127.90809985</v>
+        <v>16.64604844589269</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>665443.4354402208</v>
+        <v>16.45509141039367</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>1147417.785321476</v>
+        <v>16.49073901570918</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-1548408.547480459</v>
+        <v>16.27970852978848</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1418596.499741102</v>
+        <v>16.43693459662964</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>1543133.941330806</v>
+        <v>16.54174641526472</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>2002895.940869682</v>
+        <v>16.5836751301187</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-2683426.348014994</v>
+        <v>16.36265747049331</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1827123.203525522</v>
+        <v>16.40733885949025</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>1063498.838663932</v>
+        <v>16.42907969845702</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>1218988.512527481</v>
+        <v>16.42979784123539</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-1334741.067598715</v>
+        <v>16.35333066032381</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>731461.8195616092</v>
+        <v>16.40328607835345</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-2436652.72282817</v>
+        <v>16.34434137247679</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3381214.37200409</v>
+        <v>16.4214701581622</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>3604666.300219541</v>
+        <v>16.49172199831645</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>3645735.088855852</v>
+        <v>16.49009484010961</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-1323606.375225769</v>
+        <v>16.33325144811995</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>1835139.026240507</v>
+        <v>16.43533557921763</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-3030608.913373664</v>
+        <v>16.33725401738335</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>3358502.563697688</v>
+        <v>16.41631127661643</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>3856238.843032578</v>
+        <v>16.48938168551007</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>3980077.027528656</v>
+        <v>16.49174869702092</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1812391.205648342</v>
+        <v>16.3180894494464</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1610407.383107844</v>
+        <v>16.42229208870144</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-4716216.2116747</v>
+        <v>16.34296701455876</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>3342614.705766263</v>
+        <v>16.40554126439886</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>3640246.6770365</v>
+        <v>16.45597127000229</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4129988.120531148</v>
+        <v>16.46166672986878</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-2249221.825392968</v>
+        <v>16.33071284146093</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1745845.093174988</v>
+        <v>16.40590516941748</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>479714.7592794414</v>
+        <v>16.42658185854537</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>843936.8640353099</v>
+        <v>16.44085158571618</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-1782863.20179467</v>
+        <v>16.32592524882803</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>238421.0954847336</v>
+        <v>16.39559122285056</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>623678.0184846509</v>
+        <v>16.44400256354492</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>1072834.095319761</v>
+        <v>16.46609186339896</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2022491.950926775</v>
+        <v>16.52202037736605</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2393106.274570428</v>
+        <v>16.535934385761</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1097062.292842439</v>
+        <v>16.3212407198681</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2123770.063210504</v>
+        <v>16.45500669888827</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>2628828.919425711</v>
+        <v>16.58940592649809</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2871074.151726492</v>
+        <v>16.60258041293657</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1873698.82831398</v>
+        <v>16.50570087142292</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2386549.769511762</v>
+        <v>16.52735796314452</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-1377540.074590635</v>
+        <v>16.30638052861786</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>2224887.771892948</v>
+        <v>16.44539523492205</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2762390.138915524</v>
+        <v>16.57851923090082</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>3067772.97103462</v>
+        <v>16.59745800687464</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>1484584.055880072</v>
+        <v>16.45415326418429</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2370200.491877323</v>
+        <v>16.4792950781394</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-1826120.465931312</v>
+        <v>16.32483331255997</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>2571141.659755775</v>
+        <v>16.4300187790471</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>2888011.962051076</v>
+        <v>16.51895663010935</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>3671327.460447874</v>
+        <v>16.54693618532935</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-2267192.159517571</v>
+        <v>16.33064495093828</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>564408.6236022258</v>
+        <v>16.40323569479593</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>178031.6423595799</v>
+        <v>16.41295219209949</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>346795.8354665345</v>
+        <v>16.4197832332184</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-1408541.536659539</v>
+        <v>16.3056874503656</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-35557.58948266876</v>
+        <v>16.38789858391249</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1864792.526649806</v>
+        <v>16.31294961236383</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>1676338.16899861</v>
+        <v>16.4331281352426</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>1674806.552436766</v>
+        <v>16.50543557648384</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>1730172.460929812</v>
+        <v>16.50771483742528</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-1159947.031792778</v>
+        <v>16.28638394543233</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>811691.4831803163</v>
+        <v>16.44454079133028</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-2250198.890083957</v>
+        <v>16.30114966037644</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1562961.060865685</v>
+        <v>16.4230504313133</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1770743.900059672</v>
+        <v>16.49884661461014</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>1865902.688398476</v>
+        <v>16.50657852457249</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-1425320.527335864</v>
+        <v>16.26226290073235</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>665400.0868670414</v>
+        <v>16.42208458403456</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-3502400.78483818</v>
+        <v>16.30496786718747</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1173873.969066953</v>
+        <v>16.39955489815091</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1480435.487050216</v>
+        <v>16.44899899693758</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1870286.228444934</v>
+        <v>16.46267386861685</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-2106069.043375175</v>
+        <v>16.2704474223268</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>232839.1014145364</v>
+        <v>16.38390452545012</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-82245.88618808793</v>
+        <v>16.39648200458038</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26137.0615757234</v>
+        <v>16.41444164296345</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-1317924.105412835</v>
+        <v>16.2707493651733</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-100713.0624049458</v>
+        <v>16.38034308967126</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>18782.20164913398</v>
+        <v>16.41349918602408</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>262479.9072526913</v>
+        <v>16.45055983983976</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>846790.2847049187</v>
+        <v>16.53311487600189</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>938844.2366254252</v>
+        <v>16.54832513413795</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-868155.1633494014</v>
+        <v>16.27004471807436</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1047663.703385367</v>
+        <v>16.47288283180837</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1105288.227120932</v>
+        <v>16.61429400949748</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1215330.719326177</v>
+        <v>16.63702224869815</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>748890.7956089809</v>
+        <v>16.50481845751094</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>912129.322081564</v>
+        <v>16.53105544706205</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-1060454.239776871</v>
+        <v>16.24429410485929</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1044336.269197571</v>
+        <v>16.45314800514016</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1124833.40224731</v>
+        <v>16.59099422312083</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1269147.908220928</v>
+        <v>16.62181811900246</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>247867.6414334971</v>
+        <v>16.42333160903307</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>605020.6818998321</v>
+        <v>16.45731945914434</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-1591164.262615368</v>
+        <v>16.26094168867778</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>840396.4184482204</v>
+        <v>16.41603258086005</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>918587.2579758617</v>
+        <v>16.50109697365769</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1344983.129112157</v>
+        <v>16.54636062270738</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-2646017.518705713</v>
+        <v>16.33111096021516</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-1342622.501792741</v>
+        <v>16.35763168549639</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-890741.5980798904</v>
+        <v>16.3571503850358</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-798244.4418582546</v>
+        <v>16.36384444258832</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1310752.453370839</v>
+        <v>16.32971017098025</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-472566.9069327775</v>
+        <v>16.36945009695357</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-2497213.498111457</v>
+        <v>16.30037840352248</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-568575.1836827233</v>
+        <v>16.36799344418789</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>216532.9848286414</v>
+        <v>16.42345959104382</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>254373.4939084458</v>
+        <v>16.42770260997379</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-1030874.732997839</v>
+        <v>16.30785709574252</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>356028.0864668456</v>
+        <v>16.41612335303951</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-2963187.76139548</v>
+        <v>16.2845515717271</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-838749.7392071493</v>
+        <v>16.35512882376903</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>154662.9494547999</v>
+        <v>16.41223530343546</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>233256.7056151318</v>
+        <v>16.42206747183712</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-1303449.794296203</v>
+        <v>16.28108650325057</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>177926.3087623878</v>
+        <v>16.39209673808877</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-4309241.545948643</v>
+        <v>16.29926747589865</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-1727708.61537236</v>
+        <v>16.35185050394092</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-368984.7485500395</v>
+        <v>16.38781384016777</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-89836.49728887391</v>
+        <v>16.40195340579664</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-1814137.844238951</v>
+        <v>16.29692686069899</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-197160.9139803474</v>
+        <v>16.37130779688862</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-379802.2147175802</v>
+        <v>16.36466766412238</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-161989.3249210432</v>
+        <v>16.39743176323266</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1242774.148896058</v>
+        <v>16.29565069857947</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-392507.0910403948</v>
+        <v>16.36112097347473</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-210518.7513104001</v>
+        <v>16.38135623297394</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>54234.76833162459</v>
+        <v>16.42606032278522</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>503005.8617389741</v>
+        <v>16.48746621277337</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>733942.7291252594</v>
+        <v>16.52178371009004</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-651239.0390131383</v>
+        <v>16.30210908170315</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>820091.8183429503</v>
+        <v>16.45244223666803</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>929529.0133020346</v>
+        <v>16.58020040338906</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>1103853.07101522</v>
+        <v>16.61512980894535</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>371856.1384812616</v>
+        <v>16.4567541151029</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>684807.2698256626</v>
+        <v>16.50185762080084</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-828653.963217107</v>
+        <v>16.27560193499972</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>814374.9409532762</v>
+        <v>16.43300405159895</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>938378.9793857776</v>
+        <v>16.55676137040508</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>1154452.340898891</v>
+        <v>16.59986577221834</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>-69420.03917938903</v>
+        <v>16.39867217541586</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>454006.7588390559</v>
+        <v>16.44692790577139</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-1357423.078640483</v>
+        <v>16.29142466767359</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>550943.0001448685</v>
+        <v>16.40558821765205</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>653480.9482999017</v>
+        <v>16.47911235338358</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1132345.406572039</v>
+        <v>16.53268673386597</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-4393684.925716368</v>
+        <v>16.33895471077268</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>-555871.4758274741</v>
+        <v>16.3737668839542</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-511114.5080358078</v>
+        <v>16.38169598239865</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-307787.9599638477</v>
+        <v>16.38637444024431</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-2271488.963216227</v>
+        <v>16.32561393461514</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-477702.7513282364</v>
+        <v>16.36365076035757</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-3878325.533902244</v>
+        <v>16.32080692975963</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>1334390.551967029</v>
+        <v>16.3872662558833</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>2194336.915057461</v>
+        <v>16.44247094512793</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>2291002.753283944</v>
+        <v>16.44540838228417</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-2110953.356133722</v>
+        <v>16.30628270260447</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>809964.8708087336</v>
+        <v>16.39546522683239</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-4471488.215446793</v>
+        <v>16.31491469314328</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1292866.666272614</v>
+        <v>16.38357352844255</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>2412055.66751184</v>
+        <v>16.44195172026019</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>2596058.489144846</v>
+        <v>16.44883803015135</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-2609706.253908353</v>
+        <v>16.29258382128053</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>566711.0965282659</v>
+        <v>16.38420119776397</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-6797989.079390124</v>
+        <v>16.32273171037271</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>380390.1999421348</v>
+        <v>16.37635531631654</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>1626132.433561494</v>
+        <v>16.41419560414527</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>2193637.361110733</v>
+        <v>16.42367425368721</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-3372279.351368622</v>
+        <v>16.3075032856769</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>261178.7451925748</v>
+        <v>16.37184978824485</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-467322.6272583223</v>
+        <v>16.36718641521407</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>3200.55728780038</v>
+        <v>16.38931869415242</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-2620414.231812092</v>
+        <v>16.28911431672016</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>-822982.5203036867</v>
+        <v>16.3465863295555</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-237704.4953591099</v>
+        <v>16.3718869169624</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>280855.3202574356</v>
+        <v>16.40157233532591</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1172122.319544095</v>
+        <v>16.46059436217157</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>1654086.659924018</v>
+        <v>16.48348829393503</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-1766454.546695395</v>
+        <v>16.28604447337022</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1265114.741270486</v>
+        <v>16.40660247528512</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1898788.48659419</v>
+        <v>16.51629003206452</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>2216573.699060044</v>
+        <v>16.53824669233575</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>997237.645712368</v>
+        <v>16.44660015075885</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>1629857.193056117</v>
+        <v>16.47711630485001</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-2054721.714820516</v>
+        <v>16.2731525617392</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>1355108.877806553</v>
+        <v>16.39928474696146</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>2014440.754984545</v>
+        <v>16.50838002703326</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2401244.524804495</v>
+        <v>16.53601646222362</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>297421.9946318149</v>
+        <v>16.40230593295848</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>1341094.009778444</v>
+        <v>16.4348495861793</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>-2841834.334997529</v>
+        <v>16.29387372317677</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>1266504.407921817</v>
+        <v>16.38794648208489</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>1801795.06562007</v>
+        <v>16.45608668318667</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>2694710.238019483</v>
+        <v>16.49131348599072</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-1304905.23173806</v>
+        <v>16.34611306896825</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1425815.041799716</v>
+        <v>16.42953180693888</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>1068517.926388851</v>
+        <v>16.47183552034267</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>1093666.178675532</v>
+        <v>16.46998823519403</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-974791.6815968958</v>
+        <v>16.32035490687914</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>301926.6201046477</v>
+        <v>16.41639456851057</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-1368965.229235041</v>
+        <v>16.31195552326123</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>1741340.492786759</v>
+        <v>16.44303846450334</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>1933249.250322979</v>
+        <v>16.55135208574065</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1894772.102878868</v>
+        <v>16.54455141798205</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-862555.4451331284</v>
+        <v>16.28332607122664</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>814042.4282494461</v>
+        <v>16.45588140553302</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-1717139.652473522</v>
+        <v>16.30018001308337</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1643061.082820054</v>
+        <v>16.43335224542473</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>2023732.606906227</v>
+        <v>16.54524969576707</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>2005942.767607328</v>
+        <v>16.54383609894003</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-1051342.574722934</v>
+        <v>16.26240850638885</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>738617.5630205016</v>
+        <v>16.43712583126207</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-2573444.044817895</v>
+        <v>16.3111228652609</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>1852433.373206111</v>
+        <v>16.41790200709584</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>2209968.655997616</v>
+        <v>16.49831836152333</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>2312105.622827353</v>
+        <v>16.50286860574788</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-1420647.386118751</v>
+        <v>16.28472644932088</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>766258.0733089822</v>
+        <v>16.41414120228802</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>294937.8818972965</v>
+        <v>16.45968954567702</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>376370.9284131681</v>
+        <v>16.47298382607855</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-1032194.937595952</v>
+        <v>16.27914663732436</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>190117.8323837564</v>
+        <v>16.40778406790216</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>334149.0263525404</v>
+        <v>16.48201921541008</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>495894.4737014344</v>
+        <v>16.50863103081394</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>957755.2231500912</v>
+        <v>16.58467943315926</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1033090.427445811</v>
+        <v>16.5952626223856</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>-674112.3941661558</v>
+        <v>16.26452974421812</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>1031150.574028542</v>
+        <v>16.48765176270208</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>1177905.040303785</v>
+        <v>16.67888777792129</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>1231045.392723944</v>
+        <v>16.6902198802614</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>910570.8533215115</v>
+        <v>16.56108412590743</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>1035552.571116559</v>
+        <v>16.5824580566165</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-781718.0736692605</v>
+        <v>16.24385462888853</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>1097284.953458723</v>
+        <v>16.47368586180106</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>1242363.564253749</v>
+        <v>16.66295944161873</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>1311714.010700342</v>
+        <v>16.6820409036617</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>764568.2308886111</v>
+        <v>16.48968517150197</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>999432.4636041417</v>
+        <v>16.51786088373538</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-1094036.962405036</v>
+        <v>16.27360057658129</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>1252096.947343282</v>
+        <v>16.45032575035282</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>1303855.674012482</v>
+        <v>16.57936013392257</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>1547887.695129738</v>
+        <v>16.61299253618267</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>-2449174.487443511</v>
+        <v>16.32502746276442</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>269712.4938346986</v>
+        <v>16.39848959242378</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>129562.0781997646</v>
+        <v>16.40984206974222</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>258865.044037237</v>
+        <v>16.41511900576698</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-1368623.14402377</v>
+        <v>16.30528139401494</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>-44788.27219527536</v>
+        <v>16.38808338959026</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-1899907.904861413</v>
+        <v>16.30964679685005</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>1504136.39952681</v>
+        <v>16.43182895312313</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>1607811.901349071</v>
+        <v>16.50723990242693</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>1634847.876136784</v>
+        <v>16.5077643171788</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-1135188.176014991</v>
+        <v>16.28753171002943</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>760155.487943863</v>
+        <v>16.44782515383671</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-2221728.64021483</v>
+        <v>16.29899414938888</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>1448031.393928922</v>
+        <v>16.42309896155188</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>1727165.922677695</v>
+        <v>16.50241180468813</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>1794340.003989283</v>
+        <v>16.50855884396676</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-1377568.510370006</v>
+        <v>16.26417048076645</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>636574.3340915929</v>
+        <v>16.42640595451123</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>-3554897.886930702</v>
+        <v>16.30234233159928</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>962226.4105335154</v>
+        <v>16.39861107523017</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>1470189.240629027</v>
+        <v>16.45143321271976</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>1805805.728865177</v>
+        <v>16.46388869912068</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-2014674.793456016</v>
+        <v>16.27225028184473</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>248917.3794002774</v>
+        <v>16.38744907904965</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>-53103.3013018221</v>
+        <v>16.39522367546686</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>70037.82046485422</v>
+        <v>16.41460708430105</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-1319789.406212504</v>
+        <v>16.26303520896424</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>-179373.5648662083</v>
+        <v>16.37223202648923</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>-28590.84759117231</v>
+        <v>16.39900637902625</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>214126.4508348526</v>
+        <v>16.43784562536959</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>808591.1751840933</v>
+        <v>16.5363335601333</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>914660.5431968786</v>
+        <v>16.55298821608491</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-884807.4742487866</v>
+        <v>16.26459743324667</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>930895.997936802</v>
+        <v>16.46878849464131</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>1004933.256709308</v>
+        <v>16.60555610492109</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>1120687.483449268</v>
+        <v>16.62992084902989</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>722440.7800890089</v>
+        <v>16.50951570124101</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>895912.4972678864</v>
+        <v>16.53734764172905</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-1064538.374080388</v>
+        <v>16.23987718572122</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>933956.9306766168</v>
+        <v>16.45048202829913</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>1024623.28223087</v>
+        <v>16.58439402468273</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>1174357.741419698</v>
+        <v>16.61697516357469</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>284598.3050708831</v>
+        <v>16.42762791674078</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>648707.1569838638</v>
+        <v>16.4632083301173</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>-1588007.872695288</v>
+        <v>16.25684136876548</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>714356.0597983884</v>
+        <v>16.4130743559265</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>821315.2138248077</v>
+        <v>16.49501406045557</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>1248116.643050999</v>
+        <v>16.54218488768265</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.651</v>
+        <v>16.596</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.399</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.508</v>
+        <v>15.373</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.911</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.196</v>
+        <v>8.472</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.32528396943098</v>
+        <v>5.405008038066246</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.36285416975231</v>
+        <v>17.05520923244323</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.36554801797624</v>
+        <v>16.01222684686591</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>16.37084244827762</v>
+        <v>17.16733298998899</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.33753491991143</v>
+        <v>12.41383950661193</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.38660241747448</v>
+        <v>24.75253468256943</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.29381946764769</v>
+        <v>3.215285899882282</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.37425442393343</v>
+        <v>22.81727223402455</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.43924289239619</v>
+        <v>32.43262007679373</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>16.44213218070836</v>
+        <v>32.97120489322352</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.31083246680989</v>
+        <v>11.44161591277394</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.43063495219751</v>
+        <v>34.71670317617063</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.28029926151101</v>
+        <v>0.2374757812087402</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.36382393901235</v>
+        <v>20.97655797645147</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16.43187128791259</v>
+        <v>31.90693312173988</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.44040804895754</v>
+        <v>33.0032972225841</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>16.28535347556569</v>
+        <v>7.506050098482206</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>16.40825993137927</v>
+        <v>31.45368249712603</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.29391619006926</v>
+        <v>-1.387262262682793</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.35808220806465</v>
+        <v>16.96565564490012</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.40014514053138</v>
+        <v>23.88470787926289</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.41259626633054</v>
+        <v>26.56350597225957</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.30153349794685</v>
+        <v>8.289821046046686</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.38663349918978</v>
+        <v>27.66014805861332</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>16.39294849093647</v>
+        <v>23.45992091092614</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>16.4226657852791</v>
+        <v>28.02606126692821</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16.30637698961461</v>
+        <v>8.69720658542332</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16.38316031387216</v>
+        <v>23.79167313391146</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>16.42484191908306</v>
+        <v>27.74713760371182</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.46602930058735</v>
+        <v>34.1182264648648</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.52042766968543</v>
+        <v>43.66665198956952</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>16.55147824350479</v>
+        <v>49.13070019696181</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>16.30420540537254</v>
+        <v>13.72446369700968</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16.46840296326657</v>
+        <v>42.93441061418743</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16.62560841967866</v>
+        <v>59.76278710740918</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16.65651244881327</v>
+        <v>64.24555000170709</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.49239669839362</v>
+        <v>39.6652263581032</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>16.53433273256183</v>
+        <v>46.77367725329355</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.27918045546028</v>
+        <v>11.02844474328663</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>16.4508554396139</v>
+        <v>42.22920883702284</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>16.60517231682804</v>
+        <v>59.09289627950625</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>16.64425248248264</v>
+        <v>64.43090456897389</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.42713125625608</v>
+        <v>29.32858487924667</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>16.47208444357506</v>
+        <v>37.93642614379569</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>16.30080102969905</v>
+        <v>10.96755786746848</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16.4279426734568</v>
+        <v>37.96892773571487</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16.52544876204969</v>
+        <v>48.5164476455474</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>16.5750168647719</v>
+        <v>57.42628370267525</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16.33175887098889</v>
+        <v>11.73156909880338</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>16.43298570515148</v>
+        <v>37.03474996077512</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>16.45135753238502</v>
+        <v>34.44152287233831</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.46000074235646</v>
+        <v>36.15349637433165</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.30979158163148</v>
+        <v>10.17580989274518</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>16.42051576167106</v>
+        <v>30.44439840013427</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>16.29554478977931</v>
+        <v>9.608763130359812</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>16.44847323820283</v>
+        <v>42.0897620545154</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>16.53083186583389</v>
+        <v>49.03600656665603</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>16.53469687425266</v>
+        <v>49.68561131201433</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16.27291727118851</v>
+        <v>9.433539207226453</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>16.46574616576754</v>
+        <v>39.93165405196682</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.2803995383767</v>
+        <v>6.986686512137563</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16.43442770685644</v>
+        <v>40.01273501842271</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>16.51951455495806</v>
+        <v>48.4849749853242</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16.52914439149204</v>
+        <v>49.53940318676808</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>16.24399072082417</v>
+        <v>6.165752815882712</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>16.4377075741455</v>
+        <v>36.79458616994599</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.29771015435264</v>
+        <v>7.286533900096607</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>16.42054778452185</v>
+        <v>38.3319668252074</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>16.47968988650634</v>
+        <v>43.56801336663042</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>16.49505715827936</v>
+        <v>46.59819784853123</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.26431481840412</v>
+        <v>6.196633702149267</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>16.40667558263537</v>
+        <v>31.94455381051453</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>16.45209937042665</v>
+        <v>31.51116872388643</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>16.48029916122035</v>
+        <v>35.51377550836028</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>16.27793218450183</v>
+        <v>7.786061001602306</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.42550735524572</v>
+        <v>32.14614783409612</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>16.48338546112917</v>
+        <v>35.15192304145189</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>16.52961470997719</v>
+        <v>41.67237770228558</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16.58203019161887</v>
+        <v>49.92766869364908</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>16.60834380012562</v>
+        <v>54.23098274660882</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>16.2589029449904</v>
+        <v>10.54784754663876</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>16.50800870681421</v>
+        <v>48.28092100229593</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>16.68101807579141</v>
+        <v>61.5783187652183</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>16.71177826411825</v>
+        <v>65.11015607966371</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>16.5457080368962</v>
+        <v>46.1594789192327</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>16.58366003492099</v>
+        <v>51.78232159295622</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16.22884393409618</v>
+        <v>7.906525437133208</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.4835443050651</v>
+        <v>47.03211534315039</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>16.65126781927413</v>
+        <v>60.3451291154424</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16.69027094313774</v>
+        <v>64.35377246512105</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.46674360064146</v>
+        <v>35.49637424414207</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>16.5107890900203</v>
+        <v>42.63897045251783</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>16.26282560693342</v>
+        <v>9.02992102982407</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>16.45725961483018</v>
+        <v>43.71448271711815</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16.56853117054202</v>
+        <v>52.08702780182668</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>16.62158486451921</v>
+        <v>59.87199029827518</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.32983467965629</v>
+        <v>10.0102693223014</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16.42261342946232</v>
+        <v>32.20017797433949</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>16.45238523850733</v>
+        <v>31.31610406595263</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>16.45303623353941</v>
+        <v>32.10443363314601</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>16.32806419399889</v>
+        <v>12.30163865846074</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>16.44036523464333</v>
+        <v>33.2473871107166</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.30019476855132</v>
+        <v>9.719104335417828</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>16.44516629821891</v>
+        <v>39.70335399558287</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>16.54195659420732</v>
+        <v>48.29654124194087</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.53683093541033</v>
+        <v>47.97400255265713</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16.29931301871985</v>
+        <v>12.56840405576451</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>16.4954078070807</v>
+        <v>44.24132510415606</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>16.28655682690432</v>
+        <v>7.356915705624587</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>16.43332497392808</v>
+        <v>38.11837320603024</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>16.5332269107909</v>
+        <v>48.19491362989388</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.53376884178294</v>
+        <v>48.24184498825691</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.27263595796194</v>
+        <v>9.796051622825072</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>16.47023140035948</v>
+        <v>41.8193509367528</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>16.30054535273781</v>
+        <v>6.580135791398483</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>16.41707355429556</v>
+        <v>35.06556906450852</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>16.48865222374979</v>
+        <v>42.18392983678732</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.4960675704013</v>
+        <v>44.1571094059474</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.28826608243013</v>
+        <v>9.628559137338184</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>16.43385545286812</v>
+        <v>36.79945784141981</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.49263187743917</v>
+        <v>35.58364663819013</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>16.50586112159757</v>
+        <v>37.83728668389479</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>16.28588869878067</v>
+        <v>9.087288176925863</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.43737368912853</v>
+        <v>33.55927907311978</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>16.51645023584906</v>
+        <v>37.81252721319062</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>16.5457216945311</v>
+        <v>42.67356607244614</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>16.63618775088921</v>
+        <v>55.86885639536521</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>16.64569231620091</v>
+        <v>58.13126129427867</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>16.27548844327244</v>
+        <v>12.5949046319696</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>16.53049306874551</v>
+        <v>50.94767844213402</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>16.72907450716881</v>
+        <v>65.67766424065837</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>16.74095930469316</v>
+        <v>67.51633292879491</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.60343151085981</v>
+        <v>52.88146223155663</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>16.62446613767096</v>
+        <v>56.32286896392196</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>16.24790695644106</v>
+        <v>10.39101364427212</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>16.50909107474905</v>
+        <v>50.35049690834201</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>16.7030890956685</v>
+        <v>65.10393494208073</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.7231565722744</v>
+        <v>67.31955379206109</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>16.51608022193279</v>
+        <v>41.87102443695575</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.54537293335704</v>
+        <v>46.76116862631137</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.27787982274117</v>
+        <v>11.27979846900044</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>16.47778379421895</v>
+        <v>46.76383413719068</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>16.61192421792328</v>
+        <v>56.5980737358403</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.64839875039081</v>
+        <v>62.30641325878584</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>16.3378759987902</v>
+        <v>6.601370589067379</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.36792260316303</v>
+        <v>16.74399878812485</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16.36896686645346</v>
+        <v>16.74048266935946</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>16.3751560660389</v>
+        <v>17.71115206022803</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>16.35196218261067</v>
+        <v>13.03752980052621</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>16.38785883422698</v>
+        <v>23.34545073289136</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>16.30599110509442</v>
+        <v>4.619910041882147</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>16.37773571688506</v>
+        <v>22.42414258360558</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>16.43953830730142</v>
+        <v>32.10699673995714</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16.44373940935127</v>
+        <v>32.60860722988856</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16.32473160805941</v>
+        <v>12.79248109933623</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>16.4294045831614</v>
+        <v>33.54736986745074</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.2919733472772</v>
+        <v>1.850493404565565</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>16.36698427290961</v>
+        <v>20.74461572756336</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>16.43152506908202</v>
+        <v>31.49999666060296</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>16.44127229120535</v>
+        <v>32.55322808420648</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>16.29831641912979</v>
+        <v>9.16917399444015</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>16.40641078297784</v>
+        <v>30.61559966112995</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.30350824691848</v>
+        <v>0.8269733314449859</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>16.36086401846055</v>
+        <v>17.42914952141152</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>16.40027307369686</v>
+        <v>24.38869312273861</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.41328618546854</v>
+        <v>26.8271048052963</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>16.31108962819399</v>
+        <v>9.367497253749725</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>16.384265358347</v>
+        <v>26.51341305364287</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.38668139197438</v>
+        <v>20.59084043046207</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>16.41595132884004</v>
+        <v>25.4203369274425</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16.31746843068837</v>
+        <v>8.915584157283277</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>16.3803176942396</v>
+        <v>21.62652762883385</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>16.41153548613789</v>
+        <v>24.38724362298376</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>16.4525264254783</v>
+        <v>30.92162184617879</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>16.50961905905445</v>
+        <v>39.96975631360286</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>16.54051727851196</v>
+        <v>45.83301379795951</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.31547487033356</v>
+        <v>15.42618797304447</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>16.46355770893604</v>
+        <v>41.23444196640091</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>16.60833288177718</v>
+        <v>55.80850291626098</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>16.63932934280672</v>
+        <v>60.80531011537654</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.48073092651435</v>
+        <v>36.31750773478542</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.5223491064921</v>
+        <v>43.68355017933027</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.28962391198543</v>
+        <v>13.03756295740039</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>16.44546403738726</v>
+        <v>40.67802493157928</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.58721745667547</v>
+        <v>55.20906170092028</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>16.62620608824803</v>
+        <v>61.00808209251088</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.41638638782626</v>
+        <v>26.37221847707385</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>16.46041800583565</v>
+        <v>34.90103512294269</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>16.30786502771431</v>
+        <v>11.80571638273716</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>16.42226399965586</v>
+        <v>35.69368074097495</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>16.50908043769936</v>
+        <v>44.64471663400153</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>16.55793100228068</v>
+        <v>53.55019811913249</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.34490872253529</v>
+        <v>12.53007326964119</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.41920655712348</v>
+        <v>31.36988709961717</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.44265317749086</v>
+        <v>29.79585094854835</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>16.4440866675528</v>
+        <v>30.81598226070194</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>16.35263510047641</v>
+        <v>17.48674338628351</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>16.44279063404753</v>
+        <v>34.920918374663</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.3221567171783</v>
+        <v>12.89321909002481</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>16.44237123068639</v>
+        <v>40.17606765844494</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>16.53209430299118</v>
+        <v>48.76951336563526</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16.53001916797322</v>
+        <v>49.2294240096727</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16.3319502645241</v>
+        <v>17.22356739741089</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.49587470688681</v>
+        <v>45.59547225953216</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16.31229951287046</v>
+        <v>10.79490737387374</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>16.43476194117601</v>
+        <v>39.17411252990338</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>16.52845166902112</v>
+        <v>49.16790746462736</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.53174079919388</v>
+        <v>50.14969331793593</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>16.31025861767856</v>
+        <v>13.94855805528321</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>16.47645128169906</v>
+        <v>43.058670932383</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>16.32348179692646</v>
+        <v>9.393737826250424</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>16.42105279563943</v>
+        <v>35.33149348983764</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>16.48521271644724</v>
+        <v>41.50297843876013</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>16.49328330772273</v>
+        <v>43.9347853614764</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>16.32518930591932</v>
+        <v>14.86106487752561</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.44781227590313</v>
+        <v>39.71298339188534</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>16.48681728748349</v>
+        <v>38.43203346911834</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>16.50322522422114</v>
+        <v>41.29663846353094</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>16.30039971186132</v>
+        <v>11.27175585195005</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>16.41654508631893</v>
+        <v>30.29975192855365</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>16.48249782053195</v>
+        <v>36.02002161443713</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>16.51412469988457</v>
+        <v>41.59078453581883</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>16.62860323383686</v>
+        <v>59.32103003284995</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>16.64377515185904</v>
+        <v>62.7678529898967</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16.29564052626534</v>
+        <v>15.05515892642864</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>16.50192053144417</v>
+        <v>47.83850095204357</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.68521498040321</v>
+        <v>65.75576604813963</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.70412147333281</v>
+        <v>69.15016535904968</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>16.60414017423571</v>
+        <v>56.16396272056323</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>16.27415977281803</v>
+        <v>12.63822999239018</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>16.48701264984823</v>
+        <v>47.27279983237803</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>16.66822795472843</v>
+        <v>65.29819507190844</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>16.69478975896536</v>
+        <v>69.3627796919284</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>16.5252457493546</v>
+        <v>46.26415759600768</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>16.5565614555684</v>
+        <v>52.53274977593168</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>16.30375968243829</v>
+        <v>13.85386553044735</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16.46661410763773</v>
+        <v>44.64100455562856</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.58868515162843</v>
+        <v>57.04853142987299</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.62776342038818</v>
+        <v>64.51187742604112</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>16.30240754715659</v>
+        <v>9.388755194624496</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.45499709491063</v>
+        <v>34.59298464627095</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>16.48600772479625</v>
+        <v>32.0779195103853</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.48196162533844</v>
+        <v>32.6908494633894</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>16.30147793834269</v>
+        <v>13.41135407426804</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>16.4903735842901</v>
+        <v>38.65746711392563</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>16.25932682706075</v>
+        <v>9.465978728454981</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>16.47790974312971</v>
+        <v>40.81056846071949</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>16.59364189620059</v>
+        <v>46.94961693213637</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>16.58152730691593</v>
+        <v>46.77666149006236</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>16.25871502069082</v>
+        <v>14.18789227445879</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.55308710351368</v>
+        <v>48.5932544599285</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>16.24435685646624</v>
+        <v>7.855493824617273</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.46435878989836</v>
+        <v>39.73589307904112</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16.58526471076814</v>
+        <v>47.52188531372766</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>16.57986445031068</v>
+        <v>47.61303238998389</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.22729056267094</v>
+        <v>11.97503982755343</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>16.52260279787385</v>
+        <v>46.7341514562477</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>16.27454231961922</v>
+        <v>8.119031454186519</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>16.45336494281091</v>
+        <v>38.91975470596708</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>16.53919912402755</v>
+        <v>43.72312959356754</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>16.5431783823585</v>
+        <v>45.16534570878389</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>16.26033284107898</v>
+        <v>12.15267162043004</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>16.48641239943071</v>
+        <v>43.34605031607151</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.55717769768501</v>
+        <v>41.01186376257786</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>16.5679510905874</v>
+        <v>43.14725292809362</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>16.24555852593076</v>
+        <v>10.50554794044398</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>16.47172077644025</v>
+        <v>36.82767676548161</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>16.56175708765768</v>
+        <v>40.09914493443254</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>16.59676761060258</v>
+        <v>43.87990061885817</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>16.73306918472202</v>
+        <v>58.87457760980926</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16.73771554129075</v>
+        <v>60.97423143772289</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>16.2206537023827</v>
+        <v>13.51050705544195</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>16.81415692437823</v>
+        <v>63.7365229720354</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>16.82660997777522</v>
+        <v>64.91598220930921</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.69437725303042</v>
+        <v>56.4745834364186</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.71270870396748</v>
+        <v>59.51455690475187</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>16.18887373725185</v>
+        <v>11.74561007244744</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.55022176833021</v>
+        <v>50.86403763337094</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16.78531431635031</v>
+        <v>63.42577389632642</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>16.80710464211506</v>
+        <v>64.83646539836961</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>16.59305481146199</v>
+        <v>47.8339089157743</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>16.6228384191499</v>
+        <v>52.1221498329792</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.2454229630411</v>
+        <v>13.19178475486529</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>16.52840139754878</v>
+        <v>49.33353295414467</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.69040152198578</v>
+        <v>57.63300404505166</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.73292259597007</v>
+        <v>61.75368606380759</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>16.30503685841277</v>
+        <v>2.941787111675445</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>16.3459558876297</v>
+        <v>12.81286262429035</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>16.35629297409391</v>
+        <v>15.9400560699189</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.36047451814465</v>
+        <v>16.27604683863443</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.32719100947132</v>
+        <v>9.991323719635036</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>16.39899312136559</v>
+        <v>23.70846752558628</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>16.24976431917484</v>
+        <v>-0.2726530598478867</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>16.34781854118798</v>
+        <v>15.3147666165647</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>16.43538932454339</v>
+        <v>27.08131893391588</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>16.43517002622897</v>
+        <v>26.73982803777108</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.28371036865776</v>
+        <v>10.89708860476709</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>16.45262893013748</v>
+        <v>33.51224397659787</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>16.22654746422124</v>
+        <v>-3.408520673175786</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>16.32873177423414</v>
+        <v>12.87393821837653</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>16.41872391809238</v>
+        <v>25.83664606982607</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.42592981106243</v>
+        <v>25.833207597545</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16.24633386698277</v>
+        <v>7.902897491669862</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>16.4187104145001</v>
+        <v>30.72696650467363</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>16.25214040919062</v>
+        <v>-4.597308696074748</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16.32986791471301</v>
+        <v>10.3004955895383</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>16.38877970582994</v>
+        <v>20.32289767696751</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>16.40224581696442</v>
+        <v>21.65531013769169</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>16.27114165975724</v>
+        <v>7.272004192554441</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>16.39082207502069</v>
+        <v>26.18308265764655</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>16.41467120391966</v>
+        <v>23.83727970187361</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>16.45476944460988</v>
+        <v>27.50934950701018</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>16.28320420580096</v>
+        <v>7.115990243491805</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>16.40232096177451</v>
+        <v>24.7182435260577</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>16.4668635758236</v>
+        <v>29.56906303530392</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.517999374164</v>
+        <v>34.37451426107269</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>16.57210607586098</v>
+        <v>41.48985693533391</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>16.61362842199179</v>
+        <v>45.90653487283494</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.27953702751942</v>
+        <v>13.28109657506042</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.51969026495962</v>
+        <v>42.92825961826942</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.73310279948395</v>
+        <v>57.43703860131077</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.76897027562272</v>
+        <v>60.54796532129677</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.52865909533379</v>
+        <v>38.0178917622848</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>16.58473726837605</v>
+        <v>43.75163429410726</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.24448829350912</v>
+        <v>11.72161907919249</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>16.49408333550042</v>
+        <v>42.89554462135763</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.7021361399622</v>
+        <v>57.28731563317106</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.74884383636872</v>
+        <v>60.99269822513256</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.4466026766671</v>
+        <v>28.45030465843324</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>16.50656971632282</v>
+        <v>35.09674581384105</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>16.27440211218373</v>
+        <v>11.39458208300429</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>16.46070472653549</v>
+        <v>38.95070745164373</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>16.59646754868903</v>
+        <v>48.52992252762115</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>16.65802565922947</v>
+        <v>54.79883114512681</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>16.30187039396425</v>
+        <v>1.238679348451953</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.3363073566294</v>
+        <v>11.84772650263582</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>16.32916518410025</v>
+        <v>10.03401822694721</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>16.3418929489385</v>
+        <v>11.19123917818339</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16.28525248236337</v>
+        <v>2.80998580115677</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.32122673612099</v>
+        <v>11.96030393099898</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>16.25713786486261</v>
+        <v>-0.99139999078918</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>16.33886627563938</v>
+        <v>17.12559188756833</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>16.39731328291938</v>
+        <v>24.42493045074137</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>16.40766949980566</v>
+        <v>25.09733754449367</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>16.23402100744226</v>
+        <v>-0.9889984230168416</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.34744476163686</v>
+        <v>18.23011308857749</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>16.24222468755396</v>
+        <v>-3.544738875295682</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>16.32767857022823</v>
+        <v>15.63944238155351</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.38958862984043</v>
+        <v>24.1640529320648</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.40596690309967</v>
+        <v>25.35752780677338</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16.20539682062399</v>
+        <v>-4.527497899204874</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>16.32288533206623</v>
+        <v>15.35237178096069</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>16.26383523487519</v>
+        <v>-4.903734210247972</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>16.32923202267799</v>
+        <v>12.10499932408274</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>16.36574979464345</v>
+        <v>17.58761357499241</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>16.38537194573349</v>
+        <v>20.18581595836737</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>16.23825063164647</v>
+        <v>-2.705704437637472</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>16.31700457742298</v>
+        <v>13.07251776286551</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>16.31906872162305</v>
+        <v>12.4790407747056</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.35436594089607</v>
+        <v>16.03255912925755</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.25202785483033</v>
+        <v>-0.2326758266820761</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.31510541133353</v>
+        <v>11.48182303408479</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>16.34116524921716</v>
+        <v>15.12627119146594</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>16.4001823441862</v>
+        <v>22.64667683205176</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>16.4320072532435</v>
+        <v>27.87999861034631</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.4684985488289</v>
+        <v>32.21119216994087</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>16.22285262408839</v>
+        <v>2.429307740969556</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>16.38190395082304</v>
+        <v>27.15729262039036</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>16.52756968468024</v>
+        <v>41.44238540067379</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>16.57540051662437</v>
+        <v>47.34319293925296</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.4006949261902</v>
+        <v>24.33399120906266</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>16.44910565093539</v>
+        <v>30.09862012989175</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.19386696863237</v>
+        <v>0.09861089407373314</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>16.36199772380837</v>
+        <v>26.6466844462336</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>16.5040640399361</v>
+        <v>40.80708829789113</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>16.56041376377332</v>
+        <v>47.44650694310236</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>16.35030293168634</v>
+        <v>16.20783833159911</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.40164560376349</v>
+        <v>23.21550172727258</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>16.23758610950147</v>
+        <v>1.100096115160984</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.35999868612559</v>
+        <v>23.90291201900584</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.44663696595795</v>
+        <v>33.24224567923871</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.51275892092147</v>
+        <v>43.08045434261001</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>16.31912032246814</v>
+        <v>11.74573004352517</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.45629854031674</v>
+        <v>39.21739252775534</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>16.50378110465135</v>
+        <v>40.24280278740439</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>16.50486164524247</v>
+        <v>40.95229048905792</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>16.27082613715513</v>
+        <v>8.349275055751395</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.42651242560802</v>
+        <v>30.92265420683143</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>16.28050112098289</v>
+        <v>11.15453699124316</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>16.48008599806304</v>
+        <v>45.44722857651006</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>16.60939734221505</v>
+        <v>56.3914363759315</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>16.6030310196474</v>
+        <v>56.11557380280595</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>16.22845341074366</v>
+        <v>9.129627527870348</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>16.48250722121314</v>
+        <v>41.12428063655913</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>16.2641795405741</v>
+        <v>8.604761962055129</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>16.46551575040725</v>
+        <v>43.6168552531249</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>16.5991283331783</v>
+        <v>56.29871613683898</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>16.59890007620331</v>
+        <v>56.30773494946519</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.20003057157931</v>
+        <v>6.674658228386935</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>16.4558383961821</v>
+        <v>39.06067555741458</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>16.28035090123528</v>
+        <v>7.088275515994471</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>16.44315486021835</v>
+        <v>40.68135594520739</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>16.53894436564406</v>
+        <v>50.37960000666332</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>16.54686304889406</v>
+        <v>51.91173365347176</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>16.22754081421172</v>
+        <v>6.031540226576396</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>16.42088006392459</v>
+        <v>34.61513936179529</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.47905858364527</v>
+        <v>31.79902739779758</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.49570724577887</v>
+        <v>33.79553631028036</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.23548855761794</v>
+        <v>7.283836684927344</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.43357633042667</v>
+        <v>32.76337464842261</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.52376730225613</v>
+        <v>37.19114003565429</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>16.55861433737497</v>
+        <v>41.51162324515266</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>16.64078605735494</v>
+        <v>51.23345246692362</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.65223125685971</v>
+        <v>53.16012930718733</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>16.20964094309582</v>
+        <v>10.36399114130917</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.52863424375781</v>
+        <v>48.12687400255719</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>16.75898612749788</v>
+        <v>62.51173045921878</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>16.7728063295295</v>
+        <v>63.93502933264666</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.6072949257698</v>
+        <v>48.68230389883875</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>16.63152475718052</v>
+        <v>51.68722572034301</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>16.18030257252805</v>
+        <v>8.587974407060486</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.50666295660619</v>
+        <v>47.92349560556136</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>16.73366045621337</v>
+        <v>62.44247242651606</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>16.75627811647803</v>
+        <v>64.11773671660576</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>16.51151839418192</v>
+        <v>37.91700089346715</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.54556566296094</v>
+        <v>42.30200411241815</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>16.22758801539599</v>
+        <v>9.849205428854486</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>16.48133694946329</v>
+        <v>45.79929947253666</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>16.63770673583774</v>
+        <v>55.59710515650002</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.67950767310527</v>
+        <v>60.38338047686123</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>16.31620774221858</v>
+        <v>4.56282876005956</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.33492468154552</v>
+        <v>12.19546698858553</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.32102630408545</v>
+        <v>10.20548055129708</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.33458387043271</v>
+        <v>11.42877988933983</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>16.31584691255285</v>
+        <v>6.082212734202059</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.34290223575212</v>
+        <v>15.03272459648688</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.27701681383687</v>
+        <v>2.146479270468628</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>16.34423306652555</v>
+        <v>15.8016459604477</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.3926752849378</v>
+        <v>21.42561796244112</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>16.40419205363605</v>
+        <v>22.04592024510674</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>16.28710156402363</v>
+        <v>7.894989590007761</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.39583535498911</v>
+        <v>25.47819962256299</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.2561061578101</v>
+        <v>-0.6774775764602339</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>16.32636750123621</v>
+        <v>13.48448297801398</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.37592737060238</v>
+        <v>20.06098040192862</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>16.39458551431755</v>
+        <v>21.15749801646088</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>16.24982422369502</v>
+        <v>4.479719233908085</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>16.36113077743983</v>
+        <v>22.00113693589813</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.27170412926384</v>
+        <v>-2.177203056675644</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>16.32134436011746</v>
+        <v>9.716908848755073</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>16.34871420604741</v>
+        <v>13.47856261178157</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.37161297934736</v>
+        <v>16.15722605864045</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>16.2590300073079</v>
+        <v>0.9928035559336514</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>16.32730477276646</v>
+        <v>13.94040640348902</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.32573427648068</v>
+        <v>12.75669940751951</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.37383866525285</v>
+        <v>17.06245123931958</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>16.28800306174425</v>
+        <v>6.651099769717717</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.34666579052411</v>
+        <v>17.26371062492263</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>16.36427572378651</v>
+        <v>19.04845586733254</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>16.43117692656913</v>
+        <v>25.91653198317335</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>16.46245773760185</v>
+        <v>30.2565334643024</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.51423403338444</v>
+        <v>35.71586746524508</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.29640376160209</v>
+        <v>13.77561735292061</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>16.45675041256401</v>
+        <v>35.86938806642698</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16.59650856987618</v>
+        <v>46.46738726938949</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>16.6535298793911</v>
+        <v>52.17367162505126</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>16.41697071037947</v>
+        <v>26.0567725134944</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>16.48243594302135</v>
+        <v>33.0674383820807</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>16.25951816760662</v>
+        <v>11.54896129302676</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>16.42766256083704</v>
+        <v>34.75843121736776</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>16.55981894497814</v>
+        <v>45.03489272515752</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>16.62732405933358</v>
+        <v>51.71044390109911</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>16.34018665937076</v>
+        <v>13.41890109267943</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.40743184678164</v>
+        <v>21.37739482082262</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>16.2676439507657</v>
+        <v>8.353895637785374</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>16.38464795013356</v>
+        <v>27.19921615347953</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>16.45853710748093</v>
+        <v>32.56969688314773</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>16.53608386505197</v>
+        <v>42.16977219056677</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>16.25668592764497</v>
+        <v>-1.896731186526058</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>16.33876781574769</v>
+        <v>12.46050803014994</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>16.33358259445828</v>
+        <v>8.866553817634411</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>16.33174395810886</v>
+        <v>9.359838673623111</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>16.3063109769695</v>
+        <v>10.32483208104376</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>16.41379096748734</v>
+        <v>28.41547542431646</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>16.21643839418426</v>
+        <v>-3.338602225317686</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>16.34999129283054</v>
+        <v>17.56024267204443</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>16.40804599014059</v>
+        <v>21.64888018431622</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>16.40055297724261</v>
+        <v>21.26703444076546</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>16.27184171291189</v>
+        <v>9.755567903009107</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>16.4633567192355</v>
+        <v>37.55649852853647</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>16.20567683465115</v>
+        <v>-4.829300460099027</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>16.34119617790912</v>
+        <v>16.76233887542782</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>16.40320427025735</v>
+        <v>22.01804629413744</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.40168974366325</v>
+        <v>22.00722959422331</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>16.24520017313187</v>
+        <v>7.460073489517391</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.43816764954765</v>
+        <v>35.59240341692961</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.23926168539464</v>
+        <v>-3.856636287407341</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.34646315681978</v>
+        <v>15.93922438091823</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16.38757625781729</v>
+        <v>18.70369109440043</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.39316475662419</v>
+        <v>20.36299372942684</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.27113280707318</v>
+        <v>8.107578414634158</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.41271737846298</v>
+        <v>31.90527818355688</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>16.45334819120464</v>
+        <v>31.05109524512416</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>16.46401759631737</v>
+        <v>33.08997333027899</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.27615793666198</v>
+        <v>10.52379521923417</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>16.42098389748441</v>
+        <v>32.24721863932972</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>16.48451898892642</v>
+        <v>35.03344645057913</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>16.51436719817585</v>
+        <v>39.48794415501197</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>16.59017742348193</v>
+        <v>47.85824079885233</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>16.59720362940935</v>
+        <v>49.97577253840802</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>16.26339955170133</v>
+        <v>14.02369365158998</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>16.51193488086688</v>
+        <v>48.27873600356918</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.69483896781793</v>
+        <v>60.56924744629475</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>16.70728957063449</v>
+        <v>62.32465275016814</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>16.55702230835694</v>
+        <v>45.27486675657836</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.57597422688233</v>
+        <v>48.44095022660056</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>16.23562965109565</v>
+        <v>12.16566472833104</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>16.49036574108542</v>
+        <v>47.83573333487095</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.66853192297612</v>
+        <v>60.13794532331573</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16.68942757923325</v>
+        <v>62.23401213477338</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>16.48367094446214</v>
+        <v>36.91972778130714</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>16.51111751917717</v>
+        <v>41.29943627648828</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16.27345715893825</v>
+        <v>13.03364092317022</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>16.46794774012652</v>
+        <v>44.82472990397639</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>16.58943731031702</v>
+        <v>52.91075414584706</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>16.62675929665867</v>
+        <v>58.06029192010797</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>16.33571435390967</v>
+        <v>6.856738269843177</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.36139711188649</v>
+        <v>16.3009449319676</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>16.35990650919586</v>
+        <v>15.46455981077529</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.36651590514254</v>
+        <v>16.57478684281316</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>16.30927858389185</v>
+        <v>4.272199243816136</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>16.33204066730987</v>
+        <v>11.57881877321355</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>16.29373721846479</v>
+        <v>4.316050512617334</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>16.36223582481228</v>
+        <v>19.37854559760319</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>16.41670286574187</v>
+        <v>26.24193661129001</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>16.42063552126923</v>
+        <v>26.92967129075253</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>16.26437005638639</v>
+        <v>2.184306597506502</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.35791024591825</v>
+        <v>17.66393802848829</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.27729252736135</v>
+        <v>1.994149302871467</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>16.34874295638428</v>
+        <v>17.67404949948043</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>16.40516004270077</v>
+        <v>25.5322277263018</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.41491292511093</v>
+        <v>26.65423696779368</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.23512190855196</v>
+        <v>-0.8609660921002771</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.33164750077697</v>
+        <v>14.81927300504722</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.2908417318752</v>
+        <v>0.7475981163215231</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.34462190564648</v>
+        <v>14.95256408184421</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>16.37965087771326</v>
+        <v>19.86132066664298</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.39344163927917</v>
+        <v>22.38509949691814</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>16.25607691374029</v>
+        <v>-0.4681915965331065</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.31773838029116</v>
+        <v>11.47959183896107</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.32406607626376</v>
+        <v>9.885081365887578</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>16.35349557856001</v>
+        <v>13.71060499050498</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>16.29614905181259</v>
+        <v>7.173944592243874</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>16.35750593301279</v>
+        <v>19.79531487243922</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>16.38241861309211</v>
+        <v>20.75844505209333</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>16.42273874988976</v>
+        <v>26.00685191703152</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.42296908795079</v>
+        <v>23.13591826931869</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>16.4537948163672</v>
+        <v>28.08663512191518</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.28102910894206</v>
+        <v>10.63806376686677</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.43196463331181</v>
+        <v>34.26945518613379</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.56411080224133</v>
+        <v>44.58928102660791</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.59244557882162</v>
+        <v>48.03252540234914</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.38856519428386</v>
+        <v>19.57622759817536</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.43080626834061</v>
+        <v>25.73243611221678</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>16.25136235332824</v>
+        <v>8.309034644893369</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>16.40983360333931</v>
+        <v>33.3739422001228</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>16.53694330932797</v>
+        <v>43.61337997893891</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.57362923065507</v>
+        <v>47.51820268680942</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>16.33691857929063</v>
+        <v>11.5774906473523</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>16.38195486166954</v>
+        <v>18.23560129400954</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.27403018097223</v>
+        <v>7.920907664921621</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.38894277473479</v>
+        <v>29.79218128483838</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.46559659063345</v>
+        <v>35.37184491045381</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>16.51356490886604</v>
+        <v>41.76344060550772</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>16.32668948146308</v>
+        <v>1.734461445370954</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>16.32985237609527</v>
+        <v>6.042981589414328</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>16.30744645482052</v>
+        <v>3.464941896341582</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>16.30948983002467</v>
+        <v>3.983982723842459</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.30352309846271</v>
+        <v>0.8056275671311219</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.30041154413372</v>
+        <v>4.382075885816207</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>16.27411033796918</v>
+        <v>-1.22420840969605</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.31814852096807</v>
+        <v>7.693835122517715</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.34653794471305</v>
+        <v>11.26288387603207</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>16.34578480171855</v>
+        <v>11.45124548660805</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.24376277412022</v>
+        <v>-2.873066908951969</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.30948259059828</v>
+        <v>7.700376971229055</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.25622560912934</v>
+        <v>-3.14014055157886</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.30367018666272</v>
+        <v>6.305327790200614</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>16.33366032901584</v>
+        <v>10.62451526460948</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.33906060298585</v>
+        <v>11.21750794406107</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.21147086663793</v>
+        <v>-5.585454532008598</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>16.28060383262551</v>
+        <v>5.152014369361687</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>16.28036611053738</v>
+        <v>-3.08657806894778</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>16.31389473292977</v>
+        <v>5.198008059152937</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>16.32954410581906</v>
+        <v>7.50408958847872</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>16.3394861681275</v>
+        <v>9.29458106052568</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.24588475382852</v>
+        <v>-3.841310016206872</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.28418512522637</v>
+        <v>3.747015525518275</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.27644653615812</v>
+        <v>3.639216700793224</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>16.29691069021633</v>
+        <v>5.177378727206108</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>16.29952005333919</v>
+        <v>6.111453692329274</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>16.33244365170441</v>
+        <v>14.3910526114808</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.34206563215857</v>
+        <v>15.29353030760915</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.37523001646542</v>
+        <v>19.02268868242603</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.35288958525378</v>
+        <v>12.81841218126962</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>16.3742195606012</v>
+        <v>15.23152317291776</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>16.27264834997899</v>
+        <v>8.814297604247759</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>16.39308165554418</v>
+        <v>26.5841307671642</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>16.50556132757059</v>
+        <v>35.95914497356157</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.52612146303927</v>
+        <v>37.92257866769337</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.31478125351026</v>
+        <v>9.539520385240449</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.34813179673673</v>
+        <v>13.05192893392877</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.23946136032123</v>
+        <v>6.663874068185606</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.36794044582008</v>
+        <v>25.67559458540259</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>16.47426098209883</v>
+        <v>34.94335199400174</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.50371364824566</v>
+        <v>37.32355523855918</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>16.28756808143982</v>
+        <v>4.877117012356827</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>16.32499276731031</v>
+        <v>8.816964467272808</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>16.27285547887926</v>
+        <v>6.678911801219943</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>16.36225174472079</v>
+        <v>23.10756494269727</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>16.42439924227486</v>
+        <v>28.51236346372861</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>16.46641000869353</v>
+        <v>33.212547624212</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>16.36117144445414</v>
+        <v>13.98990284796115</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>16.40267815352386</v>
+        <v>26.33285729524157</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>16.40646256314962</v>
+        <v>24.66572023650111</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16.41329223543444</v>
+        <v>26.69019079393234</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>16.32478673770049</v>
+        <v>9.250278872499337</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.36752749644853</v>
+        <v>19.21138747792525</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.33926359982429</v>
+        <v>14.5559233301462</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>16.42952683719053</v>
+        <v>34.80036327307063</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.50833351286015</v>
+        <v>44.23668417298822</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>16.51197262594755</v>
+        <v>45.60439642727353</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>16.30140686891352</v>
+        <v>9.144286110915971</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>16.42349017610903</v>
+        <v>29.61504610923448</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>16.32495211311803</v>
+        <v>11.94060660730586</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.41873070544348</v>
+        <v>33.22709222434737</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>16.50189802717119</v>
+        <v>44.07925820969112</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>16.51185270739872</v>
+        <v>46.00503231721255</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>16.27554985223595</v>
+        <v>5.857728510255523</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>16.4015181221784</v>
+        <v>27.02466874882329</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>16.31935515699537</v>
+        <v>7.320335219908436</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.39119714195272</v>
+        <v>26.10699095834558</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.43961763646628</v>
+        <v>32.33379727424054</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>16.45443375459798</v>
+        <v>36.01519630838565</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.28215322686069</v>
+        <v>5.230070405936328</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.36726125418688</v>
+        <v>22.13777260931066</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>16.35557262928999</v>
+        <v>15.84341126954048</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>16.38163371695919</v>
+        <v>19.09409195616189</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>16.30876913153311</v>
+        <v>9.087682653000833</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>16.38519291453529</v>
+        <v>22.3865390026588</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>16.41534862091931</v>
+        <v>23.93183602767981</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.45528081933853</v>
+        <v>29.40394869729998</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>16.50852481881778</v>
+        <v>36.79785774471821</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>16.53468718422481</v>
+        <v>40.66279051703336</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>16.31690736409312</v>
+        <v>15.21816042047809</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>16.49200577866322</v>
+        <v>42.26202201860657</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.65668554230182</v>
+        <v>57.04597273030668</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.68331293871431</v>
+        <v>60.36681705389958</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>16.48182633844384</v>
+        <v>33.693784973398</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>16.52042778723246</v>
+        <v>39.10526500034867</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>16.29120467970003</v>
+        <v>12.97917309269784</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.4751503490557</v>
+        <v>42.02235946411984</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>16.63833308043366</v>
+        <v>57.03481095630369</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>16.67423246855952</v>
+        <v>61.11761764410474</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>16.39579802904513</v>
+        <v>21.72032747994715</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>16.43975892595601</v>
+        <v>28.76101646206869</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>16.29852513147975</v>
+        <v>11.2152733241086</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>16.4335280933143</v>
+        <v>36.29904362092877</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>16.52883914014348</v>
+        <v>44.37503646537101</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>16.57860044178421</v>
+        <v>52.09577251072247</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>16.35116665530148</v>
+        <v>16.56935738387513</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>16.42952426103812</v>
+        <v>35.9581360182687</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>16.45320002095432</v>
+        <v>35.33687173816279</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>16.4617906051339</v>
+        <v>37.15563816242103</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>16.31373303987388</v>
+        <v>10.76219675691411</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>16.39966636973726</v>
+        <v>26.46946893746685</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>16.31931615702088</v>
+        <v>14.57420055915157</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>16.44529403854227</v>
+        <v>40.47203758887643</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>16.52912605937234</v>
+        <v>48.65692654071498</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>16.53406222807417</v>
+        <v>49.65801622330946</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.28103724769793</v>
+        <v>10.47578048779113</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>16.4435199068887</v>
+        <v>35.55176758744797</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.30364314504465</v>
+        <v>11.97297963798199</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.43087092397163</v>
+        <v>38.39549338795231</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>16.5160199725762</v>
+        <v>47.70213901284728</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>16.52688360748887</v>
+        <v>49.12487922373342</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>16.25210201618541</v>
+        <v>7.400218593533037</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>16.41554313059457</v>
+        <v>32.50883537571191</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>16.31664879494841</v>
+        <v>12.04484943460039</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>16.41662862200847</v>
+        <v>36.55137185094136</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>16.47623731105159</v>
+        <v>42.43171659024223</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>16.49216255662475</v>
+        <v>45.54852979589128</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>16.26978566186874</v>
+        <v>6.891702459730034</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>16.38669040586351</v>
+        <v>27.31338461936039</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>16.42555716636167</v>
+        <v>27.30510134979995</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>16.4527528082113</v>
+        <v>30.64446306409938</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>16.27553001903648</v>
+        <v>7.977840531080556</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>16.39566652013536</v>
+        <v>26.74723824668516</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>16.44739276571116</v>
+        <v>29.75643775185997</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>16.49208501877779</v>
+        <v>36.20387097034683</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>16.54823970577791</v>
+        <v>44.2191465773374</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>16.57471372680111</v>
+        <v>47.96772782677057</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>16.26385596182541</v>
+        <v>11.26994996727241</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>16.47890026266383</v>
+        <v>42.26488077219931</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>16.63997011753857</v>
+        <v>54.61880442840133</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.67132568592552</v>
+        <v>58.63238556417109</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>16.51107516358448</v>
+        <v>40.46763296053969</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>16.54925366258301</v>
+        <v>45.54611988820179</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>16.2342475190808</v>
+        <v>8.727360581658637</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>16.45466564304523</v>
+        <v>40.89776503694916</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>16.60929620747739</v>
+        <v>53.12359014424125</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>16.64927789749418</v>
+        <v>57.73998080033405</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>16.43747353707031</v>
+        <v>30.04507003063188</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>16.48108086529888</v>
+        <v>36.52653598210188</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>16.26212342010094</v>
+        <v>8.976394768488067</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>16.42763743140123</v>
+        <v>36.85484398498291</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>16.5278500057426</v>
+        <v>44.32858452425474</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>16.58068630818843</v>
+        <v>52.38718308321296</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.33552677550536</v>
+        <v>11.40925418276302</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>16.40980595905246</v>
+        <v>32.32456689756697</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.42767405900235</v>
+        <v>30.28023134273099</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.4314478634257</v>
+        <v>31.59091454178228</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.31746082142346</v>
+        <v>11.05356216322583</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.40129151906335</v>
+        <v>28.611669216126</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>16.30869091710509</v>
+        <v>10.27698515364373</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>16.42821269024411</v>
+        <v>39.59623878064456</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.51014001276449</v>
+        <v>49.05383381353218</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>16.51019192907691</v>
+        <v>49.51698309032238</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.28951318546942</v>
+        <v>9.718373339062172</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>16.44555840594749</v>
+        <v>38.58623833743231</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>16.29734743998199</v>
+        <v>7.603557591474967</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>16.41905036022779</v>
+        <v>38.02620489075007</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>16.50470446572868</v>
+        <v>49.15041670464103</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>16.50996522833655</v>
+        <v>50.12887171230589</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.26724559881085</v>
+        <v>6.121061974477186</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>16.42564385606313</v>
+        <v>35.72376936171401</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>16.30809813028443</v>
+        <v>6.086286701538668</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.40497507052381</v>
+        <v>34.23297212681145</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.46215236972499</v>
+        <v>41.18969246233551</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>16.47222754112256</v>
+        <v>43.92619162945491</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>16.28578614719688</v>
+        <v>7.309022822671327</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.40182454305431</v>
+        <v>32.35978843717593</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>16.42110297203826</v>
+        <v>28.04641780629273</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>16.4423417455462</v>
+        <v>31.32247678472974</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>16.28381111500418</v>
+        <v>6.642491355006037</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>16.39488046663529</v>
+        <v>26.56496040421383</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>16.44515255546904</v>
+        <v>30.8520761273403</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>16.47993732584431</v>
+        <v>36.7300719057143</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>16.5493786657403</v>
+        <v>48.88820732953538</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>16.56940173390321</v>
+        <v>52.57112064977237</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>16.27212925502484</v>
+        <v>9.747665795183901</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>16.47186594226251</v>
+        <v>44.14698966510522</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.63462551215531</v>
+        <v>61.39743152053255</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>16.65667185528707</v>
+        <v>64.68674011357611</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>16.5247340839693</v>
+        <v>45.34030642458773</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>16.55507475360625</v>
+        <v>50.55466877902504</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>16.24949583007788</v>
+        <v>7.046849404162025</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>16.45585884479182</v>
+        <v>43.45013347949206</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>16.61651330504765</v>
+        <v>60.82697105318546</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>16.64604844589269</v>
+        <v>64.80550084165615</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>16.45509141039367</v>
+        <v>34.80709008208611</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>16.49073901570918</v>
+        <v>41.78037606008399</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.27970852978848</v>
+        <v>8.360493659777003</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>16.43693459662964</v>
+        <v>40.58834393164384</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>16.54174641526472</v>
+        <v>51.68176442000474</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>16.5836751301187</v>
+        <v>59.57792786638394</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>16.36265747049331</v>
+        <v>15.05917758896784</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>16.40733885949025</v>
+        <v>32.07053333022456</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>16.42907969845702</v>
+        <v>31.52141435753977</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>16.42979784123539</v>
+        <v>32.44863058856168</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>16.35333066032381</v>
+        <v>16.29031171935885</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>16.40328607835345</v>
+        <v>30.05099366986773</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>16.34434137247679</v>
+        <v>14.60311207446722</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>16.4214701581622</v>
+        <v>39.85602812063915</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>16.49172199831645</v>
+        <v>49.91857212104206</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>16.49009484010961</v>
+        <v>50.20042964762334</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>16.33325144811995</v>
+        <v>15.03423202943524</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>16.43533557921763</v>
+        <v>39.24563111449917</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>16.33725401738335</v>
+        <v>12.63982662430432</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>16.41631127661643</v>
+        <v>39.07610694503795</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>16.48938168551007</v>
+        <v>50.40818046083317</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>16.49174869702092</v>
+        <v>51.21836595544839</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>16.3180894494464</v>
+        <v>11.93704198920572</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>16.42229208870144</v>
+        <v>36.94618163077455</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.34296701455876</v>
+        <v>11.12185861958325</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>16.40554126439886</v>
+        <v>35.14306793687146</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>16.45597127000229</v>
+        <v>42.33588854928585</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.46166672986878</v>
+        <v>44.6440154626024</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.33071284146093</v>
+        <v>13.34063924279144</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>16.40590516941748</v>
+        <v>34.36895097952453</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>16.42658185854537</v>
+        <v>30.23093841575072</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>16.44085158571618</v>
+        <v>34.06627335804369</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>16.32592524882803</v>
+        <v>11.08485045041946</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>16.39559122285056</v>
+        <v>27.06437678170774</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>16.44400256354492</v>
+        <v>32.9753043094796</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>16.46609186339896</v>
+        <v>38.58970990570453</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>16.52202037736605</v>
+        <v>49.69046034957533</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>16.535934385761</v>
+        <v>54.18202306558478</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>16.3212407198681</v>
+        <v>15.19774219388476</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>16.45500669888827</v>
+        <v>44.50282080105401</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>16.58940592649809</v>
+        <v>62.99808830613179</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.60258041293657</v>
+        <v>66.48306608200788</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>16.50570087142292</v>
+        <v>46.82589154558291</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>16.52735796314452</v>
+        <v>52.75075803539816</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>16.30638052861786</v>
+        <v>13.23160006735763</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>16.44539523492205</v>
+        <v>44.47672062969344</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>16.57851923090082</v>
+        <v>63.06214946049496</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>16.59745800687464</v>
+        <v>67.25009992834926</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>16.45415326418429</v>
+        <v>37.53484987933574</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>16.4792950781394</v>
+        <v>44.9053340981302</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.32483331255997</v>
+        <v>13.76971673010686</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.4300187790471</v>
+        <v>41.24436934913747</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>16.51895663010935</v>
+        <v>53.71057980359116</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>16.54693618532935</v>
+        <v>61.44907609207999</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>16.33064495093828</v>
+        <v>8.895881189505278</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.40323569479593</v>
+        <v>29.23327566411237</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>16.41295219209949</v>
+        <v>27.20118501696467</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>16.4197832332184</v>
+        <v>29.11770609661039</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>16.3056874503656</v>
+        <v>7.314903649267645</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.38789858391249</v>
+        <v>24.72841177649179</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.31294961236383</v>
+        <v>9.764905067251089</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.4331281352426</v>
+        <v>39.03630647173741</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>16.50543557648384</v>
+        <v>47.06889654341262</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>16.50771483742528</v>
+        <v>47.79252226276812</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.28638394543233</v>
+        <v>8.247768819998399</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>16.44454079133028</v>
+        <v>37.02747642768514</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>16.30114966037644</v>
+        <v>7.448452093070372</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>16.4230504313133</v>
+        <v>37.49528666636781</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>16.49884661461014</v>
+        <v>47.24111783567278</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>16.50657852457249</v>
+        <v>48.42670260294186</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.26226290073235</v>
+        <v>5.346568545551225</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>16.42208458403456</v>
+        <v>34.4381431825411</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>16.30496786718747</v>
+        <v>5.298368856159229</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>16.39955489815091</v>
+        <v>31.84299812234297</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>16.44899899693758</v>
+        <v>38.4667622978067</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>16.46267386861685</v>
+        <v>41.96577092131967</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>16.2704474223268</v>
+        <v>4.068553213545396</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.38390452545012</v>
+        <v>27.51339654408277</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>16.39648200458038</v>
+        <v>23.52988157918072</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>16.41444164296345</v>
+        <v>25.70334220210837</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>16.2707493651733</v>
+        <v>5.33754354705027</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>16.38034308967126</v>
+        <v>23.66305919251879</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>16.41349918602408</v>
+        <v>25.62620963764718</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>16.45055983983976</v>
+        <v>31.42732850735587</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.53311487600189</v>
+        <v>44.7227432125883</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>16.54832513413795</v>
+        <v>46.8473155674197</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>16.27004471807436</v>
+        <v>10.13656536678202</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>16.47288283180837</v>
+        <v>43.33235749452864</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>16.61429400949748</v>
+        <v>55.46029070267899</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>16.63702224869815</v>
+        <v>58.47509421434435</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>16.50481845751094</v>
+        <v>41.65545411628786</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>16.53105544706205</v>
+        <v>45.24685510362612</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>16.24429410485929</v>
+        <v>7.663382450794984</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>16.45314800514016</v>
+        <v>42.4289729867145</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>16.59099422312083</v>
+        <v>54.55547421997716</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.62181811900246</v>
+        <v>58.32442725213866</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.42333160903307</v>
+        <v>29.10778286059574</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.45731945914434</v>
+        <v>34.76833147616735</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>16.26094168867778</v>
+        <v>6.246439624831666</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>16.41603258086005</v>
+        <v>35.1791278605355</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.50109697365769</v>
+        <v>42.46123689502484</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.54636062270738</v>
+        <v>50.48331101309513</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>16.33111096021516</v>
+        <v>6.423483024718763</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>16.35763168549639</v>
+        <v>15.66247551577935</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>16.3571503850358</v>
+        <v>15.19621253574683</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>16.36384444258832</v>
+        <v>16.2328978419601</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.32971017098025</v>
+        <v>8.772482918324084</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.36945009695357</v>
+        <v>19.26419225070105</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>16.30037840352248</v>
+        <v>4.807086969784006</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>16.36799344418789</v>
+        <v>20.54103164387072</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.42345959104382</v>
+        <v>27.97244607169581</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>16.42770260997379</v>
+        <v>28.46055168626894</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>16.30785709574252</v>
+        <v>10.32853043345744</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>16.41612335303951</v>
+        <v>30.3082958202051</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>16.2845515717271</v>
+        <v>2.135496313412663</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>16.35512882376903</v>
+        <v>18.65675143396923</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>16.41223530343546</v>
+        <v>27.08115525430217</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>16.42206747183712</v>
+        <v>28.04755547719866</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>16.28108650325057</v>
+        <v>7.279452792756988</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.39209673808877</v>
+        <v>27.62277282039666</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>16.29926747589865</v>
+        <v>1.038149103828992</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>16.35185050394092</v>
+        <v>15.50052291105078</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.38781384016777</v>
+        <v>21.91104515629423</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>16.40195340579664</v>
+        <v>24.38371896679175</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>16.29692686069899</v>
+        <v>7.232546227322654</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.37130779688862</v>
+        <v>23.22898328811965</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.36466766412238</v>
+        <v>17.66239835264199</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>16.39743176323266</v>
+        <v>21.97321611687558</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>16.29565069857947</v>
+        <v>6.713546608340089</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.36112097347473</v>
+        <v>19.34725773586284</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>16.38135623297394</v>
+        <v>20.23331720967132</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>16.42606032278522</v>
+        <v>26.45327354209287</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>16.48746621277337</v>
+        <v>36.63656831061729</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>16.52178371009004</v>
+        <v>41.8968333642667</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>16.30210908170315</v>
+        <v>14.04263351887226</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>16.45244223666803</v>
+        <v>39.20341945977729</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>16.58020040338906</v>
+        <v>50.31216966409015</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.61512980894535</v>
+        <v>55.025644473112</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>16.4567541151029</v>
+        <v>33.25339639226</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>16.50185762080084</v>
+        <v>40.04860864758873</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.27560193499972</v>
+        <v>11.67104244808758</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>16.43300405159895</v>
+        <v>38.45478160418476</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>16.55676137040508</v>
+        <v>49.3656275045292</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>16.59986577221834</v>
+        <v>54.93488420377357</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>16.39867217541586</v>
+        <v>24.09345180106206</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>16.44692790577139</v>
+        <v>32.28084024641021</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.29142466767359</v>
+        <v>9.238829145867555</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>16.40558821765205</v>
+        <v>31.6492820075676</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>16.47911235338358</v>
+        <v>37.31290090129932</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>16.53268673386597</v>
+        <v>46.20432966127026</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>16.33895471077268</v>
+        <v>8.669594104220717</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>16.3737668839542</v>
+        <v>23.09083062013391</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>16.38169598239865</v>
+        <v>22.14282251075771</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>16.38637444024431</v>
+        <v>23.35086645033441</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>16.32561393461514</v>
+        <v>10.10698759852599</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>16.36365076035757</v>
+        <v>22.00972480431957</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>16.32080692975963</v>
+        <v>8.406967820536998</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>16.3872662558833</v>
+        <v>30.95044900776894</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>16.44247094512793</v>
+        <v>40.18433505603652</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>16.44540838228417</v>
+        <v>40.84533273609723</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>16.30628270260447</v>
+        <v>9.058473926838364</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>16.39546522683239</v>
+        <v>31.36509721944297</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>16.31491469314328</v>
+        <v>6.745536769412016</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>16.38357352844255</v>
+        <v>30.50954879182221</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>16.44195172026019</v>
+        <v>40.90221575659363</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>16.44883803015135</v>
+        <v>42.10161436428574</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>16.29258382128053</v>
+        <v>6.181072022263962</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>16.38420119776397</v>
+        <v>29.30513467727929</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>16.32273171037271</v>
+        <v>4.990741330923321</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>16.37635531631654</v>
+        <v>26.30932731259531</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>16.41419560414527</v>
+        <v>32.81544775742181</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>16.42367425368721</v>
+        <v>35.48029080588396</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>16.3075032856769</v>
+        <v>7.494249064486308</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>16.37184978824485</v>
+        <v>26.54928073654623</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>16.36718641521407</v>
+        <v>20.27643039242777</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>16.38931869415242</v>
+        <v>25.21302194522953</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>16.28911431672016</v>
+        <v>4.539226807475796</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>16.3465863295555</v>
+        <v>18.69710168123758</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>16.3718869169624</v>
+        <v>22.21897499242591</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>16.40157233532591</v>
+        <v>28.67722025147853</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>16.46059436217157</v>
+        <v>39.33269176265461</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>16.48348829393503</v>
+        <v>45.15237498161349</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>16.28604447337022</v>
+        <v>9.165973254279177</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>16.40660247528512</v>
+        <v>36.64816969077581</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>16.51629003206452</v>
+        <v>52.39573685563659</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>16.53824669233575</v>
+        <v>56.95072896983379</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.44660015075885</v>
+        <v>36.65818415004298</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>16.47711630485001</v>
+        <v>43.93999157297547</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>16.2731525617392</v>
+        <v>7.423327368587231</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>16.39928474696146</v>
+        <v>36.88984998744338</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>16.50838002703326</v>
+        <v>52.70393561612882</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>16.53601646222362</v>
+        <v>57.98907915509122</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>16.40230593295848</v>
+        <v>27.64572250766461</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>16.4348495861793</v>
+        <v>36.29985543829436</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>16.29387372317677</v>
+        <v>7.488330088435983</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>16.38794648208489</v>
+        <v>33.06389708488602</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>16.45608668318667</v>
+        <v>42.91459087994326</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>16.49131348599072</v>
+        <v>51.70358618283342</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>16.34611306896825</v>
+        <v>14.61262020031589</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>16.42953180693888</v>
+        <v>36.72549104171539</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>16.47183552034267</v>
+        <v>38.86044391574411</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>16.46998823519403</v>
+        <v>39.18243639458657</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>16.32035490687914</v>
+        <v>11.24016586981061</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>16.41639456851057</v>
+        <v>29.49679205864874</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>16.31195552326123</v>
+        <v>12.4210019678138</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>16.44303846450334</v>
+        <v>41.40840204465222</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>16.55135208574065</v>
+        <v>53.66747216545573</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>16.54455141798205</v>
+        <v>53.10047739000121</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>16.28332607122664</v>
+        <v>10.98379120843508</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>16.45588140553302</v>
+        <v>38.57639093513426</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>16.30018001308337</v>
+        <v>9.924070940897913</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>16.43335224542473</v>
+        <v>39.77676645032338</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>16.54524969576707</v>
+        <v>53.60703600298447</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>16.54383609894003</v>
+        <v>53.35713939678993</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>16.26240850638885</v>
+        <v>8.685535290797663</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>16.43712583126207</v>
+        <v>36.76696484323173</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>16.3111228652609</v>
+        <v>8.70945462972006</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>16.41790200709584</v>
+        <v>37.03515462727577</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>16.49831836152333</v>
+        <v>47.54282917614509</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>16.50286860574788</v>
+        <v>48.57638569536191</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>16.28472644932088</v>
+        <v>9.123875799552547</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>16.41414120228802</v>
+        <v>33.83934180026317</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>16.45968954567702</v>
+        <v>31.84760441925461</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>16.47298382607855</v>
+        <v>33.68878390018509</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>16.27914663732436</v>
+        <v>7.658368927654546</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>16.40778406790216</v>
+        <v>28.4064193534336</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>16.48201921541008</v>
+        <v>34.14722823407769</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>16.50863103081394</v>
+        <v>38.48830049945302</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>16.58467943315926</v>
+        <v>50.10135870481822</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>16.5952626223856</v>
+        <v>52.06169998210798</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>16.26452974421812</v>
+        <v>12.00982886448577</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>16.48765176270208</v>
+        <v>45.32365979680166</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>16.67888777792129</v>
+        <v>61.56318522170564</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>16.6902198802614</v>
+        <v>63.2046351943146</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>16.56108412590743</v>
+        <v>47.76613686456594</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>16.5824580566165</v>
+        <v>50.86635567676966</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>16.24385462888853</v>
+        <v>10.62144579013838</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>16.47368586180106</v>
+        <v>45.61377404293489</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>16.66295944161873</v>
+        <v>61.76068109499289</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>16.6820409036617</v>
+        <v>63.80272288446687</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>16.48968517150197</v>
+        <v>38.84159555707008</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>16.51786088373538</v>
+        <v>43.03846715557277</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>16.27360057658129</v>
+        <v>10.50226756474379</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>16.45032575035282</v>
+        <v>41.9769312085938</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>16.57936013392257</v>
+        <v>52.8363482772584</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>16.61299253618267</v>
+        <v>58.01271602086564</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>16.32502746276442</v>
+        <v>6.971419727696631</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>16.39848959242378</v>
+        <v>27.18466545503181</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>16.40984206974222</v>
+        <v>26.70238595691775</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>16.41511900576698</v>
+        <v>28.2223152714768</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>16.30528139401494</v>
+        <v>7.211932044148032</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>16.38808338959026</v>
+        <v>24.59139059142363</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>16.30964679685005</v>
+        <v>8.923415378617968</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>16.43182895312313</v>
+        <v>38.04924971294707</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>16.50723990242693</v>
+        <v>46.93082624243556</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>16.5077643171788</v>
+        <v>47.29658539978206</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>16.28753171002943</v>
+        <v>8.027571756974982</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>16.44782515383671</v>
+        <v>36.66464719113441</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>16.29899414938888</v>
+        <v>7.058327538049415</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>16.42309896155188</v>
+        <v>36.99013763790248</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>16.50241180468813</v>
+        <v>47.45344180126347</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>16.50855884396676</v>
+        <v>48.31973928819856</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>16.26417048076645</v>
+        <v>5.338230442979533</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>16.42640595451123</v>
+        <v>34.34792171984736</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>16.30234233159928</v>
+        <v>4.292110658175083</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>16.39861107523017</v>
+        <v>30.83329490819268</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>16.45143321271976</v>
+        <v>38.83792549660049</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>16.46388869912068</v>
+        <v>41.9558927439426</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>16.27225028184473</v>
+        <v>4.275862556492211</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>16.38744907904965</v>
+        <v>27.76212794180247</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>16.39522367546686</v>
+        <v>24.07689901417616</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>16.41460708430105</v>
+        <v>26.63298544566068</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>16.26303520896424</v>
+        <v>4.612048195381639</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>16.37223202648923</v>
+        <v>22.38400189031422</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>16.39900637902625</v>
+        <v>24.47460589935282</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>16.43784562536959</v>
+        <v>30.45517710439952</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>16.5363335601333</v>
+        <v>44.49610605431005</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>16.55298821608491</v>
+        <v>47.03007145883662</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>16.26459743324667</v>
+        <v>9.309910826181174</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>16.46878849464131</v>
+        <v>41.87521404730607</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>16.60555610492109</v>
+        <v>53.67719245233476</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>16.62992084902989</v>
+        <v>56.959785646393</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>16.50951570124101</v>
+        <v>41.63137567466899</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>16.53734764172905</v>
+        <v>45.58187071712651</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>16.23987718572122</v>
+        <v>6.978761724521956</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>16.45048202829913</v>
+        <v>41.14722745108246</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>16.58439402468273</v>
+        <v>52.87754650489664</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>16.61697516357469</v>
+        <v>56.92530048448991</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>16.42762791674078</v>
+        <v>29.84823159274787</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>16.4632083301173</v>
+        <v>35.8215686586849</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>16.25684136876548</v>
+        <v>5.620788889676977</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>16.4130743559265</v>
+        <v>33.97772208888568</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>16.49501406045557</v>
+        <v>41.17351356109289</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>16.54218488768265</v>
+        <v>49.48504699667674</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.405008038066246</v>
+        <v>5.405008038066242</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.05520923244323</v>
+        <v>17.05520923244324</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.01222684686591</v>
+        <v>16.0122268468659</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17.16733298998899</v>
+        <v>17.16733298998905</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.41383950661193</v>
+        <v>12.41383950661196</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.75253468256943</v>
+        <v>24.75253468256946</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.215285899882282</v>
+        <v>3.215285899882264</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.81727223402455</v>
+        <v>22.81727223402453</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.43262007679373</v>
+        <v>32.43262007679374</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.97120489322352</v>
+        <v>32.97120489322347</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11.44161591277394</v>
+        <v>11.441615912774</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.71670317617063</v>
+        <v>34.71670317617077</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2374757812087402</v>
+        <v>0.2374757812086656</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.97655797645147</v>
+        <v>20.97655797645145</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.90693312173988</v>
+        <v>31.90693312173989</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>33.0032972225841</v>
+        <v>33.00329722258409</v>
       </c>
     </row>
     <row r="18">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.45368249712603</v>
+        <v>31.45368249712605</v>
       </c>
     </row>
     <row r="20">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.96565564490012</v>
+        <v>16.96565564490009</v>
       </c>
     </row>
     <row r="22">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.56350597225957</v>
+        <v>26.56350597225959</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8.289821046046686</v>
+        <v>8.289821046046725</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.66014805861332</v>
+        <v>27.66014805861333</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.45992091092614</v>
+        <v>23.45992091092618</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.02606126692821</v>
+        <v>28.02606126692824</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.69720658542332</v>
+        <v>8.697206585423341</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.79167313391146</v>
+        <v>23.79167313391145</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.74713760371182</v>
+        <v>27.74713760371186</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>34.1182264648648</v>
+        <v>34.11822646486482</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>43.66665198956952</v>
+        <v>43.6666519895695</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.13070019696181</v>
+        <v>49.13070019696178</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>13.72446369700968</v>
+        <v>13.72446369700971</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.93441061418743</v>
+        <v>42.93441061418747</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>59.76278710740918</v>
+        <v>59.7627871074092</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>64.24555000170709</v>
+        <v>64.24555000170714</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.6652263581032</v>
+        <v>39.66522635810316</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.77367725329355</v>
+        <v>46.77367725329353</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>11.02844474328663</v>
+        <v>11.02844474328667</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.22920883702284</v>
+        <v>42.22920883702285</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>59.09289627950625</v>
+        <v>59.09289627950621</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>64.43090456897389</v>
+        <v>64.43090456897392</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.32858487924667</v>
+        <v>29.32858487924661</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37.93642614379569</v>
+        <v>37.93642614379564</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10.96755786746848</v>
+        <v>10.96755786746847</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>37.96892773571487</v>
+        <v>37.96892773571486</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>48.5164476455474</v>
+        <v>48.51644764554732</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>57.42628370267525</v>
+        <v>57.42628370267526</v>
       </c>
     </row>
     <row r="50">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>37.03474996077512</v>
+        <v>37.03474996077507</v>
       </c>
     </row>
     <row r="52">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.15349637433165</v>
+        <v>36.15349637433164</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10.17580989274518</v>
+        <v>10.17580989274522</v>
       </c>
     </row>
     <row r="55">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>9.608763130359812</v>
+        <v>9.608763130359858</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.0897620545154</v>
+        <v>42.08976205451542</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.03600656665603</v>
+        <v>49.03600656665597</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>49.68561131201433</v>
+        <v>49.68561131201432</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>9.433539207226453</v>
+        <v>9.433539207226449</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.93165405196682</v>
+        <v>39.93165405196679</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6.986686512137563</v>
+        <v>6.986686512137592</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.01273501842271</v>
+        <v>40.01273501842272</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>48.4849749853242</v>
+        <v>48.48497498532416</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>49.53940318676808</v>
+        <v>49.53940318676801</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6.165752815882712</v>
+        <v>6.165752815882747</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.79458616994599</v>
+        <v>36.79458616994594</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.286533900096607</v>
+        <v>7.286533900096618</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.3319668252074</v>
+        <v>38.33196682520735</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.56801336663042</v>
+        <v>43.5680133666304</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.59819784853123</v>
+        <v>46.59819784853129</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6.196633702149267</v>
+        <v>6.196633702149274</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.94455381051453</v>
+        <v>31.94455381051452</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.51116872388643</v>
+        <v>31.51116872388641</v>
       </c>
     </row>
     <row r="75">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>7.786061001602306</v>
+        <v>7.786061001602317</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.14614783409612</v>
+        <v>32.14614783409606</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.15192304145189</v>
+        <v>35.15192304145186</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.67237770228558</v>
+        <v>41.67237770228552</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>49.92766869364908</v>
+        <v>49.92766869364914</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>54.23098274660882</v>
+        <v>54.23098274660889</v>
       </c>
     </row>
     <row r="82">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>48.28092100229593</v>
+        <v>48.28092100229594</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>61.5783187652183</v>
+        <v>61.57831876521833</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>65.11015607966371</v>
+        <v>65.11015607966382</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>46.1594789192327</v>
+        <v>46.15947891923267</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>51.78232159295622</v>
+        <v>51.78232159295619</v>
       </c>
     </row>
     <row r="88">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>47.03211534315039</v>
+        <v>47.03211534315041</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>60.3451291154424</v>
+        <v>60.34512911544239</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>64.35377246512105</v>
+        <v>64.35377246512097</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.49637424414207</v>
+        <v>35.4963742441421</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.63897045251783</v>
+        <v>42.63897045251787</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>9.02992102982407</v>
+        <v>9.029921029824056</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>43.71448271711815</v>
+        <v>43.71448271711814</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>52.08702780182668</v>
+        <v>52.08702780182665</v>
       </c>
     </row>
     <row r="97">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.0102693223014</v>
+        <v>10.01026932230139</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.20017797433949</v>
+        <v>32.2001779743395</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.31610406595263</v>
+        <v>31.31610406595259</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.10443363314601</v>
+        <v>32.10443363314598</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>12.30163865846074</v>
+        <v>12.30163865846077</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.2473871107166</v>
+        <v>33.24738711071657</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.719104335417828</v>
+        <v>9.719104335417894</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.70335399558287</v>
+        <v>39.70335399558285</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>48.29654124194087</v>
+        <v>48.29654124194086</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>47.97400255265713</v>
+        <v>47.97400255265712</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>12.56840405576451</v>
+        <v>12.56840405576452</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.24132510415606</v>
+        <v>44.24132510415602</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.356915705624587</v>
+        <v>7.356915705624598</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.11837320603024</v>
+        <v>38.11837320603023</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.19491362989388</v>
+        <v>48.19491362989385</v>
       </c>
     </row>
     <row r="113">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>9.796051622825072</v>
+        <v>9.796051622825155</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.8193509367528</v>
+        <v>41.81935093675278</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6.580135791398483</v>
+        <v>6.580135791398469</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.06556906450852</v>
+        <v>35.06556906450849</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>42.18392983678732</v>
+        <v>42.18392983678721</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>44.1571094059474</v>
+        <v>44.15710940594742</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>9.628559137338184</v>
+        <v>9.628559137338202</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.79945784141981</v>
+        <v>36.79945784141976</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.58364663819013</v>
+        <v>35.58364663819003</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.83728668389479</v>
+        <v>37.83728668389474</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>9.087288176925863</v>
+        <v>9.087288176925885</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.55927907311978</v>
+        <v>33.55927907311975</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>37.81252721319062</v>
+        <v>37.81252721319056</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.67356607244614</v>
+        <v>42.67356607244605</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>55.86885639536521</v>
+        <v>55.86885639536529</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>58.13126129427867</v>
+        <v>58.13126129427866</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>12.5949046319696</v>
+        <v>12.59490463196962</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.94767844213402</v>
+        <v>50.94767844213403</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>65.67766424065837</v>
+        <v>65.67766424065843</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>67.51633292879491</v>
+        <v>67.51633292879502</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>52.88146223155663</v>
+        <v>52.88146223155649</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>56.32286896392196</v>
+        <v>56.32286896392184</v>
       </c>
     </row>
     <row r="136">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>50.35049690834201</v>
+        <v>50.35049690834197</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>65.10393494208073</v>
+        <v>65.10393494208078</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>67.31955379206109</v>
+        <v>67.31955379206114</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.87102443695575</v>
+        <v>41.87102443695579</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>46.76116862631137</v>
+        <v>46.76116862631136</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.27979846900044</v>
+        <v>11.2797984690004</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>46.76383413719068</v>
+        <v>46.76383413719071</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>56.5980737358403</v>
+        <v>56.59807373584023</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>62.30641325878584</v>
+        <v>62.3064132587858</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>6.601370589067379</v>
+        <v>6.601370589067319</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.74399878812485</v>
+        <v>16.74399878812484</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16.74048266935946</v>
+        <v>16.74048266935948</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>17.71115206022803</v>
+        <v>17.71115206022802</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13.03752980052621</v>
+        <v>13.03752980052619</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.34545073289136</v>
+        <v>23.34545073289141</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4.619910041882147</v>
+        <v>4.619910041882139</v>
       </c>
     </row>
     <row r="153">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.10699673995714</v>
+        <v>32.10699673995713</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>32.60860722988856</v>
+        <v>32.60860722988853</v>
       </c>
     </row>
     <row r="156">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.54736986745074</v>
+        <v>33.54736986745063</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1.850493404565565</v>
+        <v>1.850493404565572</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.74461572756336</v>
+        <v>20.74461572756333</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.49999666060296</v>
+        <v>31.49999666060293</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.55322808420648</v>
+        <v>32.55322808420645</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.16917399444015</v>
+        <v>9.16917399444014</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.61559966112995</v>
+        <v>30.61559966112987</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.8269733314449859</v>
+        <v>0.8269733314450214</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>17.42914952141152</v>
+        <v>17.4291495214115</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>24.38869312273861</v>
+        <v>24.38869312273862</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.8271048052963</v>
+        <v>26.82710480529624</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>9.367497253749725</v>
+        <v>9.367497253749715</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.51341305364287</v>
+        <v>26.51341305364276</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.59084043046207</v>
+        <v>20.59084043046213</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.4203369274425</v>
+        <v>25.42033692744254</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>8.915584157283277</v>
+        <v>8.91558415728327</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.62652762883385</v>
+        <v>21.62652762883379</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24.38724362298376</v>
+        <v>24.38724362298371</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.92162184617879</v>
+        <v>30.92162184617872</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.96975631360286</v>
+        <v>39.96975631360294</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.83301379795951</v>
+        <v>45.83301379795947</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>15.42618797304447</v>
+        <v>15.4261879730445</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>41.23444196640091</v>
+        <v>41.23444196640082</v>
       </c>
     </row>
     <row r="180">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>60.80531011537654</v>
+        <v>60.80531011537656</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>36.31750773478542</v>
+        <v>36.31750773478537</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>43.68355017933027</v>
+        <v>43.68355017933018</v>
       </c>
     </row>
     <row r="184">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>40.67802493157928</v>
+        <v>40.67802493157925</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>55.20906170092028</v>
+        <v>55.20906170092032</v>
       </c>
     </row>
     <row r="187">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.37221847707385</v>
+        <v>26.37221847707387</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.90103512294269</v>
+        <v>34.90103512294267</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>11.80571638273716</v>
+        <v>11.80571638273711</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.69368074097495</v>
+        <v>35.69368074097487</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.64471663400153</v>
+        <v>44.64471663400157</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>53.55019811913249</v>
+        <v>53.55019811913253</v>
       </c>
     </row>
     <row r="194">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.36988709961717</v>
+        <v>31.36988709961719</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.79585094854835</v>
+        <v>29.79585094854833</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.81598226070194</v>
+        <v>30.81598226070191</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>17.48674338628351</v>
+        <v>17.4867433862835</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.920918374663</v>
+        <v>34.92091837466304</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.89321909002481</v>
+        <v>12.89321909002482</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>40.17606765844494</v>
+        <v>40.17606765844491</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>48.76951336563526</v>
+        <v>48.76951336563522</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>49.2294240096727</v>
+        <v>49.22942400967271</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17.22356739741089</v>
+        <v>17.22356739741095</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.59547225953216</v>
+        <v>45.5954722595322</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>10.79490737387374</v>
+        <v>10.79490737387371</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>39.17411252990338</v>
+        <v>39.1741125299033</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>49.16790746462736</v>
+        <v>49.16790746462732</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>50.14969331793593</v>
+        <v>50.14969331793585</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13.94855805528321</v>
+        <v>13.94855805528326</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.058670932383</v>
+        <v>43.05867093238295</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>9.393737826250424</v>
+        <v>9.393737826250407</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.33149348983764</v>
+        <v>35.33149348983763</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.50297843876013</v>
+        <v>41.50297843876008</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.9347853614764</v>
+        <v>43.93478536147636</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>14.86106487752561</v>
+        <v>14.86106487752562</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.71298339188534</v>
+        <v>39.71298339188536</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.43203346911834</v>
+        <v>38.43203346911832</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.29663846353094</v>
+        <v>41.29663846353097</v>
       </c>
     </row>
     <row r="220">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.02002161443713</v>
+        <v>36.02002161443711</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>41.59078453581883</v>
+        <v>41.5907845358188</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>59.32103003284995</v>
+        <v>59.32103003284996</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>62.7678529898967</v>
+        <v>62.76785298989674</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>15.05515892642864</v>
+        <v>15.05515892642865</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.83850095204357</v>
+        <v>47.83850095204355</v>
       </c>
     </row>
     <row r="228">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>69.15016535904968</v>
+        <v>69.15016535904971</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>56.16396272056323</v>
+        <v>56.16396272056313</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>12.63822999239018</v>
+        <v>12.63822999239019</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>47.27279983237803</v>
+        <v>47.27279983237802</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>65.29819507190844</v>
+        <v>65.29819507190834</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>69.3627796919284</v>
+        <v>69.36277969192835</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.26415759600768</v>
+        <v>46.26415759600775</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>52.53274977593168</v>
+        <v>52.53274977593165</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>13.85386553044735</v>
+        <v>13.85386553044732</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.64100455562856</v>
+        <v>44.64100455562858</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>57.04853142987299</v>
+        <v>57.04853142987303</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>64.51187742604112</v>
+        <v>64.51187742604118</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.388755194624496</v>
+        <v>9.388755194624514</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.59298464627095</v>
+        <v>34.59298464627096</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>32.0779195103853</v>
+        <v>32.07791951038522</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.6908494633894</v>
+        <v>32.69084946338936</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.41135407426804</v>
+        <v>13.41135407426805</v>
       </c>
     </row>
     <row r="246">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>9.465978728454981</v>
+        <v>9.46597872845496</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>40.81056846071949</v>
+        <v>40.81056846071944</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>46.94961693213637</v>
+        <v>46.94961693213633</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>46.77666149006236</v>
+        <v>46.77666149006235</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>14.18789227445879</v>
+        <v>14.18789227445882</v>
       </c>
     </row>
     <row r="252">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>7.855493824617273</v>
+        <v>7.855493824617238</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>39.73589307904112</v>
+        <v>39.73589307904113</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>47.52188531372766</v>
+        <v>47.52188531372761</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>47.61303238998389</v>
+        <v>47.61303238998386</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>11.97503982755343</v>
+        <v>11.97503982755344</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.7341514562477</v>
+        <v>46.73415145624763</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.119031454186519</v>
+        <v>8.119031454186501</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.91975470596708</v>
+        <v>38.91975470596702</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>43.72312959356754</v>
+        <v>43.72312959356749</v>
       </c>
     </row>
     <row r="262">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43.34605031607151</v>
+        <v>43.3460503160715</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>41.01186376257786</v>
+        <v>41.01186376257785</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>43.14725292809362</v>
+        <v>43.14725292809361</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>10.50554794044398</v>
+        <v>10.505547940444</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.82767676548161</v>
+        <v>36.82767676548163</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>40.09914493443254</v>
+        <v>40.09914493443252</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>43.87990061885817</v>
+        <v>43.87990061885814</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>58.87457760980926</v>
+        <v>58.87457760980924</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>60.97423143772289</v>
+        <v>60.97423143772286</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.51050705544195</v>
+        <v>13.51050705544199</v>
       </c>
     </row>
     <row r="274">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>64.91598220930921</v>
+        <v>64.91598220930923</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>56.4745834364186</v>
+        <v>56.47458343641858</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>59.51455690475187</v>
+        <v>59.5145569047519</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.74561007244744</v>
+        <v>11.74561007244743</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>50.86403763337094</v>
+        <v>50.86403763337096</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>63.42577389632642</v>
+        <v>63.42577389632646</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>64.83646539836961</v>
+        <v>64.83646539836964</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>47.8339089157743</v>
+        <v>47.83390891577427</v>
       </c>
     </row>
     <row r="283">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.19178475486529</v>
+        <v>13.19178475486534</v>
       </c>
     </row>
     <row r="285">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>57.63300404505166</v>
+        <v>57.63300404505163</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>61.75368606380759</v>
+        <v>61.75368606380763</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>2.941787111675445</v>
+        <v>2.941787111675463</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>12.81286262429035</v>
+        <v>12.81286262429041</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>15.9400560699189</v>
+        <v>15.94005606991889</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.27604683863443</v>
+        <v>16.27604683863444</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>9.991323719635036</v>
+        <v>9.991323719635023</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>23.70846752558628</v>
+        <v>23.70846752558622</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-0.2726530598478867</v>
+        <v>-0.272653059847844</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>15.3147666165647</v>
+        <v>15.31476661656469</v>
       </c>
     </row>
     <row r="296">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.73982803777108</v>
+        <v>26.73982803777115</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>10.89708860476709</v>
+        <v>10.89708860476712</v>
       </c>
     </row>
     <row r="299">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-3.408520673175786</v>
+        <v>-3.408520673175801</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>12.87393821837653</v>
+        <v>12.87393821837658</v>
       </c>
     </row>
     <row r="302">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.833207597545</v>
+        <v>25.83320759754498</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>7.902897491669862</v>
+        <v>7.90289749166984</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>30.72696650467363</v>
+        <v>30.72696650467366</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-4.597308696074748</v>
+        <v>-4.597308696074734</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>10.3004955895383</v>
+        <v>10.30049558953831</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20.32289767696751</v>
+        <v>20.32289767696754</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>21.65531013769169</v>
+        <v>21.65531013769172</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>7.272004192554441</v>
+        <v>7.272004192554469</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.18308265764655</v>
+        <v>26.18308265764653</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>23.83727970187361</v>
+        <v>23.83727970187357</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.50934950701018</v>
+        <v>27.50934950701017</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>7.115990243491805</v>
+        <v>7.115990243491808</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>24.7182435260577</v>
+        <v>24.71824352605774</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.56906303530392</v>
+        <v>29.56906303530393</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>34.37451426107269</v>
+        <v>34.37451426107273</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>41.48985693533391</v>
+        <v>41.48985693533393</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>45.90653487283494</v>
+        <v>45.906534872835</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>13.28109657506042</v>
+        <v>13.28109657506044</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.92825961826942</v>
+        <v>42.92825961826946</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>57.43703860131077</v>
+        <v>57.43703860131082</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>60.54796532129677</v>
+        <v>60.54796532129684</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.0178917622848</v>
+        <v>38.01789176228489</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>43.75163429410726</v>
+        <v>43.75163429410736</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>11.72161907919249</v>
+        <v>11.72161907919252</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.89554462135763</v>
+        <v>42.89554462135767</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>57.28731563317106</v>
+        <v>57.28731563317108</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>60.99269822513256</v>
+        <v>60.9926982251326</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.45030465843324</v>
+        <v>28.45030465843326</v>
       </c>
     </row>
     <row r="331">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>11.39458208300429</v>
+        <v>11.39458208300428</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>38.95070745164373</v>
+        <v>38.95070745164379</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>48.52992252762115</v>
+        <v>48.52992252762114</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>54.79883114512681</v>
+        <v>54.79883114512678</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1.238679348451953</v>
+        <v>1.23867934845196</v>
       </c>
     </row>
     <row r="337">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>10.03401822694721</v>
+        <v>10.03401822694718</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>11.19123917818339</v>
+        <v>11.19123917818336</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2.80998580115677</v>
+        <v>2.809985801156774</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.96030393099898</v>
+        <v>11.96030393099893</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-0.99139999078918</v>
+        <v>-0.9913999907891977</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.12559188756833</v>
+        <v>17.1255918875683</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.42493045074137</v>
+        <v>24.42493045074145</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.09733754449367</v>
+        <v>25.09733754449373</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-0.9889984230168416</v>
+        <v>-0.9889984230168665</v>
       </c>
     </row>
     <row r="347">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-3.544738875295682</v>
+        <v>-3.544738875295714</v>
       </c>
     </row>
     <row r="349">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>24.1640529320648</v>
+        <v>24.16405293206474</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.35752780677338</v>
+        <v>25.35752780677337</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-4.527497899204874</v>
+        <v>-4.527497899204871</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>15.35237178096069</v>
+        <v>15.35237178096063</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-4.903734210247972</v>
+        <v>-4.903734210247947</v>
       </c>
     </row>
     <row r="355">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>17.58761357499241</v>
+        <v>17.58761357499238</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>20.18581595836737</v>
+        <v>20.18581595836734</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-2.705704437637472</v>
+        <v>-2.705704437637483</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.07251776286551</v>
+        <v>13.07251776286553</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>12.4790407747056</v>
+        <v>12.47904077470549</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.03255912925755</v>
+        <v>16.03255912925754</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-0.2326758266820761</v>
+        <v>-0.2326758266820903</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.48182303408479</v>
+        <v>11.48182303408481</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15.12627119146594</v>
+        <v>15.12627119146597</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.64667683205176</v>
+        <v>22.64667683205175</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.87999861034631</v>
+        <v>27.87999861034636</v>
       </c>
     </row>
     <row r="367">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>2.429307740969556</v>
+        <v>2.429307740969548</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.15729262039036</v>
+        <v>27.1572926203904</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>41.44238540067379</v>
+        <v>41.44238540067386</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>47.34319293925296</v>
+        <v>47.34319293925299</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>24.33399120906266</v>
+        <v>24.33399120906267</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.09862012989175</v>
+        <v>30.09862012989176</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.09861089407373314</v>
+        <v>0.09861089407372603</v>
       </c>
     </row>
     <row r="375">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>23.21550172727258</v>
+        <v>23.21550172727257</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1.100096115160984</v>
+        <v>1.100096115160991</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.90291201900584</v>
+        <v>23.90291201900586</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>33.24224567923871</v>
+        <v>33.24224567923872</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>43.08045434261001</v>
+        <v>43.08045434260997</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>11.74573004352517</v>
+        <v>11.74573004352516</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>39.21739252775534</v>
+        <v>39.21739252775529</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>40.24280278740439</v>
+        <v>40.24280278740437</v>
       </c>
     </row>
     <row r="387">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.349275055751395</v>
+        <v>8.349275055751423</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.92265420683143</v>
+        <v>30.92265420683142</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>11.15453699124316</v>
+        <v>11.15453699124317</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.44722857651006</v>
+        <v>45.44722857651004</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>56.3914363759315</v>
+        <v>56.39143637593146</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.11557380280595</v>
+        <v>56.11557380280593</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>9.129627527870348</v>
+        <v>9.129627527870333</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.12428063655913</v>
+        <v>41.12428063655904</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>8.604761962055129</v>
+        <v>8.604761962055143</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>43.6168552531249</v>
+        <v>43.61685525312487</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>56.29871613683898</v>
+        <v>56.29871613683896</v>
       </c>
     </row>
     <row r="399">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>6.674658228386935</v>
+        <v>6.674658228386921</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>39.06067555741458</v>
+        <v>39.0606755574145</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>7.088275515994471</v>
+        <v>7.088275515994475</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>40.68135594520739</v>
+        <v>40.68135594520733</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>50.37960000666332</v>
+        <v>50.37960000666331</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>51.91173365347176</v>
+        <v>51.91173365347171</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.031540226576396</v>
+        <v>6.031540226576347</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.61513936179529</v>
+        <v>34.61513936179527</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>31.79902739779758</v>
+        <v>31.79902739779757</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.79553631028036</v>
+        <v>33.79553631028038</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>7.283836684927344</v>
+        <v>7.283836684927358</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>32.76337464842261</v>
+        <v>32.7633746484226</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>37.19114003565429</v>
+        <v>37.19114003565424</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>41.51162324515266</v>
+        <v>41.51162324515261</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.23345246692362</v>
+        <v>51.23345246692374</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>53.16012930718733</v>
+        <v>53.16012930718742</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.36399114130917</v>
+        <v>10.36399114130922</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.12687400255719</v>
+        <v>48.12687400255723</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.51173045921878</v>
+        <v>62.51173045921882</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>63.93502933264666</v>
+        <v>63.93502933264664</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>48.68230389883875</v>
+        <v>48.68230389883871</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>51.68722572034301</v>
+        <v>51.68722572034296</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>8.587974407060486</v>
+        <v>8.587974407060496</v>
       </c>
     </row>
     <row r="423">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>62.44247242651606</v>
+        <v>62.44247242651601</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>64.11773671660576</v>
+        <v>64.11773671660566</v>
       </c>
     </row>
     <row r="426">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>42.30200411241815</v>
+        <v>42.3020041124181</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.849205428854486</v>
+        <v>9.849205428854471</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>45.79929947253666</v>
+        <v>45.79929947253657</v>
       </c>
     </row>
     <row r="430">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>4.56282876005956</v>
+        <v>4.562828760059528</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>12.19546698858553</v>
+        <v>12.1954669885855</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.20548055129708</v>
+        <v>10.20548055129707</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>11.42877988933983</v>
+        <v>11.4287798893398</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>6.082212734202059</v>
+        <v>6.082212734202038</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.03272459648688</v>
+        <v>15.03272459648684</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2.146479270468628</v>
+        <v>2.146479270468593</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.8016459604477</v>
+        <v>15.80164596044769</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.42561796244112</v>
+        <v>21.42561796244113</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.04592024510674</v>
+        <v>22.0459202451068</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>7.894989590007761</v>
+        <v>7.894989590007764</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.47819962256299</v>
+        <v>25.47819962256298</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-0.6774775764602339</v>
+        <v>-0.6774775764602694</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>13.48448297801398</v>
+        <v>13.48448297801401</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>20.06098040192862</v>
+        <v>20.06098040192865</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.15749801646088</v>
+        <v>21.15749801646092</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>4.479719233908085</v>
+        <v>4.479719233908096</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.00113693589813</v>
+        <v>22.00113693589807</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-2.177203056675644</v>
+        <v>-2.177203056675651</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>9.716908848755073</v>
+        <v>9.716908848755027</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.47856261178157</v>
+        <v>13.47856261178158</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.15722605864045</v>
+        <v>16.15722605864047</v>
       </c>
     </row>
     <row r="454">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.75669940751951</v>
+        <v>12.75669940751953</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>17.06245123931958</v>
+        <v>17.06245123931954</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.651099769717717</v>
+        <v>6.651099769717714</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.26371062492263</v>
+        <v>17.26371062492258</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.04845586733254</v>
+        <v>19.04845586733249</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.91653198317335</v>
+        <v>25.9165319831733</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.2565334643024</v>
+        <v>30.25653346430239</v>
       </c>
     </row>
     <row r="463">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.77561735292061</v>
+        <v>13.77561735292059</v>
       </c>
     </row>
     <row r="465">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>46.46738726938949</v>
+        <v>46.46738726938952</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>52.17367162505126</v>
+        <v>52.17367162505127</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.0567725134944</v>
+        <v>26.05677251349441</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.0674383820807</v>
+        <v>33.06743838208073</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>11.54896129302676</v>
+        <v>11.54896129302674</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.75843121736776</v>
+        <v>34.75843121736772</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.03489272515752</v>
+        <v>45.03489272515753</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>51.71044390109911</v>
+        <v>51.71044390109914</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>13.41890109267943</v>
+        <v>13.41890109267938</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21.37739482082262</v>
+        <v>21.37739482082259</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>8.353895637785374</v>
+        <v>8.35389563778536</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.19921615347953</v>
+        <v>27.19921615347948</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.56969688314773</v>
+        <v>32.56969688314769</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>42.16977219056677</v>
+        <v>42.16977219056672</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-1.896731186526058</v>
+        <v>-1.896731186526075</v>
       </c>
     </row>
     <row r="481">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>8.866553817634411</v>
+        <v>8.86655381763434</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>9.359838673623111</v>
+        <v>9.359838673623056</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.32483208104376</v>
+        <v>10.32483208104378</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.41547542431646</v>
+        <v>28.41547542431643</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-3.338602225317686</v>
+        <v>-3.338602225317707</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>17.56024267204443</v>
+        <v>17.5602426720444</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>21.64888018431622</v>
+        <v>21.64888018431619</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.26703444076546</v>
+        <v>21.26703444076549</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>9.755567903009107</v>
+        <v>9.755567903009053</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>37.55649852853647</v>
+        <v>37.55649852853646</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-4.829300460099027</v>
+        <v>-4.829300460099077</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>16.76233887542782</v>
+        <v>16.76233887542779</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>22.01804629413744</v>
+        <v>22.01804629413738</v>
       </c>
     </row>
     <row r="495">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>7.460073489517391</v>
+        <v>7.46007348951737</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.59240341692961</v>
+        <v>35.59240341692971</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-3.856636287407341</v>
+        <v>-3.856636287407351</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.93922438091823</v>
+        <v>15.93922438091826</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.70369109440043</v>
+        <v>18.70369109440046</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.36299372942684</v>
+        <v>20.36299372942678</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>8.107578414634158</v>
+        <v>8.107578414634141</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.90527818355688</v>
+        <v>31.9052781835568</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.05109524512416</v>
+        <v>31.05109524512421</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.08997333027899</v>
+        <v>33.08997333027894</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>10.52379521923417</v>
+        <v>10.52379521923413</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.24721863932972</v>
+        <v>32.24721863932976</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.03344645057913</v>
+        <v>35.03344645057908</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>39.48794415501197</v>
+        <v>39.48794415501193</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.85824079885233</v>
+        <v>47.85824079885234</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>49.97577253840802</v>
+        <v>49.97577253840804</v>
       </c>
     </row>
     <row r="512">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>60.56924744629475</v>
+        <v>60.56924744629482</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>62.32465275016814</v>
+        <v>62.32465275016821</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>45.27486675657836</v>
+        <v>45.27486675657831</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>48.44095022660056</v>
+        <v>48.44095022660058</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>12.16566472833104</v>
+        <v>12.16566472833103</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>47.83573333487095</v>
+        <v>47.83573333487092</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>60.13794532331573</v>
+        <v>60.13794532331571</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>62.23401213477338</v>
+        <v>62.23401213477337</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.91972778130714</v>
+        <v>36.91972778130709</v>
       </c>
     </row>
     <row r="523">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.82472990397639</v>
+        <v>44.82472990397633</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>52.91075414584706</v>
+        <v>52.91075414584702</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>58.06029192010797</v>
+        <v>58.06029192010796</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>6.856738269843177</v>
+        <v>6.856738269843191</v>
       </c>
     </row>
     <row r="529">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.46455981077529</v>
+        <v>15.46455981077526</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.57478684281316</v>
+        <v>16.57478684281313</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>4.272199243816136</v>
+        <v>4.272199243816139</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>11.57881877321355</v>
+        <v>11.57881877321354</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>4.316050512617334</v>
+        <v>4.316050512617391</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.37854559760319</v>
+        <v>19.37854559760328</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.24193661129001</v>
+        <v>26.24193661128995</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.92967129075253</v>
+        <v>26.92967129075248</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2.184306597506502</v>
+        <v>2.184306597506513</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>17.66393802848829</v>
+        <v>17.66393802848831</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1.994149302871467</v>
+        <v>1.994149302871453</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>17.67404949948043</v>
+        <v>17.67404949948047</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.5322277263018</v>
+        <v>25.53222772630177</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.65423696779368</v>
+        <v>26.65423696779367</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-0.8609660921002771</v>
+        <v>-0.8609660921002558</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.81927300504722</v>
+        <v>14.81927300504723</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.7475981163215231</v>
+        <v>0.7475981163215089</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.95256408184421</v>
+        <v>14.95256408184419</v>
       </c>
     </row>
     <row r="548">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.38509949691814</v>
+        <v>22.38509949691813</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-0.4681915965331065</v>
+        <v>-0.4681915965331314</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.47959183896107</v>
+        <v>11.47959183896103</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>9.885081365887578</v>
+        <v>9.885081365887556</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.71060499050498</v>
+        <v>13.71060499050497</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.173944592243874</v>
+        <v>7.173944592243885</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.79531487243922</v>
+        <v>19.79531487243919</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.75844505209333</v>
+        <v>20.75844505209329</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.00685191703152</v>
+        <v>26.00685191703153</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.13591826931869</v>
+        <v>23.13591826931865</v>
       </c>
     </row>
     <row r="559">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>10.63806376686677</v>
+        <v>10.63806376686678</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.26945518613379</v>
+        <v>34.26945518613372</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>44.58928102660791</v>
+        <v>44.58928102660792</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>48.03252540234914</v>
+        <v>48.03252540234915</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.57622759817536</v>
+        <v>19.57622759817529</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.73243611221678</v>
+        <v>25.73243611221675</v>
       </c>
     </row>
     <row r="566">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.3739422001228</v>
+        <v>33.37394220012281</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>43.61337997893891</v>
+        <v>43.61337997893889</v>
       </c>
     </row>
     <row r="569">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>11.5774906473523</v>
+        <v>11.57749064735228</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>18.23560129400954</v>
+        <v>18.23560129400951</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>7.920907664921621</v>
+        <v>7.920907664921579</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.79218128483838</v>
+        <v>29.79218128483836</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.37184491045381</v>
+        <v>35.37184491045382</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>41.76344060550772</v>
+        <v>41.76344060550769</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1.734461445370954</v>
+        <v>1.734461445370972</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>6.042981589414328</v>
+        <v>6.042981589414307</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>3.464941896341582</v>
+        <v>3.464941896341504</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>3.983982723842459</v>
+        <v>3.983982723842445</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>0.8056275671311219</v>
+        <v>0.8056275671311646</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>4.382075885816207</v>
+        <v>4.382075885816185</v>
       </c>
     </row>
     <row r="582">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.693835122517715</v>
+        <v>7.693835122517708</v>
       </c>
     </row>
     <row r="584">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.45124548660805</v>
+        <v>11.45124548660804</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-2.873066908951969</v>
+        <v>-2.873066908951952</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>7.700376971229055</v>
+        <v>7.700376971229058</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-3.14014055157886</v>
+        <v>-3.14014055157887</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>6.305327790200614</v>
+        <v>6.305327790200643</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>10.62451526460948</v>
+        <v>10.62451526460954</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.21750794406107</v>
+        <v>11.21750794406113</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-5.585454532008598</v>
+        <v>-5.585454532008619</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>5.152014369361687</v>
+        <v>5.152014369361698</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-3.08657806894778</v>
+        <v>-3.086578068947819</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>5.198008059152937</v>
+        <v>5.198008059152858</v>
       </c>
     </row>
     <row r="596">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>9.29458106052568</v>
+        <v>9.294581060525701</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-3.841310016206872</v>
+        <v>-3.841310016206887</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>3.747015525518275</v>
+        <v>3.747015525518247</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>3.639216700793224</v>
+        <v>3.639216700793181</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>5.177378727206108</v>
+        <v>5.177378727206083</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>6.111453692329274</v>
+        <v>6.111453692329288</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.3910526114808</v>
+        <v>14.39105261148081</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.29353030760915</v>
+        <v>15.29353030760924</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.02268868242603</v>
+        <v>19.02268868242604</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>12.81841218126962</v>
+        <v>12.81841218126961</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>15.23152317291776</v>
+        <v>15.23152317291775</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>8.814297604247759</v>
+        <v>8.814297604247766</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.5841307671642</v>
+        <v>26.58413076716424</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.95914497356157</v>
+        <v>35.95914497356161</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>37.92257866769337</v>
+        <v>37.92257866769334</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>9.539520385240449</v>
+        <v>9.539520385240463</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>13.05192893392877</v>
+        <v>13.05192893392878</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.663874068185606</v>
+        <v>6.663874068185631</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.67559458540259</v>
+        <v>25.67559458540264</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.94335199400174</v>
+        <v>34.94335199400172</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.32355523855918</v>
+        <v>37.32355523855921</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>4.877117012356827</v>
+        <v>4.877117012356855</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.816964467272808</v>
+        <v>8.816964467272836</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.678911801219943</v>
+        <v>6.678911801219936</v>
       </c>
     </row>
     <row r="621">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.51236346372861</v>
+        <v>28.51236346372864</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.212547624212</v>
+        <v>33.21254762421199</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>13.98990284796115</v>
+        <v>13.98990284796116</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.33285729524157</v>
+        <v>26.33285729524154</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.66572023650111</v>
+        <v>24.6657202365011</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.69019079393234</v>
+        <v>26.69019079393237</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>9.250278872499337</v>
+        <v>9.250278872499354</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.21138747792525</v>
+        <v>19.21138747792516</v>
       </c>
     </row>
     <row r="630">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.80036327307063</v>
+        <v>34.80036327307069</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>44.23668417298822</v>
+        <v>44.23668417298827</v>
       </c>
     </row>
     <row r="633">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.144286110915971</v>
+        <v>9.144286110916092</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.61504610923448</v>
+        <v>29.61504610923454</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>11.94060660730586</v>
+        <v>11.94060660730582</v>
       </c>
     </row>
     <row r="637">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>44.07925820969112</v>
+        <v>44.07925820969108</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>46.00503231721255</v>
+        <v>46.00503231721251</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>5.857728510255523</v>
+        <v>5.857728510255544</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.02466874882329</v>
+        <v>27.02466874882332</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>7.320335219908436</v>
+        <v>7.320335219908475</v>
       </c>
     </row>
     <row r="643">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.33379727424054</v>
+        <v>32.3337972742406</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.01519630838565</v>
+        <v>36.01519630838566</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>5.230070405936328</v>
+        <v>5.230070405936349</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.13777260931066</v>
+        <v>22.13777260931064</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>15.84341126954048</v>
+        <v>15.84341126954041</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>19.09409195616189</v>
+        <v>19.0940919561619</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.087682653000833</v>
+        <v>9.087682653000787</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.3865390026588</v>
+        <v>22.38653900265881</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.93183602767981</v>
+        <v>23.93183602767975</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.40394869729998</v>
+        <v>29.40394869730005</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.79785774471821</v>
+        <v>36.79785774471824</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.66279051703336</v>
+        <v>40.66279051703335</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>15.21816042047809</v>
+        <v>15.21816042047814</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.26202201860657</v>
+        <v>42.26202201860661</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>57.04597273030668</v>
+        <v>57.04597273030674</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>60.36681705389958</v>
+        <v>60.36681705389957</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.693784973398</v>
+        <v>33.69378497339799</v>
       </c>
     </row>
     <row r="661">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>12.97917309269784</v>
+        <v>12.97917309269779</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.02235946411984</v>
+        <v>42.02235946411989</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>57.03481095630369</v>
+        <v>57.03481095630372</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>61.11761764410474</v>
+        <v>61.11761764410478</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.72032747994715</v>
+        <v>21.72032747994716</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.76101646206869</v>
+        <v>28.7610164620686</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>11.2152733241086</v>
+        <v>11.21527332410862</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.29904362092877</v>
+        <v>36.29904362092879</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.37503646537101</v>
+        <v>44.37503646537095</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.09577251072247</v>
+        <v>52.09577251072241</v>
       </c>
     </row>
     <row r="672">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>35.9581360182687</v>
+        <v>35.95813601826869</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.33687173816279</v>
+        <v>35.3368717381628</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>37.15563816242103</v>
+        <v>37.15563816242098</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>10.76219675691411</v>
+        <v>10.76219675691413</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.46946893746685</v>
+        <v>26.46946893746684</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>14.57420055915157</v>
+        <v>14.57420055915163</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>40.47203758887643</v>
+        <v>40.47203758887645</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>48.65692654071498</v>
+        <v>48.65692654071501</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.65801622330946</v>
+        <v>49.65801622330947</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.47578048779113</v>
+        <v>10.47578048779114</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.55176758744797</v>
+        <v>35.551767587448</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>11.97297963798199</v>
+        <v>11.97297963798202</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.39549338795231</v>
+        <v>38.39549338795234</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>47.70213901284728</v>
+        <v>47.70213901284724</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>49.12487922373342</v>
+        <v>49.12487922373345</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>7.400218593533037</v>
+        <v>7.400218593533069</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.50883537571191</v>
+        <v>32.50883537571194</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>12.04484943460039</v>
+        <v>12.04484943460043</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>36.55137185094136</v>
+        <v>36.55137185094135</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.43171659024223</v>
+        <v>42.43171659024225</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.54852979589128</v>
+        <v>45.54852979589134</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>6.891702459730034</v>
+        <v>6.891702459730066</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.31338461936039</v>
+        <v>27.3133846193604</v>
       </c>
     </row>
     <row r="696">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.64446306409938</v>
+        <v>30.64446306409939</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>7.977840531080556</v>
+        <v>7.977840531080542</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.74723824668516</v>
+        <v>26.74723824668518</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.75643775185997</v>
+        <v>29.75643775185994</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.20387097034683</v>
+        <v>36.20387097034678</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>44.2191465773374</v>
+        <v>44.21914657733737</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>47.96772782677057</v>
+        <v>47.96772782677058</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11.26994996727241</v>
+        <v>11.26994996727247</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.26488077219931</v>
+        <v>42.26488077219929</v>
       </c>
     </row>
     <row r="706">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>58.63238556417109</v>
+        <v>58.63238556417112</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.46763296053969</v>
+        <v>40.46763296053967</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.54611988820179</v>
+        <v>45.54611988820177</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>8.727360581658637</v>
+        <v>8.727360581658676</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.89776503694916</v>
+        <v>40.89776503694915</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>53.12359014424125</v>
+        <v>53.12359014424131</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>57.73998080033405</v>
+        <v>57.73998080033408</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.04507003063188</v>
+        <v>30.04507003063186</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.52653598210188</v>
+        <v>36.52653598210182</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>8.976394768488067</v>
+        <v>8.976394768488074</v>
       </c>
     </row>
     <row r="717">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>52.38718308321296</v>
+        <v>52.38718308321293</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>11.40925418276302</v>
+        <v>11.40925418276303</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>32.32456689756697</v>
+        <v>32.324566897567</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.28023134273099</v>
+        <v>30.28023134273101</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.59091454178228</v>
+        <v>31.59091454178226</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>11.05356216322583</v>
+        <v>11.05356216322582</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.611669216126</v>
+        <v>28.61166921612594</v>
       </c>
     </row>
     <row r="726">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>39.59623878064456</v>
+        <v>39.59623878064455</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>49.05383381353218</v>
+        <v>49.05383381353226</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>49.51698309032238</v>
+        <v>49.51698309032251</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>9.718373339062172</v>
+        <v>9.718373339062241</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.58623833743231</v>
+        <v>38.58623833743233</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>7.603557591474967</v>
+        <v>7.603557591474996</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.02620489075007</v>
+        <v>38.02620489075011</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>49.15041670464103</v>
+        <v>49.15041670464102</v>
       </c>
     </row>
     <row r="735">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.72376936171401</v>
+        <v>35.72376936171403</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>6.086286701538668</v>
+        <v>6.086286701538654</v>
       </c>
     </row>
     <row r="739">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>41.18969246233551</v>
+        <v>41.18969246233544</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.92619162945491</v>
+        <v>43.92619162945483</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>7.309022822671327</v>
+        <v>7.30902282267132</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>32.35978843717593</v>
+        <v>32.35978843717596</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.04641780629273</v>
+        <v>28.04641780629266</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.32247678472974</v>
+        <v>31.32247678472979</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>6.642491355006037</v>
+        <v>6.642491355006012</v>
       </c>
     </row>
     <row r="747">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.8520761273403</v>
+        <v>30.85207612734026</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>36.7300719057143</v>
+        <v>36.73007190571429</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.88820732953538</v>
+        <v>48.88820732953528</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>52.57112064977237</v>
+        <v>52.57112064977231</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>9.747665795183901</v>
+        <v>9.747665795183911</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.14698966510522</v>
+        <v>44.14698966510521</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>61.39743152053255</v>
+        <v>61.39743152053249</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.68674011357611</v>
+        <v>64.68674011357602</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.34030642458773</v>
+        <v>45.34030642458767</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>50.55466877902504</v>
+        <v>50.55466877902499</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>7.046849404162025</v>
+        <v>7.046849404161989</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.45013347949206</v>
+        <v>43.45013347949205</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>60.82697105318546</v>
+        <v>60.82697105318542</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>64.80550084165615</v>
+        <v>64.80550084165617</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.80709008208611</v>
+        <v>34.80709008208612</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>41.78037606008399</v>
+        <v>41.78037606008392</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>8.360493659777003</v>
+        <v>8.360493659776985</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.58834393164384</v>
+        <v>40.58834393164381</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>51.68176442000474</v>
+        <v>51.68176442000475</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>59.57792786638394</v>
+        <v>59.57792786638399</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>15.05917758896784</v>
+        <v>15.05917758896782</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.07053333022456</v>
+        <v>32.0705333302245</v>
       </c>
     </row>
     <row r="770">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.44863058856168</v>
+        <v>32.44863058856161</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>16.29031171935885</v>
+        <v>16.29031171935886</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.05099366986773</v>
+        <v>30.05099366986767</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>14.60311207446722</v>
+        <v>14.60311207446719</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>39.85602812063915</v>
+        <v>39.85602812063916</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>49.91857212104206</v>
+        <v>49.91857212104203</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>50.20042964762334</v>
+        <v>50.20042964762339</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>15.03423202943524</v>
+        <v>15.03423202943526</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.24563111449917</v>
+        <v>39.24563111449923</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>12.63982662430432</v>
+        <v>12.63982662430434</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.07610694503795</v>
+        <v>39.07610694503791</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>50.40818046083317</v>
+        <v>50.40818046083321</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>51.21836595544839</v>
+        <v>51.2183659554484</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>11.93704198920572</v>
+        <v>11.93704198920574</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.94618163077455</v>
+        <v>36.94618163077457</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>11.12185861958325</v>
+        <v>11.1218586195832</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.14306793687146</v>
+        <v>35.1430679368715</v>
       </c>
     </row>
     <row r="788">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>44.6440154626024</v>
+        <v>44.64401546260236</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>13.34063924279144</v>
+        <v>13.34063924279146</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.36895097952453</v>
+        <v>34.36895097952451</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.23093841575072</v>
+        <v>30.23093841575076</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.06627335804369</v>
+        <v>34.06627335804366</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>11.08485045041946</v>
+        <v>11.08485045041953</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.06437678170774</v>
+        <v>27.06437678170773</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.9753043094796</v>
+        <v>32.97530430947955</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.58970990570453</v>
+        <v>38.58970990570458</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.69046034957533</v>
+        <v>49.6904603495754</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>54.18202306558478</v>
+        <v>54.18202306558467</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>15.19774219388476</v>
+        <v>15.19774219388477</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.50282080105401</v>
+        <v>44.50282080105409</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>62.99808830613179</v>
+        <v>62.99808830613185</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>66.48306608200788</v>
+        <v>66.48306608200789</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>46.82589154558291</v>
+        <v>46.82589154558283</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>52.75075803539816</v>
+        <v>52.75075803539811</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>13.23160006735763</v>
+        <v>13.23160006735762</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>44.47672062969344</v>
+        <v>44.47672062969346</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>63.06214946049496</v>
+        <v>63.06214946049491</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>67.25009992834926</v>
+        <v>67.25009992834934</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>37.53484987933574</v>
+        <v>37.53484987933572</v>
       </c>
     </row>
     <row r="811">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.76971673010686</v>
+        <v>13.7697167301069</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>41.24436934913747</v>
+        <v>41.24436934913746</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>53.71057980359116</v>
+        <v>53.71057980359107</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>61.44907609207999</v>
+        <v>61.44907609207982</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>8.895881189505278</v>
+        <v>8.895881189505268</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.23327566411237</v>
+        <v>29.23327566411239</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.20118501696467</v>
+        <v>27.20118501696471</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.11770609661039</v>
+        <v>29.11770609661037</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>7.314903649267645</v>
+        <v>7.314903649267698</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.72841177649179</v>
+        <v>24.7284117764918</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>9.764905067251089</v>
+        <v>9.764905067251114</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>39.03630647173741</v>
+        <v>39.03630647173743</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>47.06889654341262</v>
+        <v>47.06889654341265</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>47.79252226276812</v>
+        <v>47.79252226276816</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>8.247768819998399</v>
+        <v>8.247768819998427</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.02747642768514</v>
+        <v>37.02747642768507</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>7.448452093070372</v>
+        <v>7.448452093070397</v>
       </c>
     </row>
     <row r="829">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>47.24111783567278</v>
+        <v>47.24111783567288</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.42670260294186</v>
+        <v>48.42670260294193</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>5.346568545551225</v>
+        <v>5.346568545551197</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.4381431825411</v>
+        <v>34.43814318254112</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>5.298368856159229</v>
+        <v>5.298368856159225</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.84299812234297</v>
+        <v>31.84299812234303</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>38.4667622978067</v>
+        <v>38.46676229780671</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.96577092131967</v>
+        <v>41.96577092131972</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>4.068553213545396</v>
+        <v>4.068553213545407</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.51339654408277</v>
+        <v>27.51339654408273</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.52988157918072</v>
+        <v>23.52988157918061</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.70334220210837</v>
+        <v>25.70334220210834</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>5.33754354705027</v>
+        <v>5.337543547050291</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.66305919251879</v>
+        <v>23.66305919251878</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.62620963764718</v>
+        <v>25.62620963764719</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.42732850735587</v>
+        <v>31.42732850735586</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.7227432125883</v>
+        <v>44.72274321258832</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.8473155674197</v>
+        <v>46.84731556741971</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>10.13656536678202</v>
+        <v>10.13656536678204</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>43.33235749452864</v>
+        <v>43.33235749452865</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>55.46029070267899</v>
+        <v>55.46029070267911</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>58.47509421434435</v>
+        <v>58.47509421434442</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>41.65545411628786</v>
+        <v>41.65545411628782</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.24685510362612</v>
+        <v>45.24685510362605</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>7.663382450794984</v>
+        <v>7.663382450795002</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.4289729867145</v>
+        <v>42.42897298671448</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.55547421997716</v>
+        <v>54.55547421997726</v>
       </c>
     </row>
     <row r="857">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.10778286059574</v>
+        <v>29.10778286059575</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>34.76833147616735</v>
+        <v>34.76833147616724</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>6.246439624831666</v>
+        <v>6.246439624831677</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.1791278605355</v>
+        <v>35.17912786053553</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>42.46123689502484</v>
+        <v>42.46123689502478</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>50.48331101309513</v>
+        <v>50.48331101309517</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>6.423483024718763</v>
+        <v>6.423483024718735</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>15.66247551577935</v>
+        <v>15.66247551577933</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>15.19621253574683</v>
+        <v>15.19621253574681</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>16.2328978419601</v>
+        <v>16.23289784196011</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>8.772482918324084</v>
+        <v>8.772482918324027</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>19.26419225070105</v>
+        <v>19.26419225070099</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>4.807086969784006</v>
+        <v>4.80708696978401</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.54103164387072</v>
+        <v>20.54103164387075</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.97244607169581</v>
+        <v>27.97244607169585</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.46055168626894</v>
+        <v>28.46055168626899</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>10.32853043345744</v>
+        <v>10.32853043345749</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.3082958202051</v>
+        <v>30.30829582020516</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>2.135496313412663</v>
+        <v>2.135496313412695</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>18.65675143396923</v>
+        <v>18.65675143396924</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.08115525430217</v>
+        <v>27.08115525430222</v>
       </c>
     </row>
     <row r="879">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>7.279452792756988</v>
+        <v>7.279452792756953</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.62277282039666</v>
+        <v>27.62277282039667</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1.038149103828992</v>
+        <v>1.038149103828989</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>15.50052291105078</v>
+        <v>15.50052291105076</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.91104515629423</v>
+        <v>21.91104515629425</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.38371896679175</v>
+        <v>24.38371896679168</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>7.232546227322654</v>
+        <v>7.232546227322612</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.22898328811965</v>
+        <v>23.22898328811964</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>17.66239835264199</v>
+        <v>17.66239835264193</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>21.97321611687558</v>
+        <v>21.97321611687562</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>6.713546608340089</v>
+        <v>6.713546608340096</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>19.34725773586284</v>
+        <v>19.34725773586287</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.23331720967132</v>
+        <v>20.23331720967125</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>26.45327354209287</v>
+        <v>26.45327354209292</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.63656831061729</v>
+        <v>36.63656831061732</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>41.8968333642667</v>
+        <v>41.89683336426664</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>14.04263351887226</v>
+        <v>14.04263351887231</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>39.20341945977729</v>
+        <v>39.20341945977733</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.31216966409015</v>
+        <v>50.31216966409016</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>55.025644473112</v>
+        <v>55.02564447311203</v>
       </c>
     </row>
     <row r="900">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>40.04860864758873</v>
+        <v>40.04860864758869</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>11.67104244808758</v>
+        <v>11.67104244808759</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>38.45478160418476</v>
+        <v>38.45478160418472</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>49.3656275045292</v>
+        <v>49.36562750452919</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.93488420377357</v>
+        <v>54.93488420377353</v>
       </c>
     </row>
     <row r="906">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.28084024641021</v>
+        <v>32.28084024641024</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>9.238829145867555</v>
+        <v>9.23882914586753</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.6492820075676</v>
+        <v>31.64928200756763</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>37.31290090129932</v>
+        <v>37.31290090129928</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>46.20432966127026</v>
+        <v>46.20432966127025</v>
       </c>
     </row>
     <row r="912">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>23.09083062013391</v>
+        <v>23.09083062013389</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>22.14282251075771</v>
+        <v>22.14282251075772</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>23.35086645033441</v>
+        <v>23.35086645033436</v>
       </c>
     </row>
     <row r="916">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>22.00972480431957</v>
+        <v>22.00972480431962</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>8.406967820536998</v>
+        <v>8.406967820537051</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>30.95044900776894</v>
+        <v>30.95044900776904</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>40.18433505603652</v>
+        <v>40.1843350560366</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>40.84533273609723</v>
+        <v>40.84533273609733</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.058473926838364</v>
+        <v>9.058473926838449</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.36509721944297</v>
+        <v>31.36509721944298</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>6.745536769412016</v>
+        <v>6.745536769411981</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.50954879182221</v>
+        <v>30.50954879182224</v>
       </c>
     </row>
     <row r="926">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>42.10161436428574</v>
+        <v>42.10161436428567</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>6.181072022263962</v>
+        <v>6.181072022263997</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.30513467727929</v>
+        <v>29.30513467727934</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>4.990741330923321</v>
+        <v>4.990741330923395</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.30932731259531</v>
+        <v>26.30932731259532</v>
       </c>
     </row>
     <row r="932">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.48029080588396</v>
+        <v>35.4802908058839</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>7.494249064486308</v>
+        <v>7.494249064486333</v>
       </c>
     </row>
     <row r="935">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.21302194522953</v>
+        <v>25.21302194522952</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>4.539226807475796</v>
+        <v>4.539226807475792</v>
       </c>
     </row>
     <row r="939">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>22.21897499242591</v>
+        <v>22.21897499242588</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.67722025147853</v>
+        <v>28.67722025147845</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>39.33269176265461</v>
+        <v>39.33269176265455</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>45.15237498161349</v>
+        <v>45.15237498161352</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>9.165973254279177</v>
+        <v>9.165973254279198</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>36.64816969077581</v>
+        <v>36.64816969077583</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>52.39573685563659</v>
+        <v>52.3957368556367</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>56.95072896983379</v>
+        <v>56.95072896983397</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.65818415004298</v>
+        <v>36.65818415004307</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>43.93999157297547</v>
+        <v>43.93999157297549</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>7.423327368587231</v>
+        <v>7.423327368587209</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.88984998744338</v>
+        <v>36.88984998744341</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>52.70393561612882</v>
+        <v>52.70393561612885</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>57.98907915509122</v>
+        <v>57.98907915509129</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>27.64572250766461</v>
+        <v>27.64572250766464</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>36.29985543829436</v>
+        <v>36.29985543829439</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>7.488330088435983</v>
+        <v>7.488330088436047</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>33.06389708488602</v>
+        <v>33.06389708488605</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>42.91459087994326</v>
+        <v>42.91459087994325</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>51.70358618283342</v>
+        <v>51.7035861828334</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>14.61262020031589</v>
+        <v>14.6126202003159</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.72549104171539</v>
+        <v>36.72549104171529</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.86044391574411</v>
+        <v>38.86044391574405</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>39.18243639458657</v>
+        <v>39.1824363945865</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>11.24016586981061</v>
+        <v>11.24016586981062</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.49679205864874</v>
+        <v>29.49679205864868</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>12.4210019678138</v>
+        <v>12.42100196781378</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>41.40840204465222</v>
+        <v>41.40840204465218</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>53.66747216545573</v>
+        <v>53.66747216545581</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>53.10047739000121</v>
+        <v>53.10047739000123</v>
       </c>
     </row>
     <row r="970">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>38.57639093513426</v>
+        <v>38.57639093513421</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>9.924070940897913</v>
+        <v>9.92407094089792</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>39.77676645032338</v>
+        <v>39.77676645032337</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>53.60703600298447</v>
+        <v>53.6070360029844</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>53.35713939678993</v>
+        <v>53.35713939678991</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>8.685535290797663</v>
+        <v>8.685535290797667</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.76696484323173</v>
+        <v>36.76696484323164</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>8.70945462972006</v>
+        <v>8.709454629720078</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>37.03515462727577</v>
+        <v>37.03515462727572</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>47.54282917614509</v>
+        <v>47.54282917614501</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>48.57638569536191</v>
+        <v>48.57638569536187</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>9.123875799552547</v>
+        <v>9.12387579955255</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.83934180026317</v>
+        <v>33.83934180026313</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>31.84760441925461</v>
+        <v>31.84760441925459</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>33.68878390018509</v>
+        <v>33.68878390018503</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>7.658368927654546</v>
+        <v>7.658368927654564</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.4064193534336</v>
+        <v>28.40641935343357</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>34.14722823407769</v>
+        <v>34.14722823407764</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>38.48830049945302</v>
+        <v>38.488300499453</v>
       </c>
     </row>
     <row r="990">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>52.06169998210798</v>
+        <v>52.0616999821079</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>12.00982886448577</v>
+        <v>12.00982886448579</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>45.32365979680166</v>
+        <v>45.32365979680164</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>61.56318522170564</v>
+        <v>61.56318522170565</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>63.2046351943146</v>
+        <v>63.20463519431465</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>47.76613686456594</v>
+        <v>47.7661368645659</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>50.86635567676966</v>
+        <v>50.86635567676963</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>10.62144579013838</v>
+        <v>10.62144579013836</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>45.61377404293489</v>
+        <v>45.61377404293485</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>61.76068109499289</v>
+        <v>61.76068109499295</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>63.80272288446687</v>
+        <v>63.80272288446682</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>38.84159555707008</v>
+        <v>38.84159555707004</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>43.03846715557277</v>
+        <v>43.0384671555728</v>
       </c>
     </row>
     <row r="1004">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>41.9769312085938</v>
+        <v>41.97693120859377</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>52.8363482772584</v>
+        <v>52.83634827725837</v>
       </c>
     </row>
     <row r="1007">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>6.971419727696631</v>
+        <v>6.971419727696617</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>27.18466545503181</v>
+        <v>27.18466545503178</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>26.70238595691775</v>
+        <v>26.70238595691774</v>
       </c>
     </row>
     <row r="1011">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>7.211932044148032</v>
+        <v>7.211932044148089</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>24.59139059142363</v>
+        <v>24.5913905914236</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>8.923415378617968</v>
+        <v>8.923415378617939</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>38.04924971294707</v>
+        <v>38.04924971294711</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>46.93082624243556</v>
+        <v>46.93082624243555</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>47.29658539978206</v>
+        <v>47.29658539978203</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>8.027571756974982</v>
+        <v>8.027571756975011</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>36.66464719113441</v>
+        <v>36.6646471911345</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>7.058327538049415</v>
+        <v>7.05832753804939</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>36.99013763790248</v>
+        <v>36.99013763790251</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>47.45344180126347</v>
+        <v>47.45344180126345</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>48.31973928819856</v>
+        <v>48.31973928819858</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>5.338230442979533</v>
+        <v>5.338230442979562</v>
       </c>
     </row>
     <row r="1025">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>4.292110658175083</v>
+        <v>4.292110658175041</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>30.83329490819268</v>
+        <v>30.83329490819263</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>38.83792549660049</v>
+        <v>38.83792549660051</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>41.9558927439426</v>
+        <v>41.95589274394263</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>4.275862556492211</v>
+        <v>4.275862556492207</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>27.76212794180247</v>
+        <v>27.76212794180246</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>24.07689901417616</v>
+        <v>24.0768990141761</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>26.63298544566068</v>
+        <v>26.63298544566074</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>4.612048195381639</v>
+        <v>4.61204819538165</v>
       </c>
     </row>
     <row r="1035">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>24.47460589935282</v>
+        <v>24.4746058993528</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>30.45517710439952</v>
+        <v>30.45517710439954</v>
       </c>
     </row>
     <row r="1038">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>41.87521404730607</v>
+        <v>41.87521404730613</v>
       </c>
     </row>
     <row r="1042">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>56.959785646393</v>
+        <v>56.95978564639294</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>41.63137567466899</v>
+        <v>41.63137567466902</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>45.58187071712651</v>
+        <v>45.58187071712648</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>6.978761724521956</v>
+        <v>6.978761724521959</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>41.14722745108246</v>
+        <v>41.14722745108247</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>52.87754650489664</v>
+        <v>52.87754650489666</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>56.92530048448991</v>
+        <v>56.9253004844899</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.84823159274787</v>
+        <v>29.84823159274783</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.8215686586849</v>
+        <v>35.82156865868492</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>5.620788889676977</v>
+        <v>5.62078888967703</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>33.97772208888568</v>
+        <v>33.97772208888567</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>41.17351356109289</v>
+        <v>41.17351356109288</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>49.48504699667674</v>
+        <v>49.48504699667672</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.596</v>
+        <v>16.999</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.667</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.373</v>
+        <v>17.275</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.905</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.472</v>
+        <v>2.169</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.405008038066242</v>
+        <v>16.38347364763928</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.05520923244324</v>
+        <v>18.98425947862648</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.0122268468659</v>
+        <v>17.02196095077034</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17.16733298998905</v>
+        <v>17.33117991266305</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.41383950661196</v>
+        <v>23.89366986816158</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.75253468256946</v>
+        <v>29.1137763214844</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.215285899882264</v>
+        <v>15.03996635396176</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.81727223402453</v>
+        <v>21.64258497571746</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.43262007679374</v>
+        <v>26.13328520435169</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.97120489322347</v>
+        <v>26.06944329938444</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>11.441615912774</v>
+        <v>23.2589077943583</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.71670317617077</v>
+        <v>38.539188503852</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2374757812086656</v>
+        <v>11.07522065106024</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.97655797645145</v>
+        <v>16.71902690989545</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.90693312173989</v>
+        <v>22.58889983601591</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>33.00329722258409</v>
+        <v>23.2138486913884</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.506050098482206</v>
+        <v>20.37322394785986</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.45368249712605</v>
+        <v>31.68124225002951</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.387262262682793</v>
+        <v>10.60529894552607</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.96565564490009</v>
+        <v>16.26351548227142</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.88470787926289</v>
+        <v>20.33459700854343</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.56350597225959</v>
+        <v>21.18319032946491</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8.289821046046725</v>
+        <v>18.86449976055157</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.66014805861333</v>
+        <v>28.35999653702133</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.45992091092618</v>
+        <v>25.63581722375593</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.02606126692824</v>
+        <v>27.60775246199209</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.697206585423341</v>
+        <v>24.95228646080908</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.79167313391145</v>
+        <v>29.2240437076596</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.74713760371186</v>
+        <v>24.86013759660773</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>34.11822646486482</v>
+        <v>27.12769583842856</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>43.6666519895695</v>
+        <v>43.68579891675409</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.13070019696178</v>
+        <v>46.87916466311022</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>13.72446369700971</v>
+        <v>29.50480807980688</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.93441061418747</v>
+        <v>47.12823323686202</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>59.7627871074092</v>
+        <v>55.79654597094363</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>64.24555000170714</v>
+        <v>57.77060401731003</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>39.66522635810316</v>
+        <v>33.06722369689076</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.77367725329353</v>
+        <v>40.49176807173198</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>11.02844474328667</v>
+        <v>24.04553152806577</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.22920883702285</v>
+        <v>41.45034148219401</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>59.09289627950621</v>
+        <v>48.9315826816086</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>64.43090456897392</v>
+        <v>53.08773858527509</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.32858487924661</v>
+        <v>28.20127973459872</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>37.93642614379564</v>
+        <v>36.34196803229919</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10.96755786746847</v>
+        <v>25.94705263517373</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>37.96892773571486</v>
+        <v>43.36741527855879</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>48.51644764554732</v>
+        <v>47.47819646192097</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>57.42628370267526</v>
+        <v>52.11060850012586</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11.73156909880338</v>
+        <v>21.93322918307673</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>37.03474996077507</v>
+        <v>39.28940431836781</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.44152287233831</v>
+        <v>32.39118653790305</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.15349637433164</v>
+        <v>35.00437159383034</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10.17580989274522</v>
+        <v>23.88090270409029</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.44439840013427</v>
+        <v>33.95498044106758</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>9.608763130359858</v>
+        <v>22.49248534711532</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.08976205451542</v>
+        <v>43.56809581583461</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.03600656665597</v>
+        <v>43.08319778937643</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>49.68561131201432</v>
+        <v>43.21240718119843</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>9.433539207226449</v>
+        <v>22.89677017408661</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.93165405196679</v>
+        <v>43.20216925120745</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6.986686512137592</v>
+        <v>20.96274921246453</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.01273501842272</v>
+        <v>40.49465670591489</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>48.48497498532416</v>
+        <v>43.42610998668781</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>49.53940318676801</v>
+        <v>43.50563178892075</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6.165752815882747</v>
+        <v>20.91783198622101</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.79458616994594</v>
+        <v>37.0200937533608</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.286533900096618</v>
+        <v>20.76874321856752</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.33196682520735</v>
+        <v>41.38810609115288</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.5680133666304</v>
+        <v>41.3497220472365</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.59819784853129</v>
+        <v>43.04645633758226</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6.196633702149274</v>
+        <v>21.06157259261845</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.94455381051452</v>
+        <v>33.58446557986323</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.51116872388641</v>
+        <v>29.34100047138397</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.51377550836028</v>
+        <v>30.63075683397093</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>7.786061001602317</v>
+        <v>22.80777661508968</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.14614783409606</v>
+        <v>33.57257656276981</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.15192304145186</v>
+        <v>32.52811670203227</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.67237770228552</v>
+        <v>37.93296435633088</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>49.92766869364914</v>
+        <v>46.02301179392955</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>54.23098274660889</v>
+        <v>48.02149483027095</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10.54784754663876</v>
+        <v>24.49780520252175</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>48.28092100229594</v>
+        <v>50.26665971860412</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>61.57831876521833</v>
+        <v>55.91932685529449</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>65.11015607966382</v>
+        <v>56.14763052189907</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>46.15947891923267</v>
+        <v>39.71908243454131</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>51.78232159295619</v>
+        <v>44.32874615724707</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7.906525437133208</v>
+        <v>22.07930988496599</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>47.03211534315041</v>
+        <v>45.47089408786654</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>60.34512911544239</v>
+        <v>50.66728385491054</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>64.35377246512097</v>
+        <v>51.94826840627606</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.4963742441421</v>
+        <v>32.90757229796195</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.63897045251787</v>
+        <v>39.68312412796087</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>9.029921029824056</v>
+        <v>23.29702409963968</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>43.71448271711814</v>
+        <v>42.00539851552618</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>52.08702780182665</v>
+        <v>46.98364259762147</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>59.87199029827518</v>
+        <v>52.15678836259097</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.01026932230139</v>
+        <v>20.51587482457926</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.2001779743395</v>
+        <v>34.22947580919868</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.31610406595259</v>
+        <v>29.28399461252774</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.10443363314598</v>
+        <v>29.89460156828422</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>12.30163865846077</v>
+        <v>24.90080125990727</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.24738711071657</v>
+        <v>35.71218573111448</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.719104335417894</v>
+        <v>23.92581485073159</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.70335399558285</v>
+        <v>44.48029882549577</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>48.29654124194086</v>
+        <v>48.02742057882419</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>47.97400255265712</v>
+        <v>47.30225803942946</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>12.56840405576452</v>
+        <v>24.78616423648904</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.24132510415602</v>
+        <v>45.16139306370241</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.356915705624598</v>
+        <v>21.12625391909675</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.11837320603023</v>
+        <v>42.52254092736965</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>48.19491362989385</v>
+        <v>44.377331251197</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>48.24184498825691</v>
+        <v>43.8703230593917</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>9.796051622825155</v>
+        <v>23.73971864701576</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.81935093675278</v>
+        <v>43.57890305489613</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6.580135791398469</v>
+        <v>19.7626746817745</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.06556906450849</v>
+        <v>42.06079231303315</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>42.18392983678721</v>
+        <v>45.21509601840516</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>44.15710940594742</v>
+        <v>45.72534107887088</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>9.628559137338202</v>
+        <v>21.6807073263404</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.79945784141976</v>
+        <v>40.81241244184334</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.58364663819003</v>
+        <v>32.68108803608797</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.83728668389474</v>
+        <v>33.47002139454673</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>9.087288176925885</v>
+        <v>24.16424444739835</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.55927907311975</v>
+        <v>34.34044368668342</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>37.81252721319056</v>
+        <v>34.46212914827099</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.67356607244605</v>
+        <v>39.11058719872143</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>55.86885639536529</v>
+        <v>52.76884246029945</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>58.13126129427866</v>
+        <v>53.78322705181559</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>12.59490463196962</v>
+        <v>25.54913469910502</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.94767844213403</v>
+        <v>48.50416848980593</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>65.67766424065843</v>
+        <v>58.94860174238305</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>67.51633292879502</v>
+        <v>59.29883346397143</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>52.88146223155649</v>
+        <v>48.97729657711508</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>56.32286896392184</v>
+        <v>50.53073224906209</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>10.39101364427212</v>
+        <v>23.53522786651982</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>50.35049690834197</v>
+        <v>47.37196199189143</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>65.10393494208078</v>
+        <v>55.31227650914619</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>67.31955379206114</v>
+        <v>55.62008310357267</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.87102443695579</v>
+        <v>40.50459683699384</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>46.76116862631136</v>
+        <v>43.05013405030107</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.2797984690004</v>
+        <v>24.36116344853076</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>46.76383413719071</v>
+        <v>48.78425658937422</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>56.59807373584023</v>
+        <v>53.54400100251696</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>62.3064132587858</v>
+        <v>54.32449656051122</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>6.601370589067319</v>
+        <v>17.93011747840786</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.74399878812484</v>
+        <v>18.2269704804669</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16.74048266935948</v>
+        <v>26.90515113113909</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>17.71115206022802</v>
+        <v>27.22793225478888</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13.03752980052619</v>
+        <v>25.27072084899537</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.34545073289141</v>
+        <v>28.32694717206829</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4.619910041882139</v>
+        <v>17.84510536418072</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.42414258360558</v>
+        <v>23.26222300384069</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.10699673995713</v>
+        <v>37.23274746044763</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>32.60860722988853</v>
+        <v>37.19709079032796</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.79248109933623</v>
+        <v>25.1969811117444</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.54736986745063</v>
+        <v>40.34472186004363</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1.850493404565572</v>
+        <v>14.6835115746544</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.74461572756333</v>
+        <v>19.67592789400235</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.49999666060293</v>
+        <v>34.02162601435635</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.55322808420645</v>
+        <v>34.43458991734421</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.16917399444014</v>
+        <v>20.15517487153711</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.61559966112987</v>
+        <v>31.18569346970735</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.8269733314450214</v>
+        <v>14.7205198364958</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>17.4291495214115</v>
+        <v>19.40547268389379</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>24.38869312273862</v>
+        <v>32.70879187168739</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.82710480529624</v>
+        <v>33.36285860312408</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>9.367497253749715</v>
+        <v>17.36647566964349</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.51341305364276</v>
+        <v>25.73833730224922</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.59084043046213</v>
+        <v>20.77665409734733</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.42033692744254</v>
+        <v>22.01929031656297</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>8.91558415728327</v>
+        <v>19.05756150864381</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.62652762883379</v>
+        <v>23.54041996302729</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24.38724362298371</v>
+        <v>21.07582787108775</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>30.92162184617872</v>
+        <v>22.82903574433991</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>39.96975631360294</v>
+        <v>44.55792832409422</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.83301379795947</v>
+        <v>48.39677487335637</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>15.4261879730445</v>
+        <v>30.22228091378949</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>41.23444196640082</v>
+        <v>47.71424211667942</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.80850291626098</v>
+        <v>55.63860447936462</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>60.80531011537656</v>
+        <v>58.39281348912085</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>36.31750773478537</v>
+        <v>33.49560051072966</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>43.68355017933018</v>
+        <v>41.3067283420876</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>13.03756295740039</v>
+        <v>27.76410105407464</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>40.67802493157925</v>
+        <v>41.26081376096514</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>55.20906170092032</v>
+        <v>46.38791768787812</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>61.00808209251088</v>
+        <v>52.66767600810395</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.37221847707387</v>
+        <v>23.52839601438116</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.90103512294267</v>
+        <v>32.12696507318829</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>11.80571638273711</v>
+        <v>24.98641130178584</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.69368074097487</v>
+        <v>37.79867160667692</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.64471663400157</v>
+        <v>41.44034485160213</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>53.55019811913253</v>
+        <v>47.38188067861138</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.53007326964119</v>
+        <v>15.15443213607942</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.36988709961719</v>
+        <v>27.0925893707875</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.79585094854833</v>
+        <v>24.23794146894265</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.81598226070191</v>
+        <v>24.326162537564</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>17.4867433862835</v>
+        <v>22.80780827179722</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.92091837466304</v>
+        <v>33.26358013463322</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.89321909002482</v>
+        <v>22.42366113815411</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>40.17606765844491</v>
+        <v>44.49279926376816</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>48.76951336563522</v>
+        <v>46.92758357579491</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>49.22942400967271</v>
+        <v>46.66536413133039</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>17.22356739741095</v>
+        <v>26.2364821109046</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.5954722595322</v>
+        <v>47.49931757531404</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>10.79490737387371</v>
+        <v>18.3471729594812</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>39.1741125299033</v>
+        <v>39.21877348864508</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>49.16790746462732</v>
+        <v>47.57967844989947</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>50.14969331793585</v>
+        <v>48.55036025235809</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13.94855805528326</v>
+        <v>24.66875702313856</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.05867093238295</v>
+        <v>45.05522402444549</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>9.393737826250407</v>
+        <v>22.31477627587508</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.33149348983763</v>
+        <v>46.18854062651883</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.50297843876008</v>
+        <v>50.58596377908682</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.93478536147636</v>
+        <v>50.66236769733175</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>14.86106487752562</v>
+        <v>23.97293793249349</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>39.71298339188536</v>
+        <v>44.7780897669534</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.43203346911832</v>
+        <v>34.80850141889864</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.29663846353097</v>
+        <v>35.55493294240355</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>11.27175585195005</v>
+        <v>24.17869004226976</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.29975192855365</v>
+        <v>33.25138113952073</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.02002161443711</v>
+        <v>33.35229785374261</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>41.5907845358188</v>
+        <v>36.9754161957235</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>59.32103003284996</v>
+        <v>57.75210186461918</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>62.76785298989674</v>
+        <v>58.63859513637629</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>15.05515892642865</v>
+        <v>27.77985881266</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.83850095204355</v>
+        <v>49.91801646099712</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>65.75576604813963</v>
+        <v>61.79653215939037</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>69.15016535904971</v>
+        <v>61.83531999365452</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>56.16396272056313</v>
+        <v>54.58434263226632</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>12.63822999239019</v>
+        <v>25.85713871695715</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>47.27279983237802</v>
+        <v>45.77143096365464</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>65.29819507190834</v>
+        <v>56.72811730944976</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>69.36277969192835</v>
+        <v>57.97993214636847</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.26415759600775</v>
+        <v>48.59600956432247</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>52.53274977593165</v>
+        <v>49.98401516142108</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>13.85386553044732</v>
+        <v>27.85972341733272</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.64100455562858</v>
+        <v>50.88322563008212</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>57.04853142987303</v>
+        <v>59.05362271091881</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>64.51187742604118</v>
+        <v>59.60741424068871</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.388755194624514</v>
+        <v>18.44934001592203</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.59298464627096</v>
+        <v>36.04159807479228</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>32.07791951038522</v>
+        <v>27.09240205199787</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.69084946338936</v>
+        <v>27.666064496547</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.41135407426805</v>
+        <v>23.64579521023805</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>38.65746711392563</v>
+        <v>38.0356525127881</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>9.46597872845496</v>
+        <v>22.25041126728891</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>40.81056846071944</v>
+        <v>43.63153857816744</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>46.94961693213633</v>
+        <v>44.61487463628436</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>46.77666149006235</v>
+        <v>44.19653809929741</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>14.18789227445882</v>
+        <v>26.12716839824347</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>48.5932544599285</v>
+        <v>48.79607440324503</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>7.855493824617238</v>
+        <v>16.33947258522002</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>39.73589307904113</v>
+        <v>36.77201432086596</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>47.52188531372761</v>
+        <v>47.12421979602978</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>47.61303238998386</v>
+        <v>46.68333420169625</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>11.97503982755344</v>
+        <v>23.70030757060749</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.73415145624763</v>
+        <v>46.95708994448864</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.119031454186501</v>
+        <v>17.76876565484016</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.91975470596702</v>
+        <v>42.83282987795626</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>43.72312959356749</v>
+        <v>50.91550933677117</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>45.16534570878389</v>
+        <v>51.27223718812753</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>12.15267162043004</v>
+        <v>23.92307889669567</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43.3460503160715</v>
+        <v>45.21854713552236</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>41.01186376257785</v>
+        <v>37.13283570169799</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>43.14725292809361</v>
+        <v>38.63505801853978</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>10.505547940444</v>
+        <v>24.32278350439663</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.82767676548163</v>
+        <v>36.43100494698808</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>40.09914493443252</v>
+        <v>35.75982389609693</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>43.87990061885814</v>
+        <v>39.68986141137901</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>58.87457760980924</v>
+        <v>54.141844262929</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>60.97423143772286</v>
+        <v>55.25821434229793</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.51050705544199</v>
+        <v>26.45897975957149</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>63.7365229720354</v>
+        <v>55.42873501974981</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>64.91598220930923</v>
+        <v>55.89658305205209</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>56.47458343641858</v>
+        <v>49.19660977232844</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>59.5145569047519</v>
+        <v>50.96033098905035</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.74561007244743</v>
+        <v>25.22865830114099</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>50.86403763337096</v>
+        <v>47.96878227839549</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>63.42577389632646</v>
+        <v>53.75243813918699</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>64.83646539836964</v>
+        <v>53.93376866664934</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>47.83390891577427</v>
+        <v>42.39083735207924</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>52.1221498329792</v>
+        <v>45.49474544358591</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.19178475486534</v>
+        <v>26.37128438795201</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>49.33353295414467</v>
+        <v>50.46471050406717</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>57.63300404505163</v>
+        <v>52.24474953776378</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>61.75368606380763</v>
+        <v>53.37830904663111</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>2.941787111675463</v>
+        <v>15.56585796799373</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>12.81286262429041</v>
+        <v>17.86726369546042</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>15.94005606991889</v>
+        <v>18.32110553452235</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.27604683863444</v>
+        <v>18.42981407620231</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>9.991323719635023</v>
+        <v>22.00277873108139</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>23.70846752558622</v>
+        <v>29.09675743831764</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-0.272653059847844</v>
+        <v>12.3225103179898</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>15.31476661656469</v>
+        <v>17.80393727027688</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.08131893391588</v>
+        <v>26.0365007572433</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.73982803777115</v>
+        <v>25.89981777448542</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>10.89708860476712</v>
+        <v>20.53435167374713</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.51224397659787</v>
+        <v>35.96428580394928</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-3.408520673175801</v>
+        <v>7.676780721365414</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>12.87393821837658</v>
+        <v>12.61732172237207</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.83664606982607</v>
+        <v>22.22759356251119</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.83320759754498</v>
+        <v>22.31293937740379</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>7.90289749166984</v>
+        <v>19.38252502777057</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>30.72696650467366</v>
+        <v>30.68301772128388</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-4.597308696074734</v>
+        <v>7.50365961058959</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>10.30049558953831</v>
+        <v>12.19316360196022</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20.32289767696754</v>
+        <v>18.54534420899021</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>21.65531013769172</v>
+        <v>19.13411065123954</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>7.272004192554469</v>
+        <v>18.63706762108287</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.18308265764653</v>
+        <v>29.14414339595433</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>23.83727970187357</v>
+        <v>25.66474842949179</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.50934950701017</v>
+        <v>26.62056485147659</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>7.115990243491808</v>
+        <v>21.89736094237844</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>24.71824352605774</v>
+        <v>27.15990977405468</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.56906303530393</v>
+        <v>26.78436349857543</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>34.37451426107273</v>
+        <v>29.04692948254227</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>41.48985693533393</v>
+        <v>39.41508975572459</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>45.906534872835</v>
+        <v>40.62885547331653</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>13.28109657506044</v>
+        <v>25.19746476009867</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.92825961826946</v>
+        <v>43.9065384065662</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>57.43703860131082</v>
+        <v>51.83320800000237</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>60.54796532129684</v>
+        <v>52.67497908700707</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.01789176228489</v>
+        <v>33.55991880913121</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>43.75163429410736</v>
+        <v>38.11152310205896</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>11.72161907919252</v>
+        <v>22.78467948247525</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.89554462135767</v>
+        <v>41.39671898551261</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>57.28731563317108</v>
+        <v>48.11567038273823</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>60.9926982251326</v>
+        <v>50.41252333515898</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.45030465843326</v>
+        <v>27.68828709627195</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>35.09674581384105</v>
+        <v>32.27245959766485</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>11.39458208300428</v>
+        <v>23.86116811611267</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>38.95070745164379</v>
+        <v>43.77307293369556</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>48.52992252762114</v>
+        <v>47.30342446349846</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>54.79883114512678</v>
+        <v>49.45462725464147</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1.23867934845196</v>
+        <v>11.22083210142795</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.84772650263582</v>
+        <v>13.41476842850126</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>10.03401822694718</v>
+        <v>14.01504666400297</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>11.19123917818336</v>
+        <v>14.1793456312052</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2.809985801156774</v>
+        <v>18.78129992195759</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.96030393099893</v>
+        <v>19.22515290309541</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-0.9913999907891977</v>
+        <v>12.86076864515733</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>17.1255918875683</v>
+        <v>17.12309585983752</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.42493045074145</v>
+        <v>20.51729507857303</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.09733754449373</v>
+        <v>20.21533160724869</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-0.9889984230168665</v>
+        <v>8.708581571705846</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.23011308857749</v>
+        <v>13.79364084026223</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-3.544738875295714</v>
+        <v>12.2508065067533</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>15.63944238155351</v>
+        <v>16.51386205377027</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>24.16405293206474</v>
+        <v>17.29374685087211</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.35752780677337</v>
+        <v>17.22125183689174</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-4.527497899204871</v>
+        <v>8.867577525839735</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>15.35237178096063</v>
+        <v>11.14940630874359</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-4.903734210247947</v>
+        <v>8.143667678082782</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>12.10499932408274</v>
+        <v>10.99316083537068</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>17.58761357499238</v>
+        <v>12.31463642030822</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>20.18581595836734</v>
+        <v>12.80398767904737</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-2.705704437637483</v>
+        <v>9.431950926651833</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.07251776286553</v>
+        <v>11.82404624630068</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>12.47904077470549</v>
+        <v>17.1650227765964</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.03255912925754</v>
+        <v>18.24767106792559</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-0.2326758266820903</v>
+        <v>12.54955474977489</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.48182303408481</v>
+        <v>13.43614166604633</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15.12627119146597</v>
+        <v>19.46319431532345</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.64667683205175</v>
+        <v>22.1938639392885</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.87999861034636</v>
+        <v>22.04003785850465</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>32.21119216994087</v>
+        <v>25.14713050791231</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>2.429307740969548</v>
+        <v>15.99910435362317</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.1572926203904</v>
+        <v>24.51432395959316</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>41.44238540067386</v>
+        <v>31.31347208161625</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>47.34319293925299</v>
+        <v>38.35447196129716</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>24.33399120906267</v>
+        <v>17.0512604423109</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>30.09862012989176</v>
+        <v>22.47295083083791</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.09861089407372603</v>
+        <v>15.51224673584053</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.6466844462336</v>
+        <v>20.92126573933995</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>40.80708829789113</v>
+        <v>27.16647069292556</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>47.44650694310236</v>
+        <v>37.09610539239477</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>16.20783833159911</v>
+        <v>12.40357764709092</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>23.21550172727257</v>
+        <v>14.31526007209723</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1.100096115160991</v>
+        <v>17.41736552187443</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.90291201900586</v>
+        <v>21.9345288216651</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>33.24224567923872</v>
+        <v>24.6443996372312</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>43.08045434260997</v>
+        <v>35.98796510700338</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>11.74573004352516</v>
+        <v>22.1895815024549</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>39.21739252775529</v>
+        <v>37.16506469833822</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>40.24280278740437</v>
+        <v>35.87046301018091</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>40.95229048905792</v>
+        <v>36.23907517327242</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>8.349275055751423</v>
+        <v>21.51074889579267</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.92265420683142</v>
+        <v>30.75941621463691</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>11.15453699124317</v>
+        <v>24.50764703330209</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.44722857651004</v>
+        <v>42.58770517508965</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>56.39143637593146</v>
+        <v>51.57468231827627</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.11557380280593</v>
+        <v>51.34939095212674</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>9.129627527870333</v>
+        <v>21.9567084742193</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.12428063655904</v>
+        <v>38.79506234949165</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>8.604761962055143</v>
+        <v>19.18708437338613</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>43.61685525312487</v>
+        <v>39.75366113787274</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>56.29871613683896</v>
+        <v>47.44359313712144</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>56.30773494946519</v>
+        <v>48.24744155142298</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>6.674658228386921</v>
+        <v>21.01259038784595</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>39.0606755574145</v>
+        <v>37.37974853175315</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>7.088275515994475</v>
+        <v>15.98180791423894</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>40.68135594520733</v>
+        <v>36.52434797953302</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>50.37960000666331</v>
+        <v>44.41081952088733</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>51.91173365347171</v>
+        <v>44.99854663383124</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.031540226576347</v>
+        <v>18.73357558114447</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.61513936179527</v>
+        <v>33.66911740106917</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>31.79902739779757</v>
+        <v>29.3402186590246</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.79553631028038</v>
+        <v>29.9112998592035</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>7.283836684927358</v>
+        <v>22.31510527915938</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>32.7633746484226</v>
+        <v>32.44504340146515</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>37.19114003565424</v>
+        <v>32.7128982635615</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>41.51162324515261</v>
+        <v>37.03226403946121</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.23345246692374</v>
+        <v>46.26791353401835</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>53.16012930718742</v>
+        <v>46.14650303732782</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.36399114130922</v>
+        <v>25.33311444897271</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.12687400255723</v>
+        <v>45.90243941095829</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.51173045921882</v>
+        <v>55.23416352307812</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>63.93502933264664</v>
+        <v>55.77330451050152</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>48.68230389883871</v>
+        <v>42.46592722760073</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>51.68722572034296</v>
+        <v>43.46470736736462</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>8.587974407060496</v>
+        <v>23.96104263794622</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>47.92349560556136</v>
+        <v>45.61913698041806</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>62.44247242651601</v>
+        <v>52.62007662598624</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>64.11773671660566</v>
+        <v>53.08055997792773</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>37.91700089346715</v>
+        <v>32.88914150930556</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>42.3020041124181</v>
+        <v>34.58756470378235</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.849205428854471</v>
+        <v>23.50156169005637</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>45.79929947253657</v>
+        <v>45.67719447781079</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>55.59710515650002</v>
+        <v>50.01736249675741</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>60.38338047686123</v>
+        <v>50.87943737954579</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>4.562828760059528</v>
+        <v>12.95422383643574</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>12.1954669885855</v>
+        <v>14.12672597745818</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>10.20548055129707</v>
+        <v>13.69649712198428</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>11.4287798893398</v>
+        <v>13.78003651144107</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>6.082212734202038</v>
+        <v>18.93515972059092</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.03272459648684</v>
+        <v>21.41078478939968</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2.146479270468593</v>
+        <v>12.71264410647917</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.80164596044769</v>
+        <v>17.31680908871088</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.42561796244113</v>
+        <v>20.9485750504161</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.0459202451068</v>
+        <v>21.15148760414442</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>7.894989590007764</v>
+        <v>17.4513154987349</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.47819962256298</v>
+        <v>29.15525044609402</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-0.6774775764602694</v>
+        <v>11.42324206377595</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>13.48448297801401</v>
+        <v>15.19443976500882</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>20.06098040192865</v>
+        <v>19.13116195494087</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.15749801646092</v>
+        <v>19.69178410105752</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>4.479719233908096</v>
+        <v>15.37660142684734</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.00113693589807</v>
+        <v>19.55756611332256</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-2.177203056675651</v>
+        <v>8.66916410065123</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>9.716908848755027</v>
+        <v>12.20204421639486</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.47856261178158</v>
+        <v>14.84170237234979</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.15722605864047</v>
+        <v>15.7100064039889</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.9928035559336514</v>
+        <v>11.59568005998232</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.94040640348902</v>
+        <v>13.89423414758505</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.75669940751953</v>
+        <v>17.28114773431242</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>17.06245123931954</v>
+        <v>18.10926393318044</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.651099769717714</v>
+        <v>16.71531046319859</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.26371062492258</v>
+        <v>19.60040378770525</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.04845586733249</v>
+        <v>17.5664911549403</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.9165319831733</v>
+        <v>18.15727127384773</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.25653346430239</v>
+        <v>32.02876265106619</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.71586746524508</v>
+        <v>34.50616061403112</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.77561735292059</v>
+        <v>27.5256186220793</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.86938806642698</v>
+        <v>40.32998691911847</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>46.46738726938952</v>
+        <v>45.29280140185434</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>52.17367162505127</v>
+        <v>47.78212927181379</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.05677251349441</v>
+        <v>20.4142952291356</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.06743838208073</v>
+        <v>28.46616798947918</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>11.54896129302674</v>
+        <v>25.42934745350926</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.75843121736772</v>
+        <v>33.24474662899524</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.03489272515753</v>
+        <v>36.90735873292944</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>51.71044390109914</v>
+        <v>45.09435272369036</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>13.41890109267938</v>
+        <v>12.87942743504054</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21.37739482082259</v>
+        <v>18.75691593784078</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>8.35389563778536</v>
+        <v>21.72291742582686</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.19921615347948</v>
+        <v>30.35429554446993</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.56969688314769</v>
+        <v>30.39656026650323</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>42.16977219056672</v>
+        <v>38.50183166917667</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-1.896731186526075</v>
+        <v>7.940330748255175</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>12.46050803014994</v>
+        <v>7.774933551739803</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>8.86655381763434</v>
+        <v>8.617572297188872</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>9.359838673623056</v>
+        <v>8.488326812471414</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.32483208104378</v>
+        <v>21.06836192797248</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.41547542431643</v>
+        <v>29.85313889838601</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-3.338602225317707</v>
+        <v>7.258869800342048</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>17.5602426720444</v>
+        <v>8.729427226693723</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>21.64888018431619</v>
+        <v>11.8883620536332</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.26703444076549</v>
+        <v>12.01791880529565</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>9.755567903009053</v>
+        <v>19.73995721737119</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>37.55649852853646</v>
+        <v>36.51885312880923</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-4.829300460099077</v>
+        <v>12.9110404848796</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>16.76233887542779</v>
+        <v>13.54122455420171</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>22.01804629413738</v>
+        <v>12.9283118907314</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.00722959422331</v>
+        <v>14.29076175105145</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>7.46007348951737</v>
+        <v>20.93797683665244</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.59240341692971</v>
+        <v>37.47038509839828</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-3.856636287407351</v>
+        <v>10.79793407478672</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.93922438091826</v>
+        <v>12.06058573816651</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.70369109440046</v>
+        <v>11.08893010836179</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.36299372942678</v>
+        <v>13.70573609350325</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>8.107578414634141</v>
+        <v>19.4301226939466</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.9052781835568</v>
+        <v>34.50712522926857</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.05109524512421</v>
+        <v>28.95166051156107</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33.08997333027894</v>
+        <v>30.60361497740641</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>10.52379521923413</v>
+        <v>24.71685729047526</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.24721863932976</v>
+        <v>31.68314148833835</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.03344645057908</v>
+        <v>28.88012381021406</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>39.48794415501193</v>
+        <v>33.31410090480102</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.85824079885234</v>
+        <v>42.46016540074508</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>49.97577253840804</v>
+        <v>43.02521040381281</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>14.02369365158998</v>
+        <v>25.79112998811044</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>48.27873600356918</v>
+        <v>47.6080444711457</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>60.56924744629482</v>
+        <v>54.48642220622698</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>62.32465275016821</v>
+        <v>55.22049188402583</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>45.27486675657831</v>
+        <v>41.28287755010145</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>48.44095022660058</v>
+        <v>42.08259604674951</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>12.16566472833103</v>
+        <v>25.83533854433844</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>47.83573333487092</v>
+        <v>48.47955986566894</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>60.13794532331571</v>
+        <v>52.29472223779791</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>62.23401213477337</v>
+        <v>52.69839595644992</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.91972778130709</v>
+        <v>35.37434612772811</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.29943627648828</v>
+        <v>36.75967383744228</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>13.03364092317022</v>
+        <v>26.64609887494332</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.82472990397633</v>
+        <v>49.09444802802122</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>52.91075414584702</v>
+        <v>52.19837518709101</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>58.06029192010796</v>
+        <v>53.20257887909716</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>6.856738269843191</v>
+        <v>17.2401148909753</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.3009449319676</v>
+        <v>18.8147139603092</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.46455981077526</v>
+        <v>19.4767177885245</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.57478684281313</v>
+        <v>18.63318473321255</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>4.272199243816139</v>
+        <v>16.29653872100624</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>11.57881877321354</v>
+        <v>17.30499429760648</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>4.316050512617391</v>
+        <v>14.03241137643069</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.37854559760328</v>
+        <v>19.94751913181424</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.24193661128995</v>
+        <v>24.51486371408353</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.92967129075248</v>
+        <v>24.41884334936077</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2.184306597506513</v>
+        <v>14.57147385163007</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>17.66393802848831</v>
+        <v>19.86656501369406</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1.994149302871453</v>
+        <v>13.38487255822439</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>17.67404949948047</v>
+        <v>18.82419977960917</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.53222772630177</v>
+        <v>24.83211634407301</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.65423696779367</v>
+        <v>25.50915771010093</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-0.8609660921002558</v>
+        <v>13.17028895023211</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.81927300504723</v>
+        <v>16.30665302023381</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.7475981163215089</v>
+        <v>11.01716057134714</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.95256408184419</v>
+        <v>15.50554431887582</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.86132066664298</v>
+        <v>19.11512730255011</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.38509949691813</v>
+        <v>20.31159192485909</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-0.4681915965331314</v>
+        <v>10.79579185293528</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.47959183896103</v>
+        <v>12.90747001273271</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>9.885081365887556</v>
+        <v>14.56424657513793</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.71060499050497</v>
+        <v>15.38466833393549</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.173944592243885</v>
+        <v>16.89398050464086</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.79531487243919</v>
+        <v>21.63259914609473</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.75844505209329</v>
+        <v>20.49817692291593</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.00685191703153</v>
+        <v>22.43872398052085</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.13591826931865</v>
+        <v>21.31434699516374</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.08663512191518</v>
+        <v>26.07685560270914</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>10.63806376686678</v>
+        <v>25.24932323757583</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.26945518613372</v>
+        <v>35.1621533399617</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>44.58928102660792</v>
+        <v>41.30541281262729</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>48.03252540234915</v>
+        <v>44.6657765904129</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.57622759817529</v>
+        <v>16.62320068148862</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.73243611221675</v>
+        <v>22.72436563509642</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>8.309034644893369</v>
+        <v>22.9226699924446</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.37394220012281</v>
+        <v>34.29949408314888</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>43.61337997893889</v>
+        <v>37.43058571417077</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>47.51820268680942</v>
+        <v>40.95120283254285</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>11.57749064735228</v>
+        <v>12.54995132665952</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>18.23560129400951</v>
+        <v>16.56328248411869</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>7.920907664921579</v>
+        <v>18.99792234546862</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.79218128483836</v>
+        <v>31.88117949311985</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.37184491045382</v>
+        <v>33.24989222434498</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>41.76344060550769</v>
+        <v>35.09475271157164</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1.734461445370972</v>
+        <v>8.147178971934643</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>6.042981589414307</v>
+        <v>8.287690545364701</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>3.464941896341504</v>
+        <v>9.013567795926193</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>3.983982723842445</v>
+        <v>8.766245018923939</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>0.8056275671311646</v>
+        <v>8.612849922953469</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>4.382075885816185</v>
+        <v>8.581178031188042</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-1.22420840969605</v>
+        <v>8.991231316047426</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.693835122517708</v>
+        <v>10.90396518988119</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>11.26288387603207</v>
+        <v>12.41132248602431</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.45124548660804</v>
+        <v>12.54617859562843</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-2.873066908951952</v>
+        <v>7.934100673844199</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>7.700376971229058</v>
+        <v>9.488320870131837</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-3.14014055157887</v>
+        <v>10.96269225118006</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>6.305327790200643</v>
+        <v>12.54002807248841</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>10.62451526460954</v>
+        <v>12.96949459454799</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.21750794406113</v>
+        <v>13.0286739680152</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-5.585454532008619</v>
+        <v>8.341031945361049</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>5.152014369361698</v>
+        <v>8.916431132016612</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-3.086578068947819</v>
+        <v>7.978428167568516</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>5.198008059152858</v>
+        <v>9.269505661082864</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>7.50408958847872</v>
+        <v>10.46864150656122</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>9.294581060525701</v>
+        <v>11.39053259852329</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-3.841310016206887</v>
+        <v>7.048228817080144</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>3.747015525518247</v>
+        <v>7.82824693415046</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>3.639216700793181</v>
+        <v>9.263917448762083</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>5.177378727206083</v>
+        <v>9.051752978239826</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>6.111453692329288</v>
+        <v>15.53748769860649</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.39105261148081</v>
+        <v>19.09890260524923</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.29353030760924</v>
+        <v>16.04619733520058</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.02268868242604</v>
+        <v>16.84601772109342</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>12.81841218126961</v>
+        <v>11.43738300136868</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>15.23152317291775</v>
+        <v>11.72575142298237</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>8.814297604247766</v>
+        <v>20.38448027579966</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.58413076716424</v>
+        <v>25.51969680984833</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.95914497356161</v>
+        <v>33.37517709964273</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>37.92257866769334</v>
+        <v>34.14732392815396</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>9.539520385240463</v>
+        <v>9.265043991413851</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>13.05192893392878</v>
+        <v>9.926927433984069</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.663874068185631</v>
+        <v>19.95900308319474</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.67559458540264</v>
+        <v>25.16855545583072</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.94335199400172</v>
+        <v>31.75390763350559</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.32355523855921</v>
+        <v>32.4983317910195</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>4.877117012356855</v>
+        <v>8.898705420770082</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.816964467272836</v>
+        <v>8.963524536666618</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.678911801219936</v>
+        <v>18.18914848053559</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.10756494269727</v>
+        <v>26.09682407821433</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.51236346372864</v>
+        <v>28.5017862298098</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.21254762421199</v>
+        <v>28.95910270428734</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>13.98990284796116</v>
+        <v>23.4462119259833</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.33285729524154</v>
+        <v>28.87835676759215</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.6657202365011</v>
+        <v>22.70965817845942</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.69019079393237</v>
+        <v>24.27024630356583</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>9.250278872499354</v>
+        <v>21.08972470323171</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.21138747792516</v>
+        <v>22.55504648727382</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>14.5559233301462</v>
+        <v>25.68794541416461</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.80036327307069</v>
+        <v>38.67635560739941</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>44.23668417298827</v>
+        <v>43.40022460025951</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>45.60439642727353</v>
+        <v>43.670940208386</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.144286110916092</v>
+        <v>21.01501164811667</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.61504610923454</v>
+        <v>29.93699362149075</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>11.94060660730582</v>
+        <v>25.80173886269429</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.22709222434737</v>
+        <v>38.56049326635937</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>44.07925820969108</v>
+        <v>43.08562820776507</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>46.00503231721251</v>
+        <v>44.35957907295362</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>5.857728510255544</v>
+        <v>22.19599296469395</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.02466874882332</v>
+        <v>30.35436534240772</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>7.320335219908475</v>
+        <v>16.70028911141348</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>26.10699095834558</v>
+        <v>24.92919830099353</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.3337972742406</v>
+        <v>25.38588406224865</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.01519630838566</v>
+        <v>29.55633677558386</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>5.230070405936349</v>
+        <v>17.70880426376877</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.13777260931064</v>
+        <v>25.5636869511073</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>15.84341126954041</v>
+        <v>14.4095264703719</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>19.0940919561619</v>
+        <v>14.95061686622137</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.087682653000787</v>
+        <v>25.14964502350155</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.38653900265881</v>
+        <v>27.98648968030308</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.93183602767975</v>
+        <v>19.35555066848356</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.40394869730005</v>
+        <v>21.63864945222901</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.79785774471824</v>
+        <v>33.06764595725424</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.66279051703335</v>
+        <v>33.09005831843317</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>15.21816042047814</v>
+        <v>29.81976479857071</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.26202201860661</v>
+        <v>45.22820345531913</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>57.04597273030674</v>
+        <v>53.39519941785181</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>60.36681705389957</v>
+        <v>53.53242968472669</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.69378497339799</v>
+        <v>31.78515839977364</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.10526500034867</v>
+        <v>33.48037040074205</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>12.97917309269779</v>
+        <v>28.98166806069896</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.02235946411989</v>
+        <v>44.30019752369373</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>57.03481095630372</v>
+        <v>52.42484761593958</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>61.11761764410478</v>
+        <v>53.95754906306072</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.72032747994716</v>
+        <v>21.52050771401288</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.7610164620686</v>
+        <v>24.53071146462554</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>11.21527332410862</v>
+        <v>24.6507056955887</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.29904362092879</v>
+        <v>40.53918321249949</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.37503646537095</v>
+        <v>40.84120094613751</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.09577251072241</v>
+        <v>44.17958974325298</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>16.56935738387513</v>
+        <v>24.3645687059931</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>35.95813601826869</v>
+        <v>39.22547435176766</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.3368717381628</v>
+        <v>36.25089693502615</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>37.15563816242098</v>
+        <v>37.31901160024714</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>10.76219675691413</v>
+        <v>22.36146796943616</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.46946893746684</v>
+        <v>31.47696792568756</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>14.57420055915163</v>
+        <v>23.45236891325499</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>40.47203758887645</v>
+        <v>39.61828218762545</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>48.65692654071501</v>
+        <v>46.4698510726396</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.65801622330947</v>
+        <v>47.00314644820568</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.47578048779114</v>
+        <v>21.51466934396998</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.551767587448</v>
+        <v>38.74503906142872</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>11.97297963798202</v>
+        <v>20.24825355801381</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.39549338795234</v>
+        <v>35.86257623761557</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>47.70213901284724</v>
+        <v>43.03084324945</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>49.12487922373345</v>
+        <v>44.71915542776001</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>7.400218593533069</v>
+        <v>20.35209678341745</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.50883537571194</v>
+        <v>34.7742455104548</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>12.04484943460043</v>
+        <v>19.98502881105423</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>36.55137185094135</v>
+        <v>38.54717675080826</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.43171659024225</v>
+        <v>45.32249355845963</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.54852979589134</v>
+        <v>46.96542274574871</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>6.891702459730066</v>
+        <v>19.65341238701276</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.3133846193604</v>
+        <v>31.33697824314518</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.30510134979995</v>
+        <v>27.68595085573512</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.64446306409939</v>
+        <v>27.69479128496612</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>7.977840531080542</v>
+        <v>19.78592916347467</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.74723824668518</v>
+        <v>27.10132248148178</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.75643775185994</v>
+        <v>27.73680138263885</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.20387097034678</v>
+        <v>32.67511015232847</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>44.21914657733737</v>
+        <v>42.66561142645448</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>47.96772782677058</v>
+        <v>42.69852473498186</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11.26994996727247</v>
+        <v>22.48897381914162</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.26488077219929</v>
+        <v>42.54602785203423</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.61880442840133</v>
+        <v>50.72928931303846</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>58.63238556417112</v>
+        <v>50.95378483455759</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.46763296053967</v>
+        <v>36.48372898423315</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.54611988820177</v>
+        <v>39.7912016165869</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>8.727360581658676</v>
+        <v>20.85234906234515</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.89776503694915</v>
+        <v>37.76449006118202</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>53.12359014424131</v>
+        <v>44.03576430016048</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>57.73998080033408</v>
+        <v>47.64862867377632</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.04507003063186</v>
+        <v>28.09217366350041</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.52653598210182</v>
+        <v>32.44874168473235</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>8.976394768488074</v>
+        <v>21.50224260008727</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>36.85484398498291</v>
+        <v>36.85375319137817</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>44.32858452425474</v>
+        <v>40.89582247325201</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>52.38718308321293</v>
+        <v>46.35742192682616</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>11.40925418276303</v>
+        <v>21.24886552788551</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>32.324566897567</v>
+        <v>38.91333119417658</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.28023134273101</v>
+        <v>30.78873815200082</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.59091454178226</v>
+        <v>32.19238671420474</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>11.05356216322582</v>
+        <v>23.21510484310557</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.61166921612594</v>
+        <v>30.7221040096994</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>10.27698515364373</v>
+        <v>21.37563697245127</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>39.59623878064455</v>
+        <v>39.42663407702165</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>49.05383381353226</v>
+        <v>42.91126287755112</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>49.51698309032251</v>
+        <v>42.84855769033418</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>9.718373339062241</v>
+        <v>21.11388654150608</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.58623833743233</v>
+        <v>37.73695242951717</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>7.603557591474996</v>
+        <v>18.93030563224499</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.02620489075011</v>
+        <v>37.04629236146668</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>49.15041670464102</v>
+        <v>45.01916017201067</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>50.12887171230589</v>
+        <v>45.64860915092719</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>6.121061974477186</v>
+        <v>20.09814608394552</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.72376936171403</v>
+        <v>36.13704028531086</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>6.086286701538654</v>
+        <v>15.21607903347611</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.23297212681145</v>
+        <v>35.34513919402932</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>41.18969246233544</v>
+        <v>43.6546706875459</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.92619162945483</v>
+        <v>44.79715814884295</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>7.30902282267132</v>
+        <v>19.26137584862222</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>32.35978843717596</v>
+        <v>34.18233545878222</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.04641780629266</v>
+        <v>25.78335893761926</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>31.32247678472979</v>
+        <v>26.88253679986818</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>6.642491355006012</v>
+        <v>22.59426165411107</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.56496040421383</v>
+        <v>30.01815356888972</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.85207612734026</v>
+        <v>28.78950166287101</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>36.73007190571429</v>
+        <v>33.08066923951012</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.88820732953528</v>
+        <v>44.00975707342607</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>52.57112064977231</v>
+        <v>44.16039218618087</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>9.747665795183911</v>
+        <v>23.79785289778235</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.14698966510521</v>
+        <v>43.97675445820563</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>61.39743152053249</v>
+        <v>53.27608795025746</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.68674011357602</v>
+        <v>53.17578366455045</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.34030642458767</v>
+        <v>38.80075976250026</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>50.55466877902499</v>
+        <v>40.30309291994021</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>7.046849404161989</v>
+        <v>22.14213202747846</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.45013347949205</v>
+        <v>42.84999144481225</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>60.82697105318542</v>
+        <v>50.09759743516156</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>64.80550084165617</v>
+        <v>50.80107805597471</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.80709008208612</v>
+        <v>31.72960993808327</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>41.78037606008392</v>
+        <v>34.71951020914326</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>8.360493659776985</v>
+        <v>22.22578743071809</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.58834393164381</v>
+        <v>42.13064942339506</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>51.68176442000475</v>
+        <v>46.70758283267483</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>59.57792786638399</v>
+        <v>49.32299861872714</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>15.05917758896782</v>
+        <v>24.63512988741916</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.0705333302245</v>
+        <v>37.73268962086888</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.52141435753977</v>
+        <v>31.84895144030396</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.44863058856161</v>
+        <v>32.62166366414716</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>16.29031171935886</v>
+        <v>29.09705647731822</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.05099366986767</v>
+        <v>35.37468847801274</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>14.60311207446719</v>
+        <v>23.05370487268479</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>39.85602812063916</v>
+        <v>40.94583759384747</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>49.91857212104203</v>
+        <v>48.25915642203833</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>50.20042964762339</v>
+        <v>48.07765068346296</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>15.03423202943526</v>
+        <v>25.30687707877053</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.24563111449923</v>
+        <v>39.35877321972215</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>12.63982662430434</v>
+        <v>21.49314775710134</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.07610694503791</v>
+        <v>40.01219346111092</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>50.40818046083321</v>
+        <v>49.84008356389603</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>51.2183659554484</v>
+        <v>50.63413463961081</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>11.93704198920574</v>
+        <v>24.37958944444695</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.94618163077457</v>
+        <v>38.40832075661083</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>11.1218586195832</v>
+        <v>16.99835811933981</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.1430679368715</v>
+        <v>39.08767893510983</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.33588854928585</v>
+        <v>48.59186660183042</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>44.64401546260236</v>
+        <v>48.17291129862713</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>13.34063924279146</v>
+        <v>23.17319408818064</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.36895097952451</v>
+        <v>38.44351830198291</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.23093841575076</v>
+        <v>30.21345142238859</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.06627335804366</v>
+        <v>30.67662937642599</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>11.08485045041953</v>
+        <v>25.7306064236739</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.06437678170773</v>
+        <v>32.65397514837211</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.97530430947955</v>
+        <v>33.25508569298427</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.58970990570458</v>
+        <v>35.14647381953473</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.6904603495754</v>
+        <v>47.01241889038758</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>54.18202306558467</v>
+        <v>47.19627839360453</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>15.19774219388477</v>
+        <v>26.78839739925177</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.50282080105409</v>
+        <v>44.18308667269459</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>62.99808830613185</v>
+        <v>57.10388709562663</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>66.48306608200789</v>
+        <v>56.75391917732614</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>46.82589154558283</v>
+        <v>44.82240822226795</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>52.75075803539811</v>
+        <v>45.97553617628763</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>13.23160006735762</v>
+        <v>27.2916799971749</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>44.47672062969346</v>
+        <v>44.99967217450958</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>63.06214946049491</v>
+        <v>56.67853209356124</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>67.25009992834934</v>
+        <v>56.90339130096433</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>37.53484987933572</v>
+        <v>37.63706773589103</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>44.9053340981302</v>
+        <v>38.80008923712597</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.7697167301069</v>
+        <v>26.44450834170707</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>41.24436934913746</v>
+        <v>45.35026947361519</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>53.71057980359107</v>
+        <v>53.71872697140479</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>61.44907609207982</v>
+        <v>54.96567776210449</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>8.895881189505268</v>
+        <v>21.41659899013924</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.23327566411239</v>
+        <v>30.99911991782674</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.20118501696471</v>
+        <v>23.62527459385441</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.11770609661037</v>
+        <v>25.45177815087262</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>7.314903649267698</v>
+        <v>19.14909008622017</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.7284117764918</v>
+        <v>25.80878803104933</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>9.764905067251114</v>
+        <v>20.47432335201749</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>39.03630647173743</v>
+        <v>40.13220632724749</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>47.06889654341265</v>
+        <v>44.2727657220098</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>47.79252226276816</v>
+        <v>44.70661614017193</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>8.247768819998427</v>
+        <v>20.07837987037654</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.02747642768507</v>
+        <v>37.67073338402219</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>7.448452093070397</v>
+        <v>17.64985294527239</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.49528666636781</v>
+        <v>36.16219073148496</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>47.24111783567288</v>
+        <v>43.13506688090275</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.42670260294193</v>
+        <v>43.7148345940028</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>5.346568545551197</v>
+        <v>20.26279159761404</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.43814318254112</v>
+        <v>35.49122965126961</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>5.298368856159225</v>
+        <v>15.86767003001796</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.84299812234303</v>
+        <v>28.80529675034325</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>38.46676229780671</v>
+        <v>34.69736461385023</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.96577092131972</v>
+        <v>40.07643315666024</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>4.068553213545407</v>
+        <v>17.85171582050002</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.51339654408273</v>
+        <v>29.19439223066813</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.52988157918061</v>
+        <v>22.20251941335705</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.70334220210834</v>
+        <v>22.59514563913432</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>5.337543547050291</v>
+        <v>20.28428803125645</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.66305919251878</v>
+        <v>26.12920900226683</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.62620963764719</v>
+        <v>25.75522713676683</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.42732850735586</v>
+        <v>28.46531377050418</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.72274321258832</v>
+        <v>40.57126117908753</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.84731556741971</v>
+        <v>39.8296569328436</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>10.13656536678204</v>
+        <v>22.23048695093445</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>43.33235749452865</v>
+        <v>43.67672207787447</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>55.46029070267911</v>
+        <v>48.41012661552823</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>58.47509421434442</v>
+        <v>48.02414237879449</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>41.65545411628782</v>
+        <v>37.45219860817867</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.24685510362605</v>
+        <v>39.21047800375408</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>7.663382450795002</v>
+        <v>21.6416277163993</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.42897298671448</v>
+        <v>39.64492496311175</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.55547421997726</v>
+        <v>45.77615058182326</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.32442725213866</v>
+        <v>48.28420399004693</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.10778286059575</v>
+        <v>27.51594744954784</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>34.76833147616724</v>
+        <v>31.23332612987591</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>6.246439624831677</v>
+        <v>19.60196136654662</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.17912786053553</v>
+        <v>32.93934433433792</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>42.46123689502478</v>
+        <v>37.21495572273989</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>50.48331101309517</v>
+        <v>43.12372934352572</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>6.423483024718735</v>
+        <v>15.78418269458248</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>15.66247551577933</v>
+        <v>18.12637840259931</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>15.19621253574681</v>
+        <v>18.25467538128269</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>16.23289784196011</v>
+        <v>18.31927513752931</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>8.772482918324027</v>
+        <v>18.61506964465536</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>19.26419225070099</v>
+        <v>21.87032708343135</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>4.80708696978401</v>
+        <v>15.73136843951648</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.54103164387075</v>
+        <v>21.56966142889473</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.97244607169585</v>
+        <v>26.41867859451312</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.46055168626899</v>
+        <v>26.52508086720439</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>10.32853043345749</v>
+        <v>19.89347615730835</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.30829582020516</v>
+        <v>34.58257857785922</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>2.135496313412695</v>
+        <v>14.60109191824831</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>18.65675143396924</v>
+        <v>18.9706285510168</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.08115525430222</v>
+        <v>23.53139489088889</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.04755547719866</v>
+        <v>23.97352513467632</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>7.279452792756953</v>
+        <v>17.75046350614009</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.62277282039667</v>
+        <v>25.87866445704267</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1.038149103828989</v>
+        <v>12.07558662595916</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>15.50052291105076</v>
+        <v>16.92630924900618</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.91104515629425</v>
+        <v>22.80361893134068</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.38371896679168</v>
+        <v>23.82338575362562</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>7.232546227322612</v>
+        <v>17.49047092826494</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>23.22898328811964</v>
+        <v>24.53658150148074</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>17.66239835264193</v>
+        <v>18.08198065839264</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>21.97321611687562</v>
+        <v>18.8305472172664</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>6.713546608340096</v>
+        <v>17.96570533761041</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>19.34725773586287</v>
+        <v>21.09778625126698</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.23331720967125</v>
+        <v>18.53872021941917</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>26.45327354209292</v>
+        <v>19.90990007063789</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.63656831061732</v>
+        <v>37.81851133435696</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>41.89683336426664</v>
+        <v>39.14802763537132</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>14.04263351887231</v>
+        <v>26.5285259283976</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>39.20341945977733</v>
+        <v>44.60406900445192</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.31216966409016</v>
+        <v>51.67882242506533</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>55.02564447311203</v>
+        <v>52.18903800154293</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>33.25339639226</v>
+        <v>27.83965250962015</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>40.04860864758869</v>
+        <v>34.04488117599616</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>11.67104244808759</v>
+        <v>22.6585770414685</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>38.45478160418472</v>
+        <v>38.23107497127243</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>49.36562750452919</v>
+        <v>41.9231414489407</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.93488420377353</v>
+        <v>45.84646671279731</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>24.09345180106206</v>
+        <v>24.18335755417678</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.28084024641024</v>
+        <v>31.61494035868114</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>9.23882914586753</v>
+        <v>21.79687377836047</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.64928200756763</v>
+        <v>33.08242152235502</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>37.31290090129928</v>
+        <v>31.91913441617556</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>46.20432966127025</v>
+        <v>40.25061449990278</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>8.669594104220717</v>
+        <v>13.14770541807042</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>23.09083062013389</v>
+        <v>15.41105867169368</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>22.14282251075772</v>
+        <v>16.17493856762705</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>23.35086645033436</v>
+        <v>15.74404516727922</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>10.10698759852599</v>
+        <v>21.90760370641796</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>22.00972480431962</v>
+        <v>23.80931848453394</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>8.406967820537051</v>
+        <v>15.98584432498641</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>30.95044900776904</v>
+        <v>25.34771518986858</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>40.1843350560366</v>
+        <v>32.67203483402705</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>40.84533273609733</v>
+        <v>32.49507460123657</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.058473926838449</v>
+        <v>18.35557434456262</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.36509721944298</v>
+        <v>28.68589878609711</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>6.745536769411981</v>
+        <v>20.2804590240173</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>30.50954879182224</v>
+        <v>31.99338284758909</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>40.90221575659363</v>
+        <v>36.01374117077766</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>42.10161436428567</v>
+        <v>37.16526302966078</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>6.181072022263997</v>
+        <v>18.94765272538567</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.30513467727934</v>
+        <v>29.72194591930628</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>4.990741330923395</v>
+        <v>17.30544210648905</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.30932731259532</v>
+        <v>30.15195912575955</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>32.81544775742181</v>
+        <v>31.88497177247716</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.4802908058839</v>
+        <v>32.66283618993968</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>7.494249064486333</v>
+        <v>17.72263164141385</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.54928073654623</v>
+        <v>27.445190299143</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>20.27643039242777</v>
+        <v>19.26198843602367</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.21302194522952</v>
+        <v>22.42185548512191</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>4.539226807475792</v>
+        <v>16.95467979682264</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>18.69710168123758</v>
+        <v>18.49680008225702</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>22.21897499242588</v>
+        <v>15.70732339607785</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.67722025147845</v>
+        <v>18.49316009814439</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>39.33269176265455</v>
+        <v>30.93230792800855</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>45.15237498161352</v>
+        <v>36.99695045793428</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>9.165973254279198</v>
+        <v>21.12750900818103</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>36.64816969077583</v>
+        <v>35.38111919126187</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>52.3957368556367</v>
+        <v>43.89075683750021</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>56.95072896983397</v>
+        <v>46.91067280255831</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.65818415004307</v>
+        <v>29.78778297720469</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>43.93999157297549</v>
+        <v>36.94268448905402</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>7.423327368587209</v>
+        <v>21.63650397775321</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.88984998744341</v>
+        <v>37.26537536290571</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>52.70393561612885</v>
+        <v>42.9109419896963</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>57.98907915509129</v>
+        <v>46.65063200563736</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>27.64572250766464</v>
+        <v>25.81260789479517</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>36.29985543829439</v>
+        <v>32.88158169754416</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>7.488330088436047</v>
+        <v>19.61747866150301</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>33.06389708488605</v>
+        <v>31.68468478530849</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>42.91459087994325</v>
+        <v>33.60663786238436</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>51.7035861828334</v>
+        <v>40.71134203219439</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>14.6126202003159</v>
+        <v>23.34555485862323</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.72549104171529</v>
+        <v>39.37312223259342</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.86044391574405</v>
+        <v>34.70722475432202</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>39.1824363945865</v>
+        <v>35.3656712297286</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>11.24016586981062</v>
+        <v>22.74568663114804</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.49679205864868</v>
+        <v>31.81401406740283</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>12.42100196781378</v>
+        <v>22.11923533924067</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>41.40840204465218</v>
+        <v>39.64797254910982</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>53.66747216545581</v>
+        <v>47.27171458287296</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>53.10047739000123</v>
+        <v>46.6872750207632</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>10.98379120843508</v>
+        <v>22.70410486579997</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>38.57639093513421</v>
+        <v>39.1763406036983</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>9.92407094089792</v>
+        <v>19.44824142164052</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>39.77676645032337</v>
+        <v>37.97876515098337</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>53.6070360029844</v>
+        <v>47.38699187705707</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>53.35713939678991</v>
+        <v>47.22814964781244</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>8.685535290797667</v>
+        <v>21.90566934377305</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.76696484323164</v>
+        <v>37.46859410723235</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>8.709454629720078</v>
+        <v>15.93106844250638</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>37.03515462727572</v>
+        <v>36.74810259394653</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>47.54282917614501</v>
+        <v>45.39204927659866</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>48.57638569536187</v>
+        <v>45.88010311424339</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>9.12387579955255</v>
+        <v>19.66706016956956</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>33.83934180026313</v>
+        <v>36.4153822374111</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>31.84760441925459</v>
+        <v>29.2579032944646</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>33.68878390018503</v>
+        <v>30.24006338148205</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>7.658368927654564</v>
+        <v>21.79517374087364</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.40641935343357</v>
+        <v>29.64215116215527</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>34.14722823407764</v>
+        <v>29.9405164550558</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>38.488300499453</v>
+        <v>33.80670519807913</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>50.10135870481822</v>
+        <v>45.21524439866837</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>52.0616999821079</v>
+        <v>45.09174059385626</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>12.00982886448579</v>
+        <v>23.61959459352306</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>45.32365979680164</v>
+        <v>44.05911406726044</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>61.56318522170565</v>
+        <v>55.06186909759879</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>63.20463519431465</v>
+        <v>54.40468367724679</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>47.7661368645659</v>
+        <v>43.87352734263917</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>50.86635567676963</v>
+        <v>44.81294353317929</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>10.62144579013836</v>
+        <v>23.24741313783657</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>45.61377404293485</v>
+        <v>43.78581050099019</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>61.76068109499295</v>
+        <v>51.83473322145984</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>63.80272288446682</v>
+        <v>52.21184199268484</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>38.84159555707004</v>
+        <v>38.00035492895939</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>43.0384671555728</v>
+        <v>39.03371923782315</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>10.50226756474379</v>
+        <v>22.08559463218327</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>41.97693120859377</v>
+        <v>42.70661094267493</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>52.83634827725837</v>
+        <v>47.83965197610972</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>58.01271602086564</v>
+        <v>49.34323688128391</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>6.971419727696617</v>
+        <v>19.47952731813372</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>27.18466545503178</v>
+        <v>26.44474999587243</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>26.70238595691774</v>
+        <v>21.92483599775228</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>28.2223152714768</v>
+        <v>23.16246114763322</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>7.211932044148089</v>
+        <v>16.46343413976629</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>24.5913905914236</v>
+        <v>23.19441591708529</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>8.923415378617939</v>
+        <v>20.21558080966813</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>38.04924971294711</v>
+        <v>39.61878961862161</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>46.93082624243555</v>
+        <v>43.66108244443647</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>47.29658539978203</v>
+        <v>43.10013860190584</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>8.027571756975011</v>
+        <v>19.53415618791239</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>36.6646471911345</v>
+        <v>37.19198327952058</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>7.05832753804939</v>
+        <v>18.24406255050589</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>36.99013763790251</v>
+        <v>37.14995045567481</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>47.45344180126345</v>
+        <v>43.21216142725641</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>48.31973928819858</v>
+        <v>42.87322085837329</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>5.338230442979562</v>
+        <v>20.84866674957543</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>34.34792171984736</v>
+        <v>36.94547792181339</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>4.292110658175041</v>
+        <v>14.82519485679333</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>30.83329490819263</v>
+        <v>29.714968564058</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>38.83792549660051</v>
+        <v>36.83370406899403</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>41.95589274394263</v>
+        <v>39.52279726490427</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>4.275862556492207</v>
+        <v>16.72174291962068</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>27.76212794180246</v>
+        <v>28.12664758066125</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>24.0768990141761</v>
+        <v>23.76240522655694</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>26.63298544566074</v>
+        <v>25.60789407525573</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>4.61204819538165</v>
+        <v>21.67709310643911</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>22.38400189031422</v>
+        <v>26.88671445435876</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>24.4746058993528</v>
+        <v>24.4664798536399</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>30.45517710439954</v>
+        <v>26.99631556194436</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>44.49610605431005</v>
+        <v>40.22837182475656</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>47.03007145883662</v>
+        <v>40.00033028968507</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>9.309910826181174</v>
+        <v>23.05924439616121</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>41.87521404730613</v>
+        <v>44.28409436675204</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>53.67719245233476</v>
+        <v>48.1282048914105</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>56.95978564639294</v>
+        <v>48.08139773234042</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>41.63137567466902</v>
+        <v>38.58107773332297</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>45.58187071712648</v>
+        <v>40.1970486896351</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>6.978761724521959</v>
+        <v>21.99199935637289</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>41.14722745108247</v>
+        <v>40.09697001101211</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>52.87754650489666</v>
+        <v>44.66459688100502</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>56.9253004844899</v>
+        <v>47.47234965069316</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.84823159274783</v>
+        <v>28.78627160677741</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.82156865868492</v>
+        <v>33.07594593467414</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>5.62078888967703</v>
+        <v>19.36700402675388</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>33.97772208888567</v>
+        <v>30.70547884952001</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>41.17351356109288</v>
+        <v>34.05032096128947</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>49.48504699667672</v>
+        <v>41.38324649004981</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.497</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.274</v>
+        <v>16.749</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.376</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.051</v>
+        <v>15.623</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.412</v>
+        <v>4.418</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.91054221804252</v>
+        <v>11.05197601489808</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.39235717721087</v>
+        <v>16.73135554421808</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.33245644777374</v>
+        <v>15.16061459070073</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.41319515545988</v>
+        <v>15.50508266497324</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.27787823594166</v>
+        <v>20.08462090673866</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.05055852065455</v>
+        <v>28.04490204325634</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.08178201965674</v>
+        <v>8.477716980390344</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.49827078124567</v>
+        <v>19.75036311797298</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.64125667975578</v>
+        <v>27.24815431804084</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.57774036330657</v>
+        <v>26.45013962129791</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.17996436278028</v>
+        <v>18.89818975066934</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.59243965181162</v>
+        <v>37.84805483134437</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>18.7156995828995</v>
+        <v>6.346402757484071</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21.67402027562218</v>
+        <v>17.48320523410202</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.65762173401796</v>
+        <v>23.48043086865611</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.87131059723283</v>
+        <v>24.32571569523795</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.38081827826876</v>
+        <v>12.94752217287638</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.91659401745307</v>
+        <v>29.32666812326208</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18.54880753967586</v>
+        <v>3.744533684103892</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.59405930296713</v>
+        <v>15.15234884971003</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.28965276480213</v>
+        <v>20.79675266781216</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.67997361833007</v>
+        <v>22.34558497020201</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.47661053058826</v>
+        <v>15.08504704938084</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31.14742443833225</v>
+        <v>28.58822823229825</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.51125979912527</v>
+        <v>25.70591340514643</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.4169853232807</v>
+        <v>28.56089078685938</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27.94900367540086</v>
+        <v>18.423729836642</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.12477236980945</v>
+        <v>27.68941353734445</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.08183169331945</v>
+        <v>25.44804895976945</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.04260888390884</v>
+        <v>27.85628601511915</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39.36638555612382</v>
+        <v>47.73524905815115</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40.56321365341445</v>
+        <v>52.06774250166539</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.86087085589119</v>
+        <v>25.2493545715109</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.43013010894515</v>
+        <v>50.12386653856425</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.75686569901659</v>
+        <v>61.11327740168232</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>46.52866922730584</v>
+        <v>62.51318388437554</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.79275685632531</v>
+        <v>36.44558610940453</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.73318499180206</v>
+        <v>44.76093597196024</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.81820782841569</v>
+        <v>20.03857672680683</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.72890285642139</v>
+        <v>44.29283814019608</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.22270765203663</v>
+        <v>53.27150342781668</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43.32824976879517</v>
+        <v>57.70384848206515</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.1313140575786</v>
+        <v>29.6698159632326</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.19442899548661</v>
+        <v>38.95078199524559</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31.13354010238743</v>
+        <v>21.75251121121843</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>39.8902819683363</v>
+        <v>43.17005917003126</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>40.53771678422065</v>
+        <v>49.67941267845088</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.83099640166323</v>
+        <v>56.06308240198607</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.59453379666538</v>
+        <v>16.9745865261533</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.46041170840375</v>
+        <v>38.72629527290574</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.42554584342489</v>
+        <v>34.21764585465593</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>32.7399009128799</v>
+        <v>36.39882061122464</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.85054787076217</v>
+        <v>16.14934409258342</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.11923102878876</v>
+        <v>31.35070459621283</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.73660548704694</v>
+        <v>16.12540615511367</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>39.39110392866066</v>
+        <v>42.79617590934525</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.71954380596388</v>
+        <v>47.28606794729488</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>37.84045109998844</v>
+        <v>46.94453215622018</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.2516925574966</v>
+        <v>18.72727495592518</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.75346699240954</v>
+        <v>44.05942720472635</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>27.85213118731837</v>
+        <v>14.5614051338107</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37.7213193108993</v>
+        <v>40.76667604622786</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.14452908916498</v>
+        <v>46.67322971088444</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38.78079588896195</v>
+        <v>46.74016772038755</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.19604925784451</v>
+        <v>15.82700681408361</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.2188989407081</v>
+        <v>37.89412057084172</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.31311607854675</v>
+        <v>12.39988483323184</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.49141801100058</v>
+        <v>38.78046340473898</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.80533508844639</v>
+        <v>43.52893790864601</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.59257648714014</v>
+        <v>46.1409662212861</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.45457560554919</v>
+        <v>15.94228313938552</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.79328014269647</v>
+        <v>33.79005503502724</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.67795193516706</v>
+        <v>28.19870820379484</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.18751597681637</v>
+        <v>30.35161912302941</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.70147933737982</v>
+        <v>17.64107743598783</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.16928740175907</v>
+        <v>34.84657425958254</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.78177699239779</v>
+        <v>33.53006056894235</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.4085583664174</v>
+        <v>38.82956078595542</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.54502317585781</v>
+        <v>48.02249498763125</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.5281923918147</v>
+        <v>50.81455444888937</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>30.85608984879072</v>
+        <v>20.29809196537535</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>43.96235456727987</v>
+        <v>52.72567038026098</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.44490797969553</v>
+        <v>58.55246153648199</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>44.62256962226751</v>
+        <v>59.96131654408191</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>36.07295499277853</v>
+        <v>41.80637505155863</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>38.39440411599951</v>
+        <v>47.51276084625404</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.60560606266678</v>
+        <v>17.16316180634253</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>41.13371914857464</v>
+        <v>48.41924741083612</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.47307685644491</v>
+        <v>53.87054096900705</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>43.16502263084632</v>
+        <v>56.94901286043871</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.86401171744438</v>
+        <v>34.15222988387644</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.2956424988745</v>
+        <v>41.52439498576862</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.58532134834907</v>
+        <v>17.81371687290189</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>39.72792280613515</v>
+        <v>44.74520163844495</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>40.45301100206693</v>
+        <v>50.17016859226253</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>43.02619166074288</v>
+        <v>56.03919241651185</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.25639076828566</v>
+        <v>16.22633758484681</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.1814396132153</v>
+        <v>34.73076075019618</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.5933314084796</v>
+        <v>32.34160755690412</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.88767308541964</v>
+        <v>32.72046210284198</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.55313031584639</v>
+        <v>17.53294264284938</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.10993914542375</v>
+        <v>34.25137424664271</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.57099186398883</v>
+        <v>18.79048534466836</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.89341447656532</v>
+        <v>43.89217709698769</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.37618728643385</v>
+        <v>51.54060446610161</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>40.96140264514858</v>
+        <v>50.13072830540625</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.3667310298851</v>
+        <v>20.13960475976653</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.69010976860668</v>
+        <v>46.78905390352695</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>27.87955213480299</v>
+        <v>15.40427487467315</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>38.45071500116289</v>
+        <v>41.22781113449682</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.4248871355795</v>
+        <v>47.47939841238063</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>38.23738617864775</v>
+        <v>46.6960504473518</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.78693217703596</v>
+        <v>17.92411604266384</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.75870573181639</v>
+        <v>42.77474660031071</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.94686038707516</v>
+        <v>15.21472898265971</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>38.22006893718671</v>
+        <v>42.20837310331399</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>39.07444940688045</v>
+        <v>47.25071218089165</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>39.26975851992353</v>
+        <v>47.75995238785417</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.86072934863363</v>
+        <v>17.3438311252105</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.57115341573227</v>
+        <v>40.03424578019361</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.68313983243837</v>
+        <v>34.58092301821679</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.01729735545644</v>
+        <v>35.39180650548361</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.53445839766314</v>
+        <v>19.40973453737365</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>33.80615234066591</v>
+        <v>35.86382738470243</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.94376996071432</v>
+        <v>38.32171962365247</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.20344650877328</v>
+        <v>42.46468756266981</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.49182015458341</v>
+        <v>55.96393757011194</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>44.17864483830412</v>
+        <v>57.10213011783063</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>31.04102868119368</v>
+        <v>23.18385910366898</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.62935489385749</v>
+        <v>54.42806437305482</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>47.0716897714315</v>
+        <v>66.85617978730079</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>47.31239775118323</v>
+        <v>67.16630926049064</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>41.25676314397523</v>
+        <v>50.83853297030775</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.08854724615626</v>
+        <v>54.00159029680059</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.96422006385207</v>
+        <v>19.95454509892938</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>41.9320409387558</v>
+        <v>51.67639165118845</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>44.94455404500811</v>
+        <v>62.48952732872737</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.2547986536007</v>
+        <v>63.70294115762285</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>36.06160604221172</v>
+        <v>42.70170659989749</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>37.41255977711666</v>
+        <v>46.13537721824566</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.14343436673396</v>
+        <v>20.93916700223079</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>42.4586833119922</v>
+        <v>51.27014823491385</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>43.98776846358211</v>
+        <v>59.22140976951344</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>44.4552904624842</v>
+        <v>61.55938989052456</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.01342519529882</v>
+        <v>15.07986392923987</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.59808220285996</v>
+        <v>17.65387891835114</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.75222786125798</v>
+        <v>26.41343563763741</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.86983385850565</v>
+        <v>26.84060138258858</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.49109532156686</v>
+        <v>18.70091616387048</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.06134724043946</v>
+        <v>26.55016083036493</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>22.83009949621862</v>
+        <v>13.46639574882696</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.68124754620613</v>
+        <v>23.28047024211759</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.73770834775681</v>
+        <v>40.42551921853308</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>33.72728637084888</v>
+        <v>39.76908865519903</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>30.88408871712991</v>
+        <v>21.99180410438965</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>39.98615361643011</v>
+        <v>41.11803852282637</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>20.78002946250416</v>
+        <v>10.73870418363255</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>23.5787635810538</v>
+        <v>20.36060424690705</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.93994512783131</v>
+        <v>35.4529134306304</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.07418726004907</v>
+        <v>36.3272507478415</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>27.44561162446202</v>
+        <v>15.06505753914407</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>33.05828608738457</v>
+        <v>31.00152568497294</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.13390192505595</v>
+        <v>8.941932402402255</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>23.60709377241636</v>
+        <v>18.37350365027944</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.03443103249637</v>
+        <v>33.33547875155376</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.37251517369857</v>
+        <v>34.8230794018891</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.25691406127813</v>
+        <v>14.33009927698553</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.49071412611208</v>
+        <v>27.48730546661555</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.55586391124253</v>
+        <v>19.33460674902118</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.09714898272027</v>
+        <v>21.34775519994929</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>23.99449105656701</v>
+        <v>16.11497025757292</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.33865939040159</v>
+        <v>24.61521953448137</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24.9277203514083</v>
+        <v>21.94092259144955</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.73758853800491</v>
+        <v>24.62917433549531</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>40.73831757852255</v>
+        <v>47.30202777061542</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.90537690610122</v>
+        <v>52.23407471157449</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>33.93765224954373</v>
+        <v>27.43118591609229</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43.6479966907798</v>
+        <v>50.31272144425493</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>46.44945537348278</v>
+        <v>62.12433454414927</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>47.24289981609175</v>
+        <v>64.69475572386477</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.36863169064434</v>
+        <v>35.0491592908597</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>36.23813674733461</v>
+        <v>44.32113030243182</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>32.41384374351797</v>
+        <v>20.64219110424429</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>39.19775412678784</v>
+        <v>41.58103355249463</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>39.55003629591238</v>
+        <v>51.70997803854259</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>42.65771261143964</v>
+        <v>57.55691411253367</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.4332751588285</v>
+        <v>23.94649870445464</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.72873926139278</v>
+        <v>33.54295454722407</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.21545012763643</v>
+        <v>18.98490586231499</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.71187671231307</v>
+        <v>37.85804215468645</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>36.86065188710005</v>
+        <v>43.81854129845838</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.82863052744698</v>
+        <v>50.90246323242355</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.27602907613222</v>
+        <v>11.03430776906778</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.50731076451801</v>
+        <v>29.43432022907813</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.28295307623863</v>
+        <v>26.26036187728244</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.29497768748185</v>
+        <v>25.82419812802983</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.20903446228058</v>
+        <v>21.50104795563086</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>32.47076877998093</v>
+        <v>37.6690071105121</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.3164832630409</v>
+        <v>17.92836070616568</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.23935136808246</v>
+        <v>45.82081086255931</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>40.466638379477</v>
+        <v>52.55449531546279</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>39.94847535229263</v>
+        <v>51.03774127201243</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>31.54943349010849</v>
+        <v>20.970412503972</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>42.19873366686451</v>
+        <v>47.40374167027392</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26.37521272678254</v>
+        <v>16.59053990912489</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>36.80876340061729</v>
+        <v>44.53100565021816</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>40.63605104832207</v>
+        <v>52.48328398377005</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.2113018812408</v>
+        <v>52.29142823408093</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.60497113513652</v>
+        <v>18.00497730556705</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>40.95506762239667</v>
+        <v>43.06920339689363</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.12140760237777</v>
+        <v>15.80829625391803</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>41.16668135421418</v>
+        <v>45.00073781430777</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.32610708545059</v>
+        <v>53.21848959767873</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>42.48863275857438</v>
+        <v>52.95027985041929</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.00241272113999</v>
+        <v>19.4609078789926</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>40.56799252718715</v>
+        <v>44.67186808703504</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.76703150742482</v>
+        <v>38.58976968196275</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.10440450743724</v>
+        <v>38.55977008258818</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.86186859002663</v>
+        <v>19.14876643971126</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.38731258043303</v>
+        <v>33.17223595080899</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.11391476595964</v>
+        <v>36.25794416495286</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>33.9959367807554</v>
+        <v>39.56010803802828</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>46.31705782165378</v>
+        <v>62.87025030299409</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>46.89392463532586</v>
+        <v>63.8067655422857</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>32.11200836841647</v>
+        <v>24.03748666464377</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>43.26220423735036</v>
+        <v>51.63905963253556</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>49.15121679222973</v>
+        <v>68.51818981949356</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>49.24518235775794</v>
+        <v>69.61314127505773</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>44.40880858771255</v>
+        <v>57.07732485505187</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.07999265258311</v>
+        <v>20.15013569212764</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>40.99629050583879</v>
+        <v>47.4243206865338</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>45.5373229681581</v>
+        <v>63.04268470819334</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>46.43510022195409</v>
+        <v>65.93941035499437</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>40.82923578304559</v>
+        <v>50.10725546550103</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>41.48029171670611</v>
+        <v>53.03935660527188</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>32.80159281488567</v>
+        <v>22.88223722729377</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.4248785139421</v>
+        <v>51.28041378336098</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>47.17298220630371</v>
+        <v>63.22514092858138</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>47.56169004093556</v>
+        <v>66.49894730439988</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.9141302189391</v>
+        <v>10.99973180318332</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.62389681278477</v>
+        <v>34.45297351887182</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.17062189813107</v>
+        <v>27.07759640654263</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.45773826536305</v>
+        <v>27.48307169984328</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.62644531338126</v>
+        <v>19.73712322370805</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>35.94182836822422</v>
+        <v>40.03525943696835</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.47226885233791</v>
+        <v>15.63861508065127</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>39.27795286844726</v>
+        <v>42.90981340608688</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.51449734828044</v>
+        <v>48.37124516072548</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>38.41400263850761</v>
+        <v>47.4656733296636</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>31.63946472113906</v>
+        <v>20.0003972520438</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>43.12480182757977</v>
+        <v>49.23876272774843</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.76213893749947</v>
+        <v>13.31829548523295</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.95068196914205</v>
+        <v>40.85367368569749</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>40.35742740404356</v>
+        <v>51.78624273217605</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>40.24966072137616</v>
+        <v>50.82551493982724</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>30.3263584477864</v>
+        <v>17.04908330133496</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.09512348118546</v>
+        <v>45.48199318045059</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>26.04416535565623</v>
+        <v>13.52214072863985</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.68813694457152</v>
+        <v>44.50756593345008</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>42.59935507897205</v>
+        <v>54.17027671926824</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>42.86730421835536</v>
+        <v>54.45293579567144</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>30.37554851644858</v>
+        <v>17.7030576590533</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>41.16011757715319</v>
+        <v>43.75703344764867</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.14396544283143</v>
+        <v>38.88003769212234</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.84349544004645</v>
+        <v>40.06027276392445</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.51902474910599</v>
+        <v>18.77046486595233</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.60423985194993</v>
+        <v>36.72017132680557</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>33.80425686057454</v>
+        <v>37.77584083532496</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>35.75903064047775</v>
+        <v>41.47259339722594</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>44.29163727737757</v>
+        <v>57.48975011602832</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>44.84087474182469</v>
+        <v>58.13807557968266</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.02376840583161</v>
+        <v>22.08807561028545</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>45.12184854254193</v>
+        <v>60.11721625869415</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>45.41448672162905</v>
+        <v>60.93590626361564</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>41.4347547894053</v>
+        <v>53.13111794802192</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>42.36265937093738</v>
+        <v>55.29631431213062</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>30.65606006608149</v>
+        <v>19.99987732802089</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>42.11966339553381</v>
+        <v>49.00538497733977</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>44.22149829671946</v>
+        <v>57.89003762614654</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>44.34609313398761</v>
+        <v>59.41676817004677</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>37.19464419802473</v>
+        <v>45.14240802743338</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>38.91681381764663</v>
+        <v>48.63532348527018</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>32.12142950339376</v>
+        <v>20.72073968365319</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>44.2800756745198</v>
+        <v>50.2889249622452</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>43.25783755791166</v>
+        <v>56.39919394735789</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>43.86797295765329</v>
+        <v>59.03263066321105</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>20.97603546926026</v>
+        <v>8.378022418054574</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.24236991107618</v>
+        <v>13.64058362304941</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23.19281666658754</v>
+        <v>16.67643096128675</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.26105343592599</v>
+        <v>16.81530141379361</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.12876701103607</v>
+        <v>16.0085243310741</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.85946235167997</v>
+        <v>25.35847696999106</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.33116418176435</v>
+        <v>5.845977155417643</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>21.98983600501778</v>
+        <v>15.92652964667926</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.52044491713615</v>
+        <v>27.47131107174682</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.49872515281536</v>
+        <v>26.78006622813841</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.66647583160311</v>
+        <v>17.11366110136957</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.47283192683849</v>
+        <v>34.76955080718457</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>16.37062628466701</v>
+        <v>2.259485930176766</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>18.76342633647995</v>
+        <v>12.53184315223578</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.47288151300397</v>
+        <v>23.18597732674294</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.5135022764445</v>
+        <v>23.31044626859657</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>26.315051082461</v>
+        <v>13.75336620945081</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>31.98324281806469</v>
+        <v>29.26716832100242</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>16.54309918489442</v>
+        <v>1.421518410662475</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>18.60066156226569</v>
+        <v>11.49048572026742</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>23.33372863457848</v>
+        <v>18.58229683313763</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.653266817523</v>
+        <v>19.79404382808688</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.57669578454925</v>
+        <v>14.00809238013811</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>30.85809848168388</v>
+        <v>27.68767341032903</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>27.41747518230098</v>
+        <v>24.1076666271849</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.87306623497209</v>
+        <v>25.79973846270447</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.13360449888205</v>
+        <v>15.10965003632308</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.8125118424251</v>
+        <v>25.64215180032051</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.1185480093824</v>
+        <v>28.46543893755542</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.21492461882908</v>
+        <v>30.9232175083462</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.29513195731293</v>
+        <v>40.94980401156874</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>35.92649243641183</v>
+        <v>43.88089211002925</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.40934440895437</v>
+        <v>22.69626311169045</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>39.81644481686224</v>
+        <v>45.69923139160912</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>43.27757536974953</v>
+        <v>57.51398895017405</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>43.72424110787323</v>
+        <v>58.8781892170549</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.39413770578187</v>
+        <v>34.09759808363566</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>34.64906822567715</v>
+        <v>39.5725227315434</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.53287353037141</v>
+        <v>19.1239546802922</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.69135431431728</v>
+        <v>42.84229163866382</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>40.66098709253949</v>
+        <v>52.05733721101274</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>41.73553663731813</v>
+        <v>54.91024807105973</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.74338546110451</v>
+        <v>27.87338115102517</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.03220809807516</v>
+        <v>33.14997543100694</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.44004101442004</v>
+        <v>20.17399144348009</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>39.45853860713335</v>
+        <v>43.90929240157953</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>40.61668964299735</v>
+        <v>49.72988689170981</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>41.74216983608087</v>
+        <v>52.89010005076679</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>18.59681938702971</v>
+        <v>10.06186701245522</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>19.92884846220005</v>
+        <v>13.33882203772958</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>20.44500746922221</v>
+        <v>11.3607426201818</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>20.40713674108617</v>
+        <v>10.81180582415281</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.80748790818734</v>
+        <v>14.8349175642312</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23.12945446286716</v>
+        <v>15.79632353160295</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>19.35644593326021</v>
+        <v>6.222291391027952</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>21.5499031423379</v>
+        <v>15.242207084144</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.13342837831465</v>
+        <v>20.61699363134235</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23.90610716545331</v>
+        <v>19.19442565571986</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>17.72278251825145</v>
+        <v>4.965743091689102</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>20.25620839779481</v>
+        <v>13.70094323180046</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>18.95245711683576</v>
+        <v>4.02377492326417</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.19414578412609</v>
+        <v>12.46430846765602</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.32130140815634</v>
+        <v>16.46937081828188</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>22.23484725663483</v>
+        <v>16.28174001396489</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>18.16403323082271</v>
+        <v>2.647529591325704</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>19.3924000355114</v>
+        <v>9.023103567225341</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>16.15588390513705</v>
+        <v>1.501320203087271</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>17.6665828357586</v>
+        <v>9.121559505076533</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.39235339008909</v>
+        <v>11.04098483868015</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>19.56125791347381</v>
+        <v>11.47844891823735</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>17.37375942296329</v>
+        <v>3.930097973732309</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>18.62994757827758</v>
+        <v>9.184826117822194</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.45967962855489</v>
+        <v>14.63966820392353</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.95806058487693</v>
+        <v>15.60662076366089</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.17425631227919</v>
+        <v>7.660313704390393</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.68657639098618</v>
+        <v>8.747600143961723</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.64483035322915</v>
+        <v>14.95992096114367</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.92865217851697</v>
+        <v>21.82227470963137</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.18844109354301</v>
+        <v>22.67135809892352</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.79310558718209</v>
+        <v>26.20817680411278</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.18409464392994</v>
+        <v>8.564539804276308</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.4524312963513</v>
+        <v>21.45110077763942</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.44750271380784</v>
+        <v>32.94557450198004</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.96983281621421</v>
+        <v>40.98067195513831</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.46091365678756</v>
+        <v>15.3129646892479</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.34718928769686</v>
+        <v>21.84188389173396</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.12913834212241</v>
+        <v>6.835085709755599</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.87401523371489</v>
+        <v>18.12354724012005</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.894630938873</v>
+        <v>27.21387870973413</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>33.80284593017961</v>
+        <v>38.31971217556881</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.8806003043664</v>
+        <v>8.336236583077049</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.75048766789582</v>
+        <v>12.8864176553074</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.40815080361859</v>
+        <v>7.548544979423518</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.64094493853157</v>
+        <v>17.52934751967788</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.26329741611651</v>
+        <v>23.78744454632708</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.95397845056586</v>
+        <v>36.33280248940375</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.60922575944983</v>
+        <v>16.18251456739623</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>35.12492879975036</v>
+        <v>37.23515476758308</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.05214011707263</v>
+        <v>36.40761915848279</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>33.14915310538529</v>
+        <v>37.35266958714972</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.10725028927173</v>
+        <v>17.26385853369805</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.76117078344902</v>
+        <v>31.77801311523325</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.79591060986273</v>
+        <v>18.35160611301314</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>38.82456084157052</v>
+        <v>44.68838559877481</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>43.66578678285755</v>
+        <v>55.45332878361253</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.60475223953037</v>
+        <v>54.74796488242218</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>27.72203088407912</v>
+        <v>19.21773108080041</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.1113756961773</v>
+        <v>42.21352032770131</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.90227751877272</v>
+        <v>14.26870383545396</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.19202497473141</v>
+        <v>41.65846381155286</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>40.40929803027731</v>
+        <v>52.15250784992772</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.89325712270934</v>
+        <v>51.83486449064422</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.35855718984246</v>
+        <v>16.41053371691453</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>35.56931427079098</v>
+        <v>38.19627328947293</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.0539192185087</v>
+        <v>11.2759599789116</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.99115460908373</v>
+        <v>39.63551638763889</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>38.57013984723316</v>
+        <v>47.95877217263423</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>38.94355823184848</v>
+        <v>49.01230939446658</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.0120109395577</v>
+        <v>15.07609182463392</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>33.37773124700605</v>
+        <v>34.65832909796757</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.47667954632996</v>
+        <v>31.18144449834345</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.75969645039876</v>
+        <v>31.70817412523729</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.98095130904949</v>
+        <v>18.26760201094445</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.07764171826006</v>
+        <v>33.73200008674406</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>31.74952197072118</v>
+        <v>36.24885042582169</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>33.89331056304796</v>
+        <v>40.27472011385869</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>39.25031132356149</v>
+        <v>50.73606166211712</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.3442884385895</v>
+        <v>51.16414461940551</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.26784315587103</v>
+        <v>22.46870652991018</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.41383322532526</v>
+        <v>50.2249698961879</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>44.63461650218103</v>
+        <v>62.00255959137495</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>45.08255307512928</v>
+        <v>62.34019748140951</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>37.25693040182266</v>
+        <v>45.31474849838499</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.81120741768049</v>
+        <v>47.62890742101085</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.90523947072769</v>
+        <v>19.72701803851818</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>40.46855007852258</v>
+        <v>47.95824059256651</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>43.3881637551145</v>
+        <v>58.09862491629121</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>43.73062488006896</v>
+        <v>59.26762434983667</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>31.81325976939384</v>
+        <v>35.70600305439341</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.57601442052889</v>
+        <v>39.01952407829648</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.57126606787405</v>
+        <v>19.7352754988271</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>40.75623607385758</v>
+        <v>46.70392349410027</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.93063565204038</v>
+        <v>53.76174608049274</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>42.20920239338174</v>
+        <v>56.64923055041158</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.96840391395271</v>
+        <v>9.870448123036752</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.70994995792115</v>
+        <v>13.47661333620403</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.54894029463175</v>
+        <v>11.6587805760895</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.54904947125918</v>
+        <v>11.94937304854707</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.24439358726292</v>
+        <v>11.75581778141676</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.49455917351085</v>
+        <v>18.02432339306099</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.80303308294618</v>
+        <v>8.905086563040786</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.98260184673551</v>
+        <v>17.6204102644452</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.27432415304848</v>
+        <v>22.59519810166192</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.42716672364985</v>
+        <v>22.57242170246737</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>24.54379924069175</v>
+        <v>15.28934129333047</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.32721834463459</v>
+        <v>29.6373159320574</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.35370013928127</v>
+        <v>6.022418015407727</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.4503510011781</v>
+        <v>13.68241440315576</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>23.66553354529383</v>
+        <v>18.41302250156379</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.86713534059386</v>
+        <v>19.8246194108845</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>23.32104463167708</v>
+        <v>9.632214266405345</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.97899793962208</v>
+        <v>19.14710906255356</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>17.11399174610966</v>
+        <v>3.614834696485996</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>18.70655815518612</v>
+        <v>10.19882934207212</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.1160962658354</v>
+        <v>13.15026218498987</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.41781567217775</v>
+        <v>15.82354485995776</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>20.26776852590787</v>
+        <v>6.586604926708567</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.35412536907728</v>
+        <v>13.49725558878808</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.34176701963606</v>
+        <v>13.79977915048916</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>22.6807732819301</v>
+        <v>15.34300780446084</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.87987234624634</v>
+        <v>13.59739646434179</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.67211650360318</v>
+        <v>17.5155157107633</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.00715649357132</v>
+        <v>15.44549075825109</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>23.10379580681632</v>
+        <v>18.30660299280586</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.72877699058698</v>
+        <v>32.01228833451882</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.58988279985797</v>
+        <v>36.08641913196561</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.13612526435093</v>
+        <v>24.89785333124049</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.47540245905624</v>
+        <v>40.32523895184723</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>39.98042621798738</v>
+        <v>48.61242788078715</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>41.08320969856879</v>
+        <v>53.04917175703653</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.53577204153912</v>
+        <v>20.42163746556959</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.7197870627265</v>
+        <v>28.69456726406204</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.32050932704028</v>
+        <v>19.22238511070381</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.82159812764329</v>
+        <v>32.10051863369943</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>34.06737449712589</v>
+        <v>39.13552317469627</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>38.42005821742642</v>
+        <v>47.72881664271514</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>20.41236573578437</v>
+        <v>10.93171018554389</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>23.11054830837544</v>
+        <v>18.29158695005205</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.98613317353375</v>
+        <v>17.98949485526811</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.36260976762355</v>
+        <v>29.22644163445241</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.53669370725957</v>
+        <v>32.22706572732991</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>34.57542581903122</v>
+        <v>41.32340777083517</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>15.32770716612852</v>
+        <v>5.137035200000327</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>15.65913161881381</v>
+        <v>5.959558669173603</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>17.22043767165767</v>
+        <v>4.558092264187231</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>16.9769830812902</v>
+        <v>5.432659303131878</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>26.10530884213776</v>
+        <v>17.44569593650678</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.57894883335994</v>
+        <v>30.24727156073271</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>15.42834709859322</v>
+        <v>4.166506109960253</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>15.997800675818</v>
+        <v>8.370015320322466</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>18.91059072910727</v>
+        <v>11.09074627155432</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>18.89072621943578</v>
+        <v>11.53474252623387</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.85514082441588</v>
+        <v>17.71900390281856</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>35.24857822802965</v>
+        <v>39.85008267574815</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>19.00164946771383</v>
+        <v>4.466716935130034</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>19.37828631695762</v>
+        <v>8.231429079334184</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>19.71679528685202</v>
+        <v>9.882435697299417</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>20.46775122262908</v>
+        <v>11.36804001565996</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>27.20322930078972</v>
+        <v>16.7664427338953</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.55703142758902</v>
+        <v>37.22619151030973</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.42258184978718</v>
+        <v>2.102744172559891</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>19.13033584537214</v>
+        <v>7.43839870152096</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.69485553712653</v>
+        <v>9.281186672588941</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.10169752153427</v>
+        <v>12.42252737094313</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.03839060634107</v>
+        <v>16.16773191016356</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>33.43573029467981</v>
+        <v>34.38804867772033</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.38286088480282</v>
+        <v>29.68029045685651</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.12501317875478</v>
+        <v>30.91590425460805</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.02020527862594</v>
+        <v>17.66188642377944</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.54690707560628</v>
+        <v>30.8672312597927</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.70605801426553</v>
+        <v>30.81156638769968</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.84195094257562</v>
+        <v>35.03057236880299</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>37.32598048747425</v>
+        <v>45.70807515782636</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>37.6587852675892</v>
+        <v>46.72435258582142</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.22642670405047</v>
+        <v>23.21504027729342</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>42.20836889062268</v>
+        <v>50.86566188474895</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>44.40428990982321</v>
+        <v>58.43744058487547</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>44.84689639619307</v>
+        <v>59.24854068825322</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>36.65965774814359</v>
+        <v>41.99249383099672</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>37.08086475938245</v>
+        <v>44.72834125028317</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.43546415768339</v>
+        <v>22.4789736552056</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>42.79866499473138</v>
+        <v>50.7157358752724</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>43.32980503405311</v>
+        <v>57.04750663463587</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>43.59188696046807</v>
+        <v>58.53220601005599</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.91721497513749</v>
+        <v>35.47507139302572</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.75800186912069</v>
+        <v>38.79826220730848</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.34191939860458</v>
+        <v>22.74082874529562</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>42.65901124840196</v>
+        <v>50.31932683364766</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>43.32079236594208</v>
+        <v>55.91857024766382</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>43.87737905143911</v>
+        <v>58.17433844404913</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.0842398704135</v>
+        <v>13.35453039924398</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>22.96526602968577</v>
+        <v>17.39517414230718</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>23.69435066406126</v>
+        <v>15.91054369753954</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>23.22550418288405</v>
+        <v>15.56027545888398</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.21515016666117</v>
+        <v>9.58260558566117</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>21.92623293570049</v>
+        <v>12.34340364763597</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>20.63712062869331</v>
+        <v>11.67745589608722</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>23.61362285095559</v>
+        <v>20.50411368241156</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.67932804720517</v>
+        <v>25.76050555921147</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.58158643798309</v>
+        <v>25.09172030422991</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>21.96684824217597</v>
+        <v>8.526862532741394</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.44481546419151</v>
+        <v>18.2893969548936</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.14142108242145</v>
+        <v>10.70418559466896</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.97593255670501</v>
+        <v>19.29804676494523</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.86362402958293</v>
+        <v>24.70827262149256</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>27.23692309489145</v>
+        <v>24.95428870604525</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.22130116809695</v>
+        <v>6.247334659954618</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>22.69292718536589</v>
+        <v>13.75139126572707</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.90640659416874</v>
+        <v>6.171340612653715</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.0773208833853</v>
+        <v>15.07220350146629</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.50849479132564</v>
+        <v>18.33465487363464</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.10372076645631</v>
+        <v>19.91381381254686</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.85924475501901</v>
+        <v>5.700253404996307</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.9384468556392</v>
+        <v>11.88633503448914</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.00503944900318</v>
+        <v>9.6722511191807</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.25924881907175</v>
+        <v>11.92849246944783</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.77409140380258</v>
+        <v>14.78209188305971</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.20904897629452</v>
+        <v>21.16098295985438</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.46768138382985</v>
+        <v>19.35747422398808</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.42864440796177</v>
+        <v>22.93382282938069</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.96778528338406</v>
+        <v>21.34579981110043</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.28727143165489</v>
+        <v>25.82639627656653</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.63527864161946</v>
+        <v>19.79337027727137</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.54771660615982</v>
+        <v>36.60846417846884</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>37.20576956762848</v>
+        <v>45.52707173153757</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>38.91522601186934</v>
+        <v>48.07570088517018</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.34792270497646</v>
+        <v>15.71545083782506</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.32353427584041</v>
+        <v>22.34026263757852</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.34947878731034</v>
+        <v>16.65224111854747</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.04785635866457</v>
+        <v>33.35112296189602</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>34.56274220364173</v>
+        <v>40.49432898589731</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.41354272763856</v>
+        <v>44.54474752046256</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>19.83468131385633</v>
+        <v>10.08650904409885</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.78430193018698</v>
+        <v>15.80838829135088</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.86288060832769</v>
+        <v>15.09460267953146</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.29053881348331</v>
+        <v>31.47618698181135</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.06195884171911</v>
+        <v>34.35225490011022</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>33.02030759642135</v>
+        <v>38.71429374171823</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>15.55509781772362</v>
+        <v>7.288266763178264</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>15.76615151743083</v>
+        <v>7.792736148273434</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>17.67602013867959</v>
+        <v>6.10361257071396</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>17.43080902986178</v>
+        <v>6.11031452839164</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.8494528346691</v>
+        <v>7.071745310465047</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.05346015382877</v>
+        <v>7.067151239585346</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>16.74530292974557</v>
+        <v>6.058361240807855</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.77585350737795</v>
+        <v>9.432936615732316</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.53088069427428</v>
+        <v>11.8701604451607</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>19.52500073609627</v>
+        <v>11.36460008683545</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>16.1463890105706</v>
+        <v>4.467250938767393</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.98637596657499</v>
+        <v>9.279309210583342</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>17.69652518220249</v>
+        <v>5.873151421608206</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.55497966369637</v>
+        <v>8.608616225515394</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>19.81116790433918</v>
+        <v>10.74096186591342</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.83401161610345</v>
+        <v>10.98094672579696</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.26930460654398</v>
+        <v>2.807592789777853</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>16.70967819840003</v>
+        <v>4.926347181239446</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>16.17901632426372</v>
+        <v>2.93573031691864</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>16.71070525810926</v>
+        <v>6.972485497868195</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>18.23370066578298</v>
+        <v>8.724200807067366</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>18.67651799843339</v>
+        <v>10.05749689690401</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.76615626507273</v>
+        <v>2.761481851724184</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.40078343348705</v>
+        <v>4.779212863788519</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>17.82041608571347</v>
+        <v>3.764146786028217</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>17.56795417832414</v>
+        <v>3.724100431083951</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>21.89180821526128</v>
+        <v>14.36204942289427</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>23.81690802688265</v>
+        <v>17.89522333644198</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.67297588372013</v>
+        <v>14.92067239314598</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.01299882998892</v>
+        <v>16.52514445539978</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>18.92628918684355</v>
+        <v>10.43747075180238</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.01017737010433</v>
+        <v>11.38748192990442</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.96545265740188</v>
+        <v>17.62806169187548</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.52763658863133</v>
+        <v>27.78796397640764</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.96519879655371</v>
+        <v>35.63895132153869</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.35460038117933</v>
+        <v>36.5661073821995</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.87099157577397</v>
+        <v>5.224410141324338</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>18.13189641483089</v>
+        <v>7.975374791633556</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.51007767775137</v>
+        <v>16.19061025204298</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.28185332838565</v>
+        <v>25.4669028116848</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.10086600139463</v>
+        <v>32.6377373540739</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.42322599769732</v>
+        <v>34.96122459843274</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>17.79019574212622</v>
+        <v>2.527600542104459</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>17.69097448151222</v>
+        <v>4.849643580175954</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.10949856911159</v>
+        <v>14.4746641708895</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.04532040946653</v>
+        <v>25.62783846683335</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.12779184656798</v>
+        <v>27.88420244009832</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.27239786165411</v>
+        <v>30.26658523104745</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.01078248004204</v>
+        <v>17.84636732056298</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.92439271525662</v>
+        <v>26.75198536302215</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.71480377256153</v>
+        <v>21.89390599608531</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.38066445731494</v>
+        <v>23.77923149834292</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.23883671511325</v>
+        <v>16.55619956706121</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.32488444409003</v>
+        <v>21.00955443053139</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.47486576337714</v>
+        <v>21.28963034514892</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>36.06837839950352</v>
+        <v>37.32331266716601</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.84017584794776</v>
+        <v>46.41833854936606</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.99837446643088</v>
+        <v>46.48319643344301</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.79757786909621</v>
+        <v>15.82010842826134</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.3405796520911</v>
+        <v>29.82221984733467</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.75231821869804</v>
+        <v>20.73774438603144</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.26704092691757</v>
+        <v>36.62803399070628</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>37.70592494339683</v>
+        <v>44.40254424683326</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>38.36275217128251</v>
+        <v>45.99068030744657</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.52566350385725</v>
+        <v>14.37876011675095</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.72516547782565</v>
+        <v>26.25153337647143</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>23.87239474783349</v>
+        <v>9.570844409138733</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.93744574524855</v>
+        <v>24.38376080358252</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.37068277628399</v>
+        <v>26.36775534263386</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.45351737882652</v>
+        <v>30.3913799290112</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>24.20822489045384</v>
+        <v>12.98809597046839</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.1850168014677</v>
+        <v>23.60458568231385</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>20.71586730592721</v>
+        <v>13.03211161298398</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>20.86571262081927</v>
+        <v>12.77624800832353</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.93076094110228</v>
+        <v>19.84544062119638</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.44779875292589</v>
+        <v>26.96090193324093</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.97183477779421</v>
+        <v>20.030681654835</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>24.98197103980753</v>
+        <v>22.30774412785831</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.69144814513623</v>
+        <v>36.62583076643131</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.65388751730686</v>
+        <v>36.78154021158143</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.7597152778468</v>
+        <v>27.8611221832062</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.4134182353672</v>
+        <v>48.67342272415581</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>43.80108172727389</v>
+        <v>59.1571211284844</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>43.93187455322115</v>
+        <v>59.55253219809524</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.04203786154751</v>
+        <v>31.73312899045749</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>31.8775429185386</v>
+        <v>35.34017355547729</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.35796045212047</v>
+        <v>25.51506117823422</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.10293542033457</v>
+        <v>45.70393186663927</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.34082492398684</v>
+        <v>55.39755775690375</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.06207083850945</v>
+        <v>58.34479199173084</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.26403185129521</v>
+        <v>19.95545518397821</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.65109359543485</v>
+        <v>24.97255325488529</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>30.14177697405722</v>
+        <v>21.67113341669628</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>38.15212925200679</v>
+        <v>40.86954621723595</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.62707259881722</v>
+        <v>41.96939416062624</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>38.26957823961311</v>
+        <v>47.38294032836531</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.15353468086723</v>
+        <v>20.29540486464092</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>36.75241873755349</v>
+        <v>38.11911573319664</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.68359113597725</v>
+        <v>38.5656192659335</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.2374396189003</v>
+        <v>39.48072522820028</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.55124361216188</v>
+        <v>16.01157468205681</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.06439109905381</v>
+        <v>27.78700849257539</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.79301590015476</v>
+        <v>19.40490175946211</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.77119789143183</v>
+        <v>41.25561543350785</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.68765484338036</v>
+        <v>49.38794089386731</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.11690037317781</v>
+        <v>48.98219877538327</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>27.60352882448343</v>
+        <v>17.54387626339182</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.28765401220392</v>
+        <v>37.71090490103774</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.97619852516184</v>
+        <v>17.7079744718459</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>34.83097341887319</v>
+        <v>38.9718852885478</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.06758717257022</v>
+        <v>47.24114186806608</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.92690694687899</v>
+        <v>47.73176884920089</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.05866938098923</v>
+        <v>15.20231347693883</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.2861598502045</v>
+        <v>32.54353526857307</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.05877263280318</v>
+        <v>16.35645900003414</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>36.40939730631973</v>
+        <v>38.33062067913259</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.2592938561437</v>
+        <v>47.18492992339114</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>39.9787975426753</v>
+        <v>49.46145194597708</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.35128234774747</v>
+        <v>13.88310657414672</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>32.15472664335703</v>
+        <v>28.36971939778472</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.50431985313854</v>
+        <v>26.35109339923297</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.54423970474244</v>
+        <v>27.55648373073593</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.01696134748153</v>
+        <v>16.02376871421772</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.57105658253566</v>
+        <v>28.07224920532854</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.84760681229202</v>
+        <v>28.47619020151209</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.37924752409489</v>
+        <v>33.46810970519903</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.49393853034874</v>
+        <v>43.1954144694564</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.48632557824833</v>
+        <v>45.11085726415031</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.75559619220294</v>
+        <v>20.17120804190083</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>38.92571890830063</v>
+        <v>45.04220883391505</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.39470184826303</v>
+        <v>54.01694827665793</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.53834642378811</v>
+        <v>56.40563267521912</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.07960378968556</v>
+        <v>37.31573577175185</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.75732426214906</v>
+        <v>42.04565324670399</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.94903751303268</v>
+        <v>16.78692051629724</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.42915116124275</v>
+        <v>40.64652627024692</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.66890861753234</v>
+        <v>48.44105926191196</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>40.47037802891237</v>
+        <v>52.74122469004476</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.06027289466233</v>
+        <v>29.44314191147467</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>31.27565632239082</v>
+        <v>34.8368484519092</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.48765769869242</v>
+        <v>16.58670243855273</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>36.21065801912693</v>
+        <v>37.66724196836761</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>36.78204861350657</v>
+        <v>43.3798763704377</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>39.44232564262961</v>
+        <v>49.5992773512351</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>27.74223265308418</v>
+        <v>16.09684886892926</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>37.52197056542773</v>
+        <v>37.32680734421943</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.85757303811869</v>
+        <v>31.99892970500048</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.24393242320906</v>
+        <v>33.46808211129428</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.01643189064512</v>
+        <v>18.66688799115848</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.51311585726002</v>
+        <v>31.35693944000557</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.77429615023045</v>
+        <v>14.57290750946507</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.74431984568022</v>
+        <v>40.91673281576332</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>37.93805108690904</v>
+        <v>48.46531530844062</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.91276032101486</v>
+        <v>47.58496831234702</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>27.3379946396422</v>
+        <v>16.26666308953244</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.50575660468773</v>
+        <v>39.86102833545232</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.12090461335168</v>
+        <v>13.76850736673998</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.23104375496024</v>
+        <v>40.23363212528898</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>39.23203345718873</v>
+        <v>48.36075325626499</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>39.69315002530166</v>
+        <v>48.59882174452405</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.78563452281879</v>
+        <v>12.28627814413417</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.29814734733979</v>
+        <v>34.4581324511457</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.25930783094569</v>
+        <v>10.63102680693639</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>34.37160626348122</v>
+        <v>38.221527333989</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>38.53527880331379</v>
+        <v>47.1340845787369</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>39.22796156429506</v>
+        <v>48.6085447648063</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.32270932090579</v>
+        <v>13.49362883540683</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.89264257088727</v>
+        <v>32.88536646238775</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.4672090798749</v>
+        <v>27.77432345830929</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.12416633653729</v>
+        <v>28.31273582324281</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.16347922422481</v>
+        <v>17.95432082103233</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.7065637992047</v>
+        <v>30.8722263863958</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.35613749743895</v>
+        <v>30.15192422004444</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.68185895566894</v>
+        <v>34.06418821403823</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>38.95983771270114</v>
+        <v>49.13341476204702</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.14395523870399</v>
+        <v>49.68376310148287</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.54374302187195</v>
+        <v>19.93784895429284</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.68346011014387</v>
+        <v>48.37763437767732</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>43.85424508119186</v>
+        <v>59.91152863558033</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>43.87612660961629</v>
+        <v>60.36085699936663</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>35.50156723481708</v>
+        <v>41.02202423805149</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.06600682661472</v>
+        <v>44.63723874473027</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.74741521344443</v>
+        <v>15.7475964890979</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>39.21684627702404</v>
+        <v>44.06480115941577</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>41.41959958999146</v>
+        <v>53.55461899153862</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>41.91238656087391</v>
+        <v>56.14670071316492</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.1842172747544</v>
+        <v>33.11707955593785</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>32.70159645270304</v>
+        <v>38.44016390191586</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.14831692447121</v>
+        <v>17.40473049139771</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.02466745750015</v>
+        <v>43.02219727892992</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>39.97956363995242</v>
+        <v>50.59673975868003</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>41.40578068316618</v>
+        <v>55.92943655800592</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.94500150613813</v>
+        <v>21.12696795756118</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.66258377148431</v>
+        <v>36.78729020385965</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.02835635064348</v>
+        <v>35.50616437040767</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.46727379206527</v>
+        <v>35.72006621496735</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.64092106479048</v>
+        <v>25.71206805351879</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.74429147669734</v>
+        <v>34.59649586938201</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.77761563476924</v>
+        <v>18.85979665666758</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>37.80457137684469</v>
+        <v>42.54582404051366</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.87995805312362</v>
+        <v>55.20409177935547</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>40.69834968163183</v>
+        <v>53.85973330115893</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.54844653691704</v>
+        <v>21.66329896474162</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.67832138134202</v>
+        <v>39.50938700816921</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.87153675804357</v>
+        <v>19.63960170227337</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>37.28511772877195</v>
+        <v>45.09439509232838</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.08088990977501</v>
+        <v>55.07273017009437</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>41.62830340536414</v>
+        <v>54.94415961395246</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.20496399673744</v>
+        <v>20.48002015441746</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.37905308367388</v>
+        <v>37.86678823042104</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.23378380658495</v>
+        <v>13.92904383836249</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>36.26318779591112</v>
+        <v>41.04787751643105</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.73083934296383</v>
+        <v>52.14286193980335</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>40.85114556363779</v>
+        <v>52.00677113461217</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.48156490129273</v>
+        <v>20.13032174325262</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.31049838502693</v>
+        <v>38.32834118152592</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.34788332272068</v>
+        <v>32.01064787227897</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.85016273807545</v>
+        <v>32.62790263122676</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.66581136306995</v>
+        <v>22.76595063099615</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.26082537354502</v>
+        <v>32.91287388452585</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.49868378157342</v>
+        <v>34.47875876944842</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.31629525028786</v>
+        <v>36.89445344376436</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.27035282192615</v>
+        <v>50.23773002683367</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>40.3265464319194</v>
+        <v>52.23460795510259</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.16025974398874</v>
+        <v>23.97317015453028</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>39.98139713417336</v>
+        <v>47.81205445209245</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>46.23398931407961</v>
+        <v>63.65709160406369</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>46.05394918620512</v>
+        <v>63.7051915024479</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>39.07339350783964</v>
+        <v>46.22950526171976</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>39.72984487700175</v>
+        <v>50.71904825766075</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>31.66786816951481</v>
+        <v>22.75060573280883</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>40.93219101963547</v>
+        <v>47.24586048334042</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>46.2450202006285</v>
+        <v>61.10589145085754</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>46.29205918052457</v>
+        <v>62.64045449365447</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>34.5836874703096</v>
+        <v>39.81705925007729</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.2974579369146</v>
+        <v>43.8704750202444</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.39225296767919</v>
+        <v>22.99353329644235</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>41.41822758386355</v>
+        <v>47.22485210967372</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>45.00721545392865</v>
+        <v>58.06270993399205</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>45.56530603162167</v>
+        <v>61.55846713352469</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.61811744973275</v>
+        <v>14.8850898407086</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.42222799721968</v>
+        <v>29.07067549974343</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.22251346075075</v>
+        <v>24.58348957696389</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.09062648742528</v>
+        <v>27.20500613529699</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.99379123782932</v>
+        <v>14.09159443806813</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.39681654359192</v>
+        <v>26.00535197841091</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.27559489281226</v>
+        <v>16.7243053854092</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.19776770921592</v>
+        <v>40.1231391749494</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>38.37047320289741</v>
+        <v>46.38242437998076</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>38.71584229724576</v>
+        <v>46.764053327383</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.52246735965694</v>
+        <v>15.05837346820393</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>35.34249508076459</v>
+        <v>37.73954933689178</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.37317861549724</v>
+        <v>14.6654511693813</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.66273853873719</v>
+        <v>37.21207990944164</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>37.87022099865795</v>
+        <v>44.41225837762078</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>38.24556417948702</v>
+        <v>46.18355161003323</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.64222550996312</v>
+        <v>12.95958815369841</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>34.32322441392789</v>
+        <v>32.95784892125672</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>24.29868196372126</v>
+        <v>10.54749140711612</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.61720142111237</v>
+        <v>29.35606956347058</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.06431136187524</v>
+        <v>34.92233271052067</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.88607131906686</v>
+        <v>40.84619231847077</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.00819575487326</v>
+        <v>11.27678009753176</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.69270523449713</v>
+        <v>27.35494641875913</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.35947647857283</v>
+        <v>22.66059366157808</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.61421336357155</v>
+        <v>23.16178229377441</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.3096579952816</v>
+        <v>14.73910028389188</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.31442123218681</v>
+        <v>25.78548453431872</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.56685085272398</v>
+        <v>24.80661377104698</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.89058544698006</v>
+        <v>28.55915262292377</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.26395906897861</v>
+        <v>43.13412901515565</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.91177575032588</v>
+        <v>43.53894434192587</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.49448942073871</v>
+        <v>18.57486257192724</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>39.3377919894424</v>
+        <v>45.54036924628097</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>40.56158308876668</v>
+        <v>52.18381479187067</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.43866819478219</v>
+        <v>53.23665473585877</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.48675814786301</v>
+        <v>37.68910179125564</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>35.38037374784957</v>
+        <v>41.0233198413352</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.42789165264458</v>
+        <v>15.78674329166913</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.46201916878238</v>
+        <v>41.6336423317312</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>39.60287060230788</v>
+        <v>47.70504884553042</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>40.84290287933223</v>
+        <v>51.08525734035632</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.58929723040295</v>
+        <v>27.0498447793269</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.41459186141295</v>
+        <v>32.00324711614407</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>27.31482090987168</v>
+        <v>13.98469163259527</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>33.71881772503217</v>
+        <v>35.40366623807781</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.76253779660586</v>
+        <v>39.28072977573746</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.69228722454205</v>
+        <v>45.71761505543122</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>21.61625363452136</v>
+        <v>12.71520541405953</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>23.06129619225035</v>
+        <v>16.85809518547378</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>23.41768189637136</v>
+        <v>16.56196830662644</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>23.35324302912235</v>
+        <v>17.17645482054856</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.70932667417788</v>
+        <v>14.32111373811207</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.37522500492941</v>
+        <v>22.12779585913667</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>21.5651938278491</v>
+        <v>12.70318568222284</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.46901019152482</v>
+        <v>22.05151517262086</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.49728310247277</v>
+        <v>29.15189388087388</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.62360552385789</v>
+        <v>28.91054473114514</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.19035884596577</v>
+        <v>16.69191572110904</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>34.51402372298409</v>
+        <v>34.06304538656197</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>20.8833534871817</v>
+        <v>10.3207217995959</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.32420774373503</v>
+        <v>19.27173744060848</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.32558961833381</v>
+        <v>25.10867809025172</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.50204857122591</v>
+        <v>26.21662806000508</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.02108861277641</v>
+        <v>10.77403463436733</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.11612152544139</v>
+        <v>24.53698086455714</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>19.48216285793777</v>
+        <v>7.654032413701724</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>22.23755962434556</v>
+        <v>16.23704331008491</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.98289622089536</v>
+        <v>21.96951632546971</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>26.23862323867861</v>
+        <v>24.48497655436048</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>24.61473662291821</v>
+        <v>13.40658075653088</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.34111361281314</v>
+        <v>24.36264384020487</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>22.99919374024705</v>
+        <v>18.04551551465336</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>23.33575854150973</v>
+        <v>19.19296102507975</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.03260017810151</v>
+        <v>13.37894578865823</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>24.66659857430132</v>
+        <v>20.8850218408471</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>23.32459582613814</v>
+        <v>16.03009988260972</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>23.86656168774017</v>
+        <v>18.89121512376542</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>35.14612900055238</v>
+        <v>39.20334038826971</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.34119096102619</v>
+        <v>41.82186205136797</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>31.1432496502625</v>
+        <v>24.78764863252798</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>40.25888310098962</v>
+        <v>46.31264044747947</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>42.93819335510379</v>
+        <v>53.54275677266479</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>43.21749657873339</v>
+        <v>55.47812568720377</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.2115705355763</v>
+        <v>28.31244951637099</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>32.25233075162039</v>
+        <v>35.00409773690954</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.31469095390441</v>
+        <v>19.16660658964197</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.88841650824725</v>
+        <v>39.88272599752487</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>37.04149715581605</v>
+        <v>44.38468997186754</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>39.05477146953703</v>
+        <v>49.34874470968993</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>27.0637346165658</v>
+        <v>23.69572049015034</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.65038200407725</v>
+        <v>31.56534542303406</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.48936259498282</v>
+        <v>16.58117138214624</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>34.1762906780697</v>
+        <v>32.91394744181318</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>31.46918419957401</v>
+        <v>33.82447281540959</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.74547754275592</v>
+        <v>42.85685858963875</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>19.24028253899446</v>
+        <v>9.602299680935133</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>20.3600240071182</v>
+        <v>15.86333896445483</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.6254943165881</v>
+        <v>14.90889544663998</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>21.38425102195485</v>
+        <v>14.7142218592965</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>25.69224633398286</v>
+        <v>15.09533408197346</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>26.67180471697955</v>
+        <v>20.05019682961674</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>21.35842465083922</v>
+        <v>9.749799318986785</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.47203930116668</v>
+        <v>24.79630953640717</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>31.56334958881103</v>
+        <v>34.95400749716687</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.29408009548688</v>
+        <v>34.1585686800845</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>25.46174709894617</v>
+        <v>11.78590307551223</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.79797732960188</v>
+        <v>26.2183979362764</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>27.02343517176478</v>
+        <v>14.26059200399613</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>33.59142355506604</v>
+        <v>31.71626689039579</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>33.74180208331119</v>
+        <v>37.12781598117254</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>34.3922317529812</v>
+        <v>37.82524988635907</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.21257125279181</v>
+        <v>11.82121068666783</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.68865399803011</v>
+        <v>26.18540725807497</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>24.10936832461947</v>
+        <v>8.835432760045308</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.60303012934909</v>
+        <v>26.95877821681108</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>31.02196598776491</v>
+        <v>32.86154977530093</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.44552806738451</v>
+        <v>33.46491236398433</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.0593137989296</v>
+        <v>11.80416949377101</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>30.02250462739405</v>
+        <v>26.19918477277992</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>23.64132165712613</v>
+        <v>15.85655893615138</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>24.85068637144864</v>
+        <v>19.32336745309788</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>22.66971116986684</v>
+        <v>11.06084893083297</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>23.43490737103198</v>
+        <v>15.32934922589963</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>21.74053604077505</v>
+        <v>14.09737221146904</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>22.57662315616957</v>
+        <v>17.78604941930218</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.06231331527911</v>
+        <v>33.19421546968667</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>33.71330605177526</v>
+        <v>40.07706727010043</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>27.48283982224248</v>
+        <v>15.46843253597401</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.0077721786652</v>
+        <v>34.87736308996046</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>38.21482838601035</v>
+        <v>46.68711173255983</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>40.16957163302946</v>
+        <v>49.81146391213456</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.22727766186509</v>
+        <v>30.17191858131075</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>33.86935691628963</v>
+        <v>39.73667066967302</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.24525031681345</v>
+        <v>14.71712354690323</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.65505442662081</v>
+        <v>35.51256981046056</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>38.39211352596748</v>
+        <v>44.15471681823087</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>40.08483851027363</v>
+        <v>49.03149167169394</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>27.75807217059705</v>
+        <v>24.87083199670337</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>31.27394012152549</v>
+        <v>33.34477040754056</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.64980294993101</v>
+        <v>12.6999170467387</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>32.34959795804787</v>
+        <v>30.97340789208973</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>31.1546555024684</v>
+        <v>36.13611887399742</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>35.3564834540516</v>
+        <v>43.41881391071514</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.59484215113121</v>
+        <v>18.2698861276218</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.80333082769558</v>
+        <v>37.42481039508311</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>32.48369763806424</v>
+        <v>36.0848673318539</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.83764177854692</v>
+        <v>36.84195852051192</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>26.6226431367718</v>
+        <v>18.35604237417272</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.18512145843891</v>
+        <v>31.37941532101689</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.09772539499387</v>
+        <v>17.984981532069</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.69858113624316</v>
+        <v>42.26088819184441</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>40.61573389737124</v>
+        <v>52.8142312555043</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>40.4466508580421</v>
+        <v>51.95894007498103</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.10272624211588</v>
+        <v>18.48728386248275</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.28773880946996</v>
+        <v>39.51520510234532</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>26.3518716995783</v>
+        <v>16.10061824508093</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>35.68266313884214</v>
+        <v>41.24335534225617</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>39.67788507622157</v>
+        <v>51.26813649257564</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>39.74614455002718</v>
+        <v>51.23558784674482</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>27.76661296745857</v>
+        <v>17.07148907886473</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.64062720259032</v>
+        <v>36.7452810450681</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>24.63175767815706</v>
+        <v>11.8939256512311</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>34.93517659543411</v>
+        <v>39.02765586971326</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>39.16407449543178</v>
+        <v>48.54567525946489</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.42414412219622</v>
+        <v>49.84625207221364</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>26.31580343657083</v>
+        <v>16.4858365619458</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.80513798985173</v>
+        <v>35.87073102913432</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.44502690564426</v>
+        <v>30.73757467199382</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.86654572721024</v>
+        <v>31.21365055614796</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>27.03789420293762</v>
+        <v>16.20261975751921</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>31.02220954003563</v>
+        <v>29.75316619997456</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.18274077835475</v>
+        <v>31.74736894000525</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>32.09352268266506</v>
+        <v>35.72835550699951</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>38.71765440195809</v>
+        <v>48.76921181579038</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>38.72743375237885</v>
+        <v>49.51370273081785</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.31840463205552</v>
+        <v>21.04239467235134</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>39.48057045648027</v>
+        <v>47.19352212288173</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>44.62599487922185</v>
+        <v>60.13117187429764</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>44.46616012073194</v>
+        <v>60.77148748666698</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>38.15516229386656</v>
+        <v>44.97750224628761</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>38.59982047228897</v>
+        <v>47.85760082221851</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>29.37385992011446</v>
+        <v>19.30386882562996</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>39.71818144797414</v>
+        <v>45.67109203539378</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>42.96109321864832</v>
+        <v>56.76748616297135</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>43.17197678195969</v>
+        <v>58.68093153407483</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>34.71376156596076</v>
+        <v>38.52334799395334</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>35.11578504932088</v>
+        <v>41.59759071508579</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>28.66439572042205</v>
+        <v>18.89922961635333</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>39.07591264307943</v>
+        <v>43.93348226388769</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>40.63950163701136</v>
+        <v>51.26334152376171</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>41.2762755335425</v>
+        <v>55.28958628099733</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>24.58168719863042</v>
+        <v>10.98664631419792</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>28.19262494508326</v>
+        <v>23.87181328286677</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>25.36502176276643</v>
+        <v>21.39313805284621</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>25.92808785003162</v>
+        <v>22.99793560181721</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>22.80203263152012</v>
+        <v>14.81279441924294</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.20790913012219</v>
+        <v>26.17994230215379</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>26.73872805027696</v>
+        <v>16.09246482078777</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>36.52485720364719</v>
+        <v>39.13300890817199</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>38.01248773960764</v>
+        <v>45.44237739984494</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>37.78322700994917</v>
+        <v>44.7873256988174</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>26.54027333991911</v>
+        <v>15.30173811800702</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>35.16853230782334</v>
+        <v>37.73127567998397</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>25.76160897957027</v>
+        <v>15.21664665930483</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>35.13339394800248</v>
+        <v>37.90157187045991</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>38.0255862661854</v>
+        <v>44.67649045800285</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>37.93812388465095</v>
+        <v>45.21336763133132</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>27.01586753123306</v>
+        <v>13.41098069301621</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>35.14848693785211</v>
+        <v>33.39247456818241</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>23.36438752844461</v>
+        <v>10.60764145914806</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>30.90072995921822</v>
+        <v>29.97129774969803</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>34.19012805464062</v>
+        <v>36.40702116544067</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>35.46477002228597</v>
+        <v>40.0688087580555</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>24.63768899873457</v>
+        <v>12.2749895790171</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>30.22332018265805</v>
+        <v>28.10879392165735</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>26.39448149926538</v>
+        <v>24.66558052290928</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>27.36024915443578</v>
+        <v>25.77736238787712</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>26.09019051667</v>
+        <v>13.31132104147371</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>28.9920208716695</v>
+        <v>22.73334374367904</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>27.00162208028006</v>
+        <v>22.22281756150046</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>28.14540087980498</v>
+        <v>26.32656275164289</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>36.06726949609273</v>
+        <v>44.20140473110155</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>36.00251930550599</v>
+        <v>44.79652829396807</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>29.14046276164526</v>
+        <v>19.27268377779193</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>39.82763845589562</v>
+        <v>45.01395764017215</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>40.8099335755312</v>
+        <v>52.51512704765388</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>40.85260347306603</v>
+        <v>53.78378083959358</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>35.20969331696272</v>
+        <v>38.87237363515818</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>36.04284256394898</v>
+        <v>42.31601731137908</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>28.87217568779604</v>
+        <v>16.63849529596605</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>37.93746762025777</v>
+        <v>41.23952828939128</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>39.21542774007889</v>
+        <v>47.93281829755399</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>40.55248333066066</v>
+        <v>51.60606411333956</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.39866723026544</v>
+        <v>29.14444626299753</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>31.4570213211451</v>
+        <v>34.45710141950238</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>27.04120847576041</v>
+        <v>12.65205218449884</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>32.51971908591068</v>
+        <v>31.73691114337922</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>32.96142761629929</v>
+        <v>35.86016033592989</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>36.66258458234915</v>
+        <v>43.1886152983927</v>
       </c>
     </row>
   </sheetData>
